--- a/data_cripto/top_holders.xlsx
+++ b/data_cripto/top_holders.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -935,7 +935,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -990,7 +990,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1045,7 +1045,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1396,7 +1396,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1451,7 +1451,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1581,7 +1581,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2157,7 +2157,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2437,7 +2437,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2492,7 +2492,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2697,7 +2697,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,7 +2827,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2882,7 +2882,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3249,7 +3249,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3379,7 +3379,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3584,7 +3584,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3714,7 +3714,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3856,7 +3856,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4061,7 +4061,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4266,7 +4266,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4396,7 +4396,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4968,7 +4968,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5023,7 +5023,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5161,7 +5161,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5228,7 +5228,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5488,7 +5488,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5543,7 +5543,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6581,7 +6581,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6711,7 +6711,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6774,7 +6774,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6829,7 +6829,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6884,7 +6884,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6939,7 +6939,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7002,7 +7002,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7065,7 +7065,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7132,7 +7132,7 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7258,7 +7258,7 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:09</t>
+          <t>2025-09-18 20:18:08</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7369,13 +7369,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>146307.3723712505</v>
+        <v>146313.468671115</v>
       </c>
       <c r="E102" t="n">
-        <v>672599863.0439415</v>
+        <v>672627888.7707896</v>
       </c>
       <c r="F102" t="n">
-        <v>0.001212114603391262</v>
+        <v>0.001212165109486564</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7511,13 +7511,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>32393.85961779386</v>
+        <v>32393.85961879386</v>
       </c>
       <c r="E104" t="n">
-        <v>148920079.6191334</v>
+        <v>148920079.6237306</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0002683738328872485</v>
+        <v>0.0002683738328955332</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7665,13 +7665,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>23421.23666193958</v>
+        <v>23421.23549308987</v>
       </c>
       <c r="E106" t="n">
-        <v>107671406.5451688</v>
+        <v>107671401.171768</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0001940382260121724</v>
+        <v>0.0001940382163285879</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -7819,13 +7819,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14687.85412763415</v>
+        <v>14687.47726739852</v>
       </c>
       <c r="E108" t="n">
-        <v>67522562.35993586</v>
+        <v>67520829.86936648</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0001216846573897212</v>
+        <v>0.0001216815352107931</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -7973,13 +7973,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>10321.65423506835</v>
+        <v>10321.65107483294</v>
       </c>
       <c r="E110" t="n">
-        <v>47450399.19982918</v>
+        <v>47450384.67168976</v>
       </c>
       <c r="F110" t="n">
-        <v>8.551194397596905e-05</v>
+        <v>8.551191779432539e-05</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8050,13 +8050,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>10134.93407240276</v>
+        <v>10134.93370251783</v>
       </c>
       <c r="E111" t="n">
-        <v>46592014.86962781</v>
+        <v>46592013.16920391</v>
       </c>
       <c r="F111" t="n">
-        <v>8.396502099972793e-05</v>
+        <v>8.396501793533742e-05</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8435,13 +8435,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6774.444124713693</v>
+        <v>6774.444123521092</v>
       </c>
       <c r="E116" t="n">
-        <v>31143271.29681005</v>
+        <v>31143271.29132747</v>
       </c>
       <c r="F116" t="n">
-        <v>5.612432593340148e-05</v>
+        <v>5.612432592352114e-05</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8512,13 +8512,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6607.489203480739</v>
+        <v>6607.485603245329</v>
       </c>
       <c r="E117" t="n">
-        <v>30375751.14156555</v>
+        <v>30375734.59067133</v>
       </c>
       <c r="F117" t="n">
-        <v>5.474115231163076e-05</v>
+        <v>5.474112248471332e-05</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8589,13 +8589,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>6303.782233674159</v>
+        <v>6303.7302991243</v>
       </c>
       <c r="E118" t="n">
-        <v>28979558.57117984</v>
+        <v>28979319.81922526</v>
       </c>
       <c r="F118" t="n">
-        <v>5.222502720263658e-05</v>
+        <v>5.222459693979141e-05</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -8974,13 +8974,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>4583.701554094853</v>
+        <v>4583.701552759823</v>
       </c>
       <c r="E123" t="n">
-        <v>21072055.27343823</v>
+        <v>21072055.26730088</v>
       </c>
       <c r="F123" t="n">
-        <v>3.797465227662954e-05</v>
+        <v>3.79746522655692e-05</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9080,7 +9080,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9291,7 +9291,7 @@
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9327,13 +9327,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2469.475773042431</v>
+        <v>2465.972481916281</v>
       </c>
       <c r="E128" t="n">
-        <v>11352599.93955747</v>
+        <v>11336494.71469107</v>
       </c>
       <c r="F128" t="n">
-        <v>2.0458898268163e-05</v>
+        <v>2.042987450630388e-05</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
@@ -9360,7 +9360,7 @@
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9538,13 +9538,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1927.886397288717</v>
+        <v>1927.908132810177</v>
       </c>
       <c r="E131" t="n">
-        <v>8862821.509023769</v>
+        <v>8862921.430910964</v>
       </c>
       <c r="F131" t="n">
-        <v>1.597198567617915e-05</v>
+        <v>1.597216574873836e-05</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9766,7 +9766,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9823,7 +9823,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -9888,7 +9888,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -9945,7 +9945,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10002,7 +10002,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10059,7 +10059,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10237,13 +10237,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1095.436162623939</v>
+        <v>1096.505451900977</v>
       </c>
       <c r="E142" t="n">
-        <v>5035906.263729893</v>
+        <v>5040821.968315614</v>
       </c>
       <c r="F142" t="n">
-        <v>9.075374318322964e-06</v>
+        <v>9.084233073195948e-06</v>
       </c>
       <c r="G142" t="b">
         <v>0</v>
@@ -10278,7 +10278,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10412,7 +10412,7 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10469,7 +10469,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10526,7 +10526,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10583,7 +10583,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10660,7 +10660,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -10867,7 +10867,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11078,7 +11078,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11200,7 +11200,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11322,7 +11322,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11379,7 +11379,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11569,13 +11569,13 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>615.7511121805738</v>
+        <v>615.7512071805739</v>
       </c>
       <c r="E162" t="n">
-        <v>2830712.540383169</v>
+        <v>2830712.977114319</v>
       </c>
       <c r="F162" t="n">
-        <v>5.101321300710785e-06</v>
+        <v>5.101322087758529e-06</v>
       </c>
       <c r="G162" t="b">
         <v>0</v>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -11667,7 +11667,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -11736,7 +11736,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -11793,7 +11793,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -11927,7 +11927,7 @@
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -11984,7 +11984,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12041,7 +12041,7 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12098,7 +12098,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12199,13 +12199,13 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>480.3353249428976</v>
+        <v>480.3471249428976</v>
       </c>
       <c r="E172" t="n">
-        <v>2208183.14576774</v>
+        <v>2208237.39237374</v>
       </c>
       <c r="F172" t="n">
-        <v>3.979440355272077e-06</v>
+        <v>3.979538114886567e-06</v>
       </c>
       <c r="G172" t="b">
         <v>0</v>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12382,7 +12382,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12439,7 +12439,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -12561,7 +12561,7 @@
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -12760,7 +12760,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -12882,7 +12882,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -12939,7 +12939,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -12996,7 +12996,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13032,13 +13032,13 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>388.323812620452</v>
+        <v>388.323808802992</v>
       </c>
       <c r="E185" t="n">
-        <v>1785190.581664363</v>
+        <v>1785190.564114851</v>
       </c>
       <c r="F185" t="n">
-        <v>3.217151374487492e-06</v>
+        <v>3.217151342860931e-06</v>
       </c>
       <c r="G185" t="b">
         <v>0</v>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13130,7 +13130,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13195,7 +13195,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13252,7 +13252,7 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13309,7 +13309,7 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -13410,13 +13410,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>369.8657281978493</v>
+        <v>372.5837338958639</v>
       </c>
       <c r="E191" t="n">
-        <v>1700335.629699307</v>
+        <v>1712830.763954049</v>
       </c>
       <c r="F191" t="n">
-        <v>3.064231440811875e-06</v>
+        <v>3.086749338203295e-06</v>
       </c>
       <c r="G191" t="b">
         <v>0</v>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -13508,7 +13508,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -13650,7 +13650,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -13849,7 +13849,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -13906,7 +13906,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14028,7 +14028,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14093,7 +14093,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14150,7 +14150,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14207,7 +14207,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -14341,7 +14341,7 @@
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -14649,7 +14649,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -14783,7 +14783,7 @@
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -14860,7 +14860,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15213,7 +15213,7 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -15282,7 +15282,7 @@
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -15416,7 +15416,7 @@
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -15473,7 +15473,7 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -15692,7 +15692,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -15749,7 +15749,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -15883,7 +15883,7 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -15960,7 +15960,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16094,7 +16094,7 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16159,7 +16159,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -16553,7 +16553,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -16610,7 +16610,7 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -16667,7 +16667,7 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -16724,7 +16724,7 @@
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -16781,7 +16781,7 @@
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -16838,7 +16838,7 @@
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -16972,7 +16972,7 @@
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17029,7 +17029,7 @@
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -17106,7 +17106,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -17163,7 +17163,7 @@
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -17220,7 +17220,7 @@
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -17277,7 +17277,7 @@
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -17354,7 +17354,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -17411,7 +17411,7 @@
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -17468,7 +17468,7 @@
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -17525,7 +17525,7 @@
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -17602,7 +17602,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -17659,7 +17659,7 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -17724,7 +17724,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -17789,7 +17789,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -17846,7 +17846,7 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -17903,7 +17903,7 @@
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -17960,7 +17960,7 @@
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -18082,7 +18082,7 @@
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -18155,7 +18155,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -18277,7 +18277,7 @@
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -18342,7 +18342,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -18399,7 +18399,7 @@
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -18456,7 +18456,7 @@
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -18521,7 +18521,7 @@
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -18675,7 +18675,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -18732,7 +18732,7 @@
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -18789,7 +18789,7 @@
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -18846,7 +18846,7 @@
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -18903,7 +18903,7 @@
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -18960,7 +18960,7 @@
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -19037,7 +19037,7 @@
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -19094,7 +19094,7 @@
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -19151,7 +19151,7 @@
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -19208,7 +19208,7 @@
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -19265,7 +19265,7 @@
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -19322,7 +19322,7 @@
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -19452,7 +19452,7 @@
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -19566,7 +19566,7 @@
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -19623,7 +19623,7 @@
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -19680,7 +19680,7 @@
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -19737,7 +19737,7 @@
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -19802,7 +19802,7 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -19859,7 +19859,7 @@
       <c r="M291" t="inlineStr"/>
       <c r="N291" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -19916,7 +19916,7 @@
       <c r="M292" t="inlineStr"/>
       <c r="N292" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -19993,7 +19993,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -20058,7 +20058,7 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -20123,7 +20123,7 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -20277,7 +20277,7 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -20334,7 +20334,7 @@
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -20391,7 +20391,7 @@
       <c r="M299" t="inlineStr"/>
       <c r="N299" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -20513,7 +20513,7 @@
       <c r="M301" t="inlineStr"/>
       <c r="N301" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -20655,7 +20655,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -20691,13 +20691,13 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>479.7172011014044</v>
+        <v>479.7172993445927</v>
       </c>
       <c r="E304" t="n">
-        <v>2205341.525387343</v>
+        <v>2205341.977027981</v>
       </c>
       <c r="F304" t="n">
-        <v>3.974319376589766e-06</v>
+        <v>3.974320190506394e-06</v>
       </c>
       <c r="G304" t="b">
         <v>0</v>
@@ -20732,7 +20732,7 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -20789,7 +20789,7 @@
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -20846,7 +20846,7 @@
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -20911,7 +20911,7 @@
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -20976,7 +20976,7 @@
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -21033,7 +21033,7 @@
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -21098,7 +21098,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -21175,7 +21175,7 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -21232,7 +21232,7 @@
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -21289,7 +21289,7 @@
       <c r="M313" t="inlineStr"/>
       <c r="N313" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -21366,7 +21366,7 @@
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -21500,7 +21500,7 @@
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -21557,7 +21557,7 @@
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -21593,13 +21593,13 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>35.26977926298711</v>
+        <v>35.26981926298711</v>
       </c>
       <c r="E318" t="n">
-        <v>162141.1711344265</v>
+        <v>162141.3550212265</v>
       </c>
       <c r="F318" t="n">
-        <v>2.922000020243244e-07</v>
+        <v>2.922003334128481e-07</v>
       </c>
       <c r="G318" t="b">
         <v>0</v>
@@ -21622,7 +21622,7 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -21695,7 +21695,7 @@
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -21760,7 +21760,7 @@
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -21817,7 +21817,7 @@
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -21874,7 +21874,7 @@
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -21931,7 +21931,7 @@
       <c r="M323" t="inlineStr"/>
       <c r="N323" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -21988,7 +21988,7 @@
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -22045,7 +22045,7 @@
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -22183,7 +22183,7 @@
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -22240,7 +22240,7 @@
       <c r="M328" t="inlineStr"/>
       <c r="N328" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -22297,7 +22297,7 @@
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -22362,7 +22362,7 @@
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -22419,7 +22419,7 @@
       <c r="M331" t="inlineStr"/>
       <c r="N331" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -22476,7 +22476,7 @@
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -22533,7 +22533,7 @@
       <c r="M333" t="inlineStr"/>
       <c r="N333" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -22598,7 +22598,7 @@
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -22655,7 +22655,7 @@
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -22777,7 +22777,7 @@
       <c r="M337" t="inlineStr"/>
       <c r="N337" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -22834,7 +22834,7 @@
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -22956,7 +22956,7 @@
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -23013,7 +23013,7 @@
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -23070,7 +23070,7 @@
       <c r="M342" t="inlineStr"/>
       <c r="N342" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -23127,7 +23127,7 @@
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -23204,7 +23204,7 @@
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -23261,7 +23261,7 @@
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -23318,7 +23318,7 @@
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -23375,7 +23375,7 @@
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -23432,7 +23432,7 @@
       <c r="M348" t="inlineStr"/>
       <c r="N348" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -23489,7 +23489,7 @@
       <c r="M349" t="inlineStr"/>
       <c r="N349" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -23525,13 +23525,13 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>13.27632262404572</v>
+        <v>13.27632303539868</v>
       </c>
       <c r="E350" t="n">
-        <v>61033.51207758426</v>
+        <v>61033.51396864374</v>
       </c>
       <c r="F350" t="n">
-        <v>1.099905238616792e-07</v>
+        <v>1.099905272696205e-07</v>
       </c>
       <c r="G350" t="b">
         <v>0</v>
@@ -23554,7 +23554,7 @@
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -23611,7 +23611,7 @@
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -23668,7 +23668,7 @@
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -23745,7 +23745,7 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -23802,7 +23802,7 @@
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -23859,7 +23859,7 @@
       <c r="M355" t="inlineStr"/>
       <c r="N355" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -23916,7 +23916,7 @@
       <c r="M356" t="inlineStr"/>
       <c r="N356" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -23989,7 +23989,7 @@
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -24054,7 +24054,7 @@
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -24111,7 +24111,7 @@
       <c r="M359" t="inlineStr"/>
       <c r="N359" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -24233,7 +24233,7 @@
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -24290,7 +24290,7 @@
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -24355,7 +24355,7 @@
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -24477,7 +24477,7 @@
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -24534,7 +24534,7 @@
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -24591,7 +24591,7 @@
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -24648,7 +24648,7 @@
       <c r="M368" t="inlineStr"/>
       <c r="N368" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -24705,7 +24705,7 @@
       <c r="M369" t="inlineStr"/>
       <c r="N369" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -24762,7 +24762,7 @@
       <c r="M370" t="inlineStr"/>
       <c r="N370" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -24819,7 +24819,7 @@
       <c r="M371" t="inlineStr"/>
       <c r="N371" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -24876,7 +24876,7 @@
       <c r="M372" t="inlineStr"/>
       <c r="N372" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -24933,7 +24933,7 @@
       <c r="M373" t="inlineStr"/>
       <c r="N373" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -25006,7 +25006,7 @@
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -25063,7 +25063,7 @@
       <c r="M375" t="inlineStr"/>
       <c r="N375" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -25128,7 +25128,7 @@
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -25193,7 +25193,7 @@
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -25250,7 +25250,7 @@
       <c r="M378" t="inlineStr"/>
       <c r="N378" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -25327,7 +25327,7 @@
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -25384,7 +25384,7 @@
       <c r="M380" t="inlineStr"/>
       <c r="N380" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -25441,7 +25441,7 @@
       <c r="M381" t="inlineStr"/>
       <c r="N381" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -25498,7 +25498,7 @@
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -25555,7 +25555,7 @@
       <c r="M383" t="inlineStr"/>
       <c r="N383" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -25612,7 +25612,7 @@
       <c r="M384" t="inlineStr"/>
       <c r="N384" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -25669,7 +25669,7 @@
       <c r="M385" t="inlineStr"/>
       <c r="N385" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -25726,7 +25726,7 @@
       <c r="M386" t="inlineStr"/>
       <c r="N386" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -25783,7 +25783,7 @@
       <c r="M387" t="inlineStr"/>
       <c r="N387" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -25840,7 +25840,7 @@
       <c r="M388" t="inlineStr"/>
       <c r="N388" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -25897,7 +25897,7 @@
       <c r="M389" t="inlineStr"/>
       <c r="N389" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -25954,7 +25954,7 @@
       <c r="M390" t="inlineStr"/>
       <c r="N390" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -26019,7 +26019,7 @@
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -26076,7 +26076,7 @@
       <c r="M392" t="inlineStr"/>
       <c r="N392" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -26133,7 +26133,7 @@
       <c r="M393" t="inlineStr"/>
       <c r="N393" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -26190,7 +26190,7 @@
       <c r="M394" t="inlineStr"/>
       <c r="N394" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -26247,7 +26247,7 @@
       <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -26304,7 +26304,7 @@
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -26377,7 +26377,7 @@
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -26434,7 +26434,7 @@
       <c r="M398" t="inlineStr"/>
       <c r="N398" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -26491,7 +26491,7 @@
       <c r="M399" t="inlineStr"/>
       <c r="N399" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -26568,7 +26568,7 @@
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -26625,7 +26625,7 @@
       <c r="M401" t="inlineStr"/>
       <c r="N401" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -26690,7 +26690,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -26726,13 +26726,13 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>2588914.900735046</v>
+        <v>2588946.87555983</v>
       </c>
       <c r="E403" t="n">
-        <v>11901681914.21213</v>
+        <v>11901828907.91738</v>
       </c>
       <c r="F403" t="n">
-        <v>0.02144841717309674</v>
+        <v>0.02144868207534625</v>
       </c>
       <c r="G403" t="b">
         <v>0</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -26832,7 +26832,7 @@
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -26909,7 +26909,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -26986,7 +26986,7 @@
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -27063,7 +27063,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -27140,7 +27140,7 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -27294,7 +27294,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -27351,7 +27351,7 @@
       <c r="M411" t="inlineStr"/>
       <c r="N411" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -27428,7 +27428,7 @@
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -27505,7 +27505,7 @@
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -27562,7 +27562,7 @@
       <c r="M414" t="inlineStr"/>
       <c r="N414" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -27716,7 +27716,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -27793,7 +27793,7 @@
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -27850,7 +27850,7 @@
       <c r="M418" t="inlineStr"/>
       <c r="N418" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -27927,7 +27927,7 @@
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -28004,7 +28004,7 @@
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -28061,7 +28061,7 @@
       <c r="M421" t="inlineStr"/>
       <c r="N421" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -28138,7 +28138,7 @@
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -28288,7 +28288,7 @@
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -28365,7 +28365,7 @@
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -28422,7 +28422,7 @@
       <c r="M426" t="inlineStr"/>
       <c r="N426" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -28495,7 +28495,7 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -28572,7 +28572,7 @@
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -28649,7 +28649,7 @@
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -28726,7 +28726,7 @@
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -28880,7 +28880,7 @@
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -28957,7 +28957,7 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -29014,7 +29014,7 @@
       <c r="M434" t="inlineStr"/>
       <c r="N434" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -29083,7 +29083,7 @@
       <c r="M435" t="inlineStr"/>
       <c r="N435" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -29160,7 +29160,7 @@
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -29217,7 +29217,7 @@
       <c r="M437" t="inlineStr"/>
       <c r="N437" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -29294,7 +29294,7 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -29330,13 +29330,13 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>160310.9380572464</v>
+        <v>160357.0742047103</v>
       </c>
       <c r="E439" t="n">
-        <v>736976635.1086313</v>
+        <v>737188730.8216679</v>
       </c>
       <c r="F439" t="n">
-        <v>0.0013281301273696</v>
+        <v>0.001328512352114524</v>
       </c>
       <c r="G439" t="b">
         <v>0</v>
@@ -29371,7 +29371,7 @@
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -29407,13 +29407,13 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>151525.0109667137</v>
+        <v>151525.0111267137</v>
       </c>
       <c r="E440" t="n">
-        <v>696586234.6658469</v>
+        <v>696586235.4013942</v>
       </c>
       <c r="F440" t="n">
-        <v>0.00125534124217424</v>
+        <v>0.001255341243499794</v>
       </c>
       <c r="G440" t="b">
         <v>0</v>
@@ -29448,7 +29448,7 @@
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -29505,7 +29505,7 @@
       <c r="M441" t="inlineStr"/>
       <c r="N441" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -29562,7 +29562,7 @@
       <c r="M442" t="inlineStr"/>
       <c r="N442" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -29639,7 +29639,7 @@
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -29716,7 +29716,7 @@
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -29773,7 +29773,7 @@
       <c r="M445" t="inlineStr"/>
       <c r="N445" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -29850,7 +29850,7 @@
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -29907,7 +29907,7 @@
       <c r="M447" t="inlineStr"/>
       <c r="N447" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -29984,7 +29984,7 @@
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -30041,7 +30041,7 @@
       <c r="M449" t="inlineStr"/>
       <c r="N449" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -30098,7 +30098,7 @@
       <c r="M450" t="inlineStr"/>
       <c r="N450" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -30175,7 +30175,7 @@
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -30252,7 +30252,7 @@
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -30329,7 +30329,7 @@
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -30406,7 +30406,7 @@
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -30463,7 +30463,7 @@
       <c r="M455" t="inlineStr"/>
       <c r="N455" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -30609,7 +30609,7 @@
       <c r="M457" t="inlineStr"/>
       <c r="N457" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -30666,7 +30666,7 @@
       <c r="M458" t="inlineStr"/>
       <c r="N458" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -30723,7 +30723,7 @@
       <c r="M459" t="inlineStr"/>
       <c r="N459" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -30780,7 +30780,7 @@
       <c r="M460" t="inlineStr"/>
       <c r="N460" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -30837,7 +30837,7 @@
       <c r="M461" t="inlineStr"/>
       <c r="N461" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -30894,7 +30894,7 @@
       <c r="M462" t="inlineStr"/>
       <c r="N462" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -30951,7 +30951,7 @@
       <c r="M463" t="inlineStr"/>
       <c r="N463" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -31028,7 +31028,7 @@
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -31085,7 +31085,7 @@
       <c r="M465" t="inlineStr"/>
       <c r="N465" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -31142,7 +31142,7 @@
       <c r="M466" t="inlineStr"/>
       <c r="N466" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -31199,7 +31199,7 @@
       <c r="M467" t="inlineStr"/>
       <c r="N467" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -31256,7 +31256,7 @@
       <c r="M468" t="inlineStr"/>
       <c r="N468" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -31333,7 +31333,7 @@
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -31410,7 +31410,7 @@
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -31487,7 +31487,7 @@
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -31564,7 +31564,7 @@
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -31633,7 +31633,7 @@
       <c r="M473" t="inlineStr"/>
       <c r="N473" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -31702,7 +31702,7 @@
       <c r="M474" t="inlineStr"/>
       <c r="N474" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -31771,7 +31771,7 @@
       <c r="M475" t="inlineStr"/>
       <c r="N475" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -31848,7 +31848,7 @@
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -31905,7 +31905,7 @@
       <c r="M477" t="inlineStr"/>
       <c r="N477" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -31962,7 +31962,7 @@
       <c r="M478" t="inlineStr"/>
       <c r="N478" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -32039,7 +32039,7 @@
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -32116,7 +32116,7 @@
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -32193,7 +32193,7 @@
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -32270,7 +32270,7 @@
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -32347,7 +32347,7 @@
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -32424,7 +32424,7 @@
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -32501,7 +32501,7 @@
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -32578,7 +32578,7 @@
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -32655,7 +32655,7 @@
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -32732,7 +32732,7 @@
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -32789,7 +32789,7 @@
       <c r="M489" t="inlineStr"/>
       <c r="N489" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -32866,7 +32866,7 @@
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -32923,7 +32923,7 @@
       <c r="M491" t="inlineStr"/>
       <c r="N491" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -33000,7 +33000,7 @@
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -33077,7 +33077,7 @@
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -33142,7 +33142,7 @@
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -33207,7 +33207,7 @@
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -33272,7 +33272,7 @@
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -33337,7 +33337,7 @@
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -33402,7 +33402,7 @@
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -33459,7 +33459,7 @@
       <c r="M499" t="inlineStr"/>
       <c r="N499" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -33524,7 +33524,7 @@
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -33601,7 +33601,7 @@
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -33637,13 +33637,13 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>54971.73285725835</v>
+        <v>54981.06460976333</v>
       </c>
       <c r="E502" t="n">
-        <v>252714401.1394024</v>
+        <v>252757300.7920657</v>
       </c>
       <c r="F502" t="n">
-        <v>0.0004554250349116334</v>
+        <v>0.0004555023458037859</v>
       </c>
       <c r="G502" t="b">
         <v>0</v>
@@ -33666,7 +33666,7 @@
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -33723,7 +33723,7 @@
       <c r="M503" t="inlineStr"/>
       <c r="N503" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -33800,7 +33800,7 @@
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -33877,7 +33877,7 @@
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -33954,7 +33954,7 @@
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
@@ -34031,7 +34031,7 @@
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
@@ -34096,7 +34096,7 @@
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -34173,7 +34173,7 @@
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -34250,7 +34250,7 @@
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -34327,7 +34327,7 @@
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -34384,7 +34384,7 @@
       <c r="M512" t="inlineStr"/>
       <c r="N512" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
@@ -34420,13 +34420,13 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>654.9333611697568</v>
+        <v>654.9328806777569</v>
       </c>
       <c r="E513" t="n">
-        <v>3010839.999968771</v>
+        <v>3010837.791065364</v>
       </c>
       <c r="F513" t="n">
-        <v>5.425934991899143e-06</v>
+        <v>5.42593101116078e-06</v>
       </c>
       <c r="G513" t="b">
         <v>0</v>
@@ -34461,7 +34461,7 @@
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -34538,7 +34538,7 @@
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -34574,13 +34574,13 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>286.1001634333804</v>
+        <v>286.1001599115401</v>
       </c>
       <c r="E515" t="n">
-        <v>1315251.088331033</v>
+        <v>1315251.072140535</v>
       </c>
       <c r="F515" t="n">
-        <v>2.370257769719682e-06</v>
+        <v>2.370257740542245e-06</v>
       </c>
       <c r="G515" t="b">
         <v>0</v>
@@ -34615,7 +34615,7 @@
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -34672,7 +34672,7 @@
       <c r="M516" t="inlineStr"/>
       <c r="N516" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -34729,7 +34729,7 @@
       <c r="M517" t="inlineStr"/>
       <c r="N517" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -34786,7 +34786,7 @@
       <c r="M518" t="inlineStr"/>
       <c r="N518" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -34855,7 +34855,7 @@
       <c r="M519" t="inlineStr"/>
       <c r="N519" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -34912,7 +34912,7 @@
       <c r="M520" t="inlineStr"/>
       <c r="N520" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -34969,7 +34969,7 @@
       <c r="M521" t="inlineStr"/>
       <c r="N521" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -35026,7 +35026,7 @@
       <c r="M522" t="inlineStr"/>
       <c r="N522" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -35095,7 +35095,7 @@
       <c r="M523" t="inlineStr"/>
       <c r="N523" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -35152,7 +35152,7 @@
       <c r="M524" t="inlineStr"/>
       <c r="N524" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -35188,13 +35188,13 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>98.44632476662426</v>
+        <v>98.46296762375417</v>
       </c>
       <c r="E525" t="n">
-        <v>452574.4908273821</v>
+        <v>452651.000870894</v>
       </c>
       <c r="F525" t="n">
-        <v>8.155995556876819e-07</v>
+        <v>8.157374369840401e-07</v>
       </c>
       <c r="G525" t="b">
         <v>0</v>
@@ -35229,7 +35229,7 @@
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -35286,7 +35286,7 @@
       <c r="M526" t="inlineStr"/>
       <c r="N526" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -35343,7 +35343,7 @@
       <c r="M527" t="inlineStr"/>
       <c r="N527" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -35400,7 +35400,7 @@
       <c r="M528" t="inlineStr"/>
       <c r="N528" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -35477,7 +35477,7 @@
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -35542,7 +35542,7 @@
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -35599,7 +35599,7 @@
       <c r="M531" t="inlineStr"/>
       <c r="N531" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -35656,7 +35656,7 @@
       <c r="M532" t="inlineStr"/>
       <c r="N532" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -35713,7 +35713,7 @@
       <c r="M533" t="inlineStr"/>
       <c r="N533" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -35770,7 +35770,7 @@
       <c r="M534" t="inlineStr"/>
       <c r="N534" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -35835,7 +35835,7 @@
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -35912,7 +35912,7 @@
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -35969,7 +35969,7 @@
       <c r="M537" t="inlineStr"/>
       <c r="N537" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -36026,7 +36026,7 @@
       <c r="M538" t="inlineStr"/>
       <c r="N538" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -36083,7 +36083,7 @@
       <c r="M539" t="inlineStr"/>
       <c r="N539" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -36160,7 +36160,7 @@
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -36217,7 +36217,7 @@
       <c r="M541" t="inlineStr"/>
       <c r="N541" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -36282,7 +36282,7 @@
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
@@ -36339,7 +36339,7 @@
       <c r="M543" t="inlineStr"/>
       <c r="N543" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -36396,7 +36396,7 @@
       <c r="M544" t="inlineStr"/>
       <c r="N544" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -36473,7 +36473,7 @@
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -36542,7 +36542,7 @@
       <c r="M546" t="inlineStr"/>
       <c r="N546" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -36599,7 +36599,7 @@
       <c r="M547" t="inlineStr"/>
       <c r="N547" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -36656,7 +36656,7 @@
       <c r="M548" t="inlineStr"/>
       <c r="N548" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -36692,13 +36692,13 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>45.32233684251531</v>
+        <v>45.32382434251532</v>
       </c>
       <c r="E549" t="n">
-        <v>208354.4872623061</v>
+        <v>208361.3255526811</v>
       </c>
       <c r="F549" t="n">
-        <v>3.754825574150326e-07</v>
+        <v>3.754948809257575e-07</v>
       </c>
       <c r="G549" t="b">
         <v>0</v>
@@ -36721,7 +36721,7 @@
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -36778,7 +36778,7 @@
       <c r="M550" t="inlineStr"/>
       <c r="N550" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -36843,7 +36843,7 @@
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -36920,7 +36920,7 @@
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
@@ -36977,7 +36977,7 @@
       <c r="M553" t="inlineStr"/>
       <c r="N553" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
@@ -37034,7 +37034,7 @@
       <c r="M554" t="inlineStr"/>
       <c r="N554" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -37091,7 +37091,7 @@
       <c r="M555" t="inlineStr"/>
       <c r="N555" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -37156,7 +37156,7 @@
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -37192,13 +37192,13 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>38.77926254307892</v>
+        <v>38.78122356843975</v>
       </c>
       <c r="E557" t="n">
-        <v>178274.8623851661</v>
+        <v>178283.8775521241</v>
       </c>
       <c r="F557" t="n">
-        <v>3.212750641022805e-07</v>
+        <v>3.212913106347618e-07</v>
       </c>
       <c r="G557" t="b">
         <v>0</v>
@@ -37213,7 +37213,7 @@
       <c r="M557" t="inlineStr"/>
       <c r="N557" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
@@ -37270,7 +37270,7 @@
       <c r="M558" t="inlineStr"/>
       <c r="N558" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
@@ -37327,7 +37327,7 @@
       <c r="M559" t="inlineStr"/>
       <c r="N559" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
@@ -37384,7 +37384,7 @@
       <c r="M560" t="inlineStr"/>
       <c r="N560" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
@@ -37441,7 +37441,7 @@
       <c r="M561" t="inlineStr"/>
       <c r="N561" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -37498,7 +37498,7 @@
       <c r="M562" t="inlineStr"/>
       <c r="N562" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
@@ -37555,7 +37555,7 @@
       <c r="M563" t="inlineStr"/>
       <c r="N563" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
@@ -37612,7 +37612,7 @@
       <c r="M564" t="inlineStr"/>
       <c r="N564" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -37677,7 +37677,7 @@
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -37742,7 +37742,7 @@
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -37819,7 +37819,7 @@
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -37876,7 +37876,7 @@
       <c r="M568" t="inlineStr"/>
       <c r="N568" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
@@ -37933,7 +37933,7 @@
       <c r="M569" t="inlineStr"/>
       <c r="N569" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -37998,7 +37998,7 @@
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
@@ -38055,7 +38055,7 @@
       <c r="M571" t="inlineStr"/>
       <c r="N571" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
@@ -38091,13 +38091,13 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>28.31993903883962</v>
+        <v>28.31894344602011</v>
       </c>
       <c r="E572" t="n">
-        <v>130191.5741511823</v>
+        <v>130186.9972417403</v>
       </c>
       <c r="F572" t="n">
-        <v>2.346225697295968e-07</v>
+        <v>2.346143215287304e-07</v>
       </c>
       <c r="G572" t="b">
         <v>0</v>
@@ -38120,7 +38120,7 @@
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -38177,7 +38177,7 @@
       <c r="M573" t="inlineStr"/>
       <c r="N573" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -38234,7 +38234,7 @@
       <c r="M574" t="inlineStr"/>
       <c r="N574" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
@@ -38291,7 +38291,7 @@
       <c r="M575" t="inlineStr"/>
       <c r="N575" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
@@ -38348,7 +38348,7 @@
       <c r="M576" t="inlineStr"/>
       <c r="N576" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -38405,7 +38405,7 @@
       <c r="M577" t="inlineStr"/>
       <c r="N577" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -38462,7 +38462,7 @@
       <c r="M578" t="inlineStr"/>
       <c r="N578" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
@@ -38535,7 +38535,7 @@
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
@@ -38592,7 +38592,7 @@
       <c r="M580" t="inlineStr"/>
       <c r="N580" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
@@ -38669,7 +38669,7 @@
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
@@ -38746,7 +38746,7 @@
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -38811,7 +38811,7 @@
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
@@ -38868,7 +38868,7 @@
       <c r="M584" t="inlineStr"/>
       <c r="N584" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -38933,7 +38933,7 @@
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -39002,7 +39002,7 @@
       <c r="M586" t="inlineStr"/>
       <c r="N586" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -39059,7 +39059,7 @@
       <c r="M587" t="inlineStr"/>
       <c r="N587" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
@@ -39116,7 +39116,7 @@
       <c r="M588" t="inlineStr"/>
       <c r="N588" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
@@ -39173,7 +39173,7 @@
       <c r="M589" t="inlineStr"/>
       <c r="N589" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -39238,7 +39238,7 @@
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -39295,7 +39295,7 @@
       <c r="M591" t="inlineStr"/>
       <c r="N591" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -39360,7 +39360,7 @@
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -39425,7 +39425,7 @@
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -39482,7 +39482,7 @@
       <c r="M594" t="inlineStr"/>
       <c r="N594" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -39539,7 +39539,7 @@
       <c r="M595" t="inlineStr"/>
       <c r="N595" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -39604,7 +39604,7 @@
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -39661,7 +39661,7 @@
       <c r="M597" t="inlineStr"/>
       <c r="N597" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -39726,7 +39726,7 @@
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -39783,7 +39783,7 @@
       <c r="M599" t="inlineStr"/>
       <c r="N599" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -39848,7 +39848,7 @@
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -39925,7 +39925,7 @@
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -39982,7 +39982,7 @@
       <c r="M602" t="inlineStr"/>
       <c r="N602" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -40018,13 +40018,13 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>21022.36790858985</v>
+        <v>21022.57279914686</v>
       </c>
       <c r="E603" t="n">
-        <v>96643399.07833198</v>
+        <v>96644340.99505396</v>
       </c>
       <c r="F603" t="n">
-        <v>0.0001741642866444693</v>
+        <v>0.0001741659841039495</v>
       </c>
       <c r="G603" t="b">
         <v>0</v>
@@ -40047,7 +40047,7 @@
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -40124,7 +40124,7 @@
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -40160,13 +40160,13 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>14174.85063105883</v>
+        <v>14174.82897981882</v>
       </c>
       <c r="E605" t="n">
-        <v>65164198.07558472</v>
+        <v>65164098.5411537</v>
       </c>
       <c r="F605" t="n">
-        <v>0.0001174345706052229</v>
+        <v>0.0001174343912309113</v>
       </c>
       <c r="G605" t="b">
         <v>0</v>
@@ -40201,7 +40201,7 @@
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
@@ -40258,7 +40258,7 @@
       <c r="M606" t="inlineStr"/>
       <c r="N606" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
@@ -40335,7 +40335,7 @@
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
@@ -40412,7 +40412,7 @@
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
@@ -40469,7 +40469,7 @@
       <c r="M609" t="inlineStr"/>
       <c r="N609" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -40505,13 +40505,13 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>6666.849160573272</v>
+        <v>6670.137829442729</v>
       </c>
       <c r="E610" t="n">
-        <v>30648638.95551262</v>
+        <v>30663757.52537923</v>
       </c>
       <c r="F610" t="n">
-        <v>5.523293252531653e-05</v>
+        <v>5.526017820335572e-05</v>
       </c>
       <c r="G610" t="b">
         <v>0</v>
@@ -40546,7 +40546,7 @@
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
@@ -40623,7 +40623,7 @@
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -40700,7 +40700,7 @@
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
@@ -40777,7 +40777,7 @@
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -40854,7 +40854,7 @@
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -40931,7 +40931,7 @@
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
@@ -41008,7 +41008,7 @@
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -41044,13 +41044,13 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>2129.292556999077</v>
+        <v>2129.271957688993</v>
       </c>
       <c r="E617" t="n">
-        <v>9788719.864259446</v>
+        <v>9788625.165729107</v>
       </c>
       <c r="F617" t="n">
-        <v>1.764057792441128e-05</v>
+        <v>1.764040726503733e-05</v>
       </c>
       <c r="G617" t="b">
         <v>0</v>
@@ -41085,7 +41085,7 @@
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -41121,13 +41121,13 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>1316.974494200383</v>
+        <v>1316.974485929823</v>
       </c>
       <c r="E618" t="n">
-        <v>6054355.635503174</v>
+        <v>6054355.597482003</v>
       </c>
       <c r="F618" t="n">
-        <v>1.091075583439146e-05</v>
+        <v>1.091075576587224e-05</v>
       </c>
       <c r="G618" t="b">
         <v>0</v>
@@ -41162,7 +41162,7 @@
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
@@ -41219,7 +41219,7 @@
       <c r="M619" t="inlineStr"/>
       <c r="N619" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -41276,7 +41276,7 @@
       <c r="M620" t="inlineStr"/>
       <c r="N620" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -41353,7 +41353,7 @@
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -41389,13 +41389,13 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>903.2981894856482</v>
+        <v>903.4162064865402</v>
       </c>
       <c r="E622" t="n">
-        <v>4152615.337757737</v>
+        <v>4153157.881973729</v>
       </c>
       <c r="F622" t="n">
-        <v>7.48356633672679e-06</v>
+        <v>7.4845440737192e-06</v>
       </c>
       <c r="G622" t="b">
         <v>0</v>
@@ -41430,7 +41430,7 @@
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -41466,13 +41466,13 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>844.0833954621504</v>
+        <v>844.0822400821253</v>
       </c>
       <c r="E623" t="n">
-        <v>3880394.863116734</v>
+        <v>3880389.551638344</v>
       </c>
       <c r="F623" t="n">
-        <v>6.992988757419576e-06</v>
+        <v>6.992979185427554e-06</v>
       </c>
       <c r="G623" t="b">
         <v>0</v>
@@ -41507,7 +41507,7 @@
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
@@ -41543,13 +41543,13 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>811.3943823909842</v>
+        <v>811.3996853909842</v>
       </c>
       <c r="E624" t="n">
-        <v>3730117.912896361</v>
+        <v>3730142.291688871</v>
       </c>
       <c r="F624" t="n">
-        <v>6.722169662852921e-06</v>
+        <v>6.72221359668645e-06</v>
       </c>
       <c r="G624" t="b">
         <v>0</v>
@@ -41584,7 +41584,7 @@
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -41661,7 +41661,7 @@
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
@@ -41738,7 +41738,7 @@
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -41795,7 +41795,7 @@
       <c r="M627" t="inlineStr"/>
       <c r="N627" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -41872,7 +41872,7 @@
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
@@ -41949,7 +41949,7 @@
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -42006,7 +42006,7 @@
       <c r="M630" t="inlineStr"/>
       <c r="N630" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
@@ -42071,7 +42071,7 @@
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -42128,7 +42128,7 @@
       <c r="M632" t="inlineStr"/>
       <c r="N632" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -42205,7 +42205,7 @@
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -42282,7 +42282,7 @@
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -42318,13 +42318,13 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>358.924677695764</v>
+        <v>358.9246742549503</v>
       </c>
       <c r="E635" t="n">
-        <v>1650037.760562635</v>
+        <v>1650037.74474463</v>
       </c>
       <c r="F635" t="n">
-        <v>2.973587976473198e-06</v>
+        <v>2.973587947967044e-06</v>
       </c>
       <c r="G635" t="b">
         <v>0</v>
@@ -42359,7 +42359,7 @@
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -42436,7 +42436,7 @@
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -42493,7 +42493,7 @@
       <c r="M637" t="inlineStr"/>
       <c r="N637" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -42550,7 +42550,7 @@
       <c r="M638" t="inlineStr"/>
       <c r="N638" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -42627,7 +42627,7 @@
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -42684,7 +42684,7 @@
       <c r="M640" t="inlineStr"/>
       <c r="N640" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -42741,7 +42741,7 @@
       <c r="M641" t="inlineStr"/>
       <c r="N641" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -42806,7 +42806,7 @@
       <c r="M642" t="inlineStr"/>
       <c r="N642" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -42883,7 +42883,7 @@
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -42940,7 +42940,7 @@
       <c r="M644" t="inlineStr"/>
       <c r="N644" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -42997,7 +42997,7 @@
       <c r="M645" t="inlineStr"/>
       <c r="N645" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -43054,7 +43054,7 @@
       <c r="M646" t="inlineStr"/>
       <c r="N646" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
@@ -43131,7 +43131,7 @@
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
@@ -43188,7 +43188,7 @@
       <c r="M648" t="inlineStr"/>
       <c r="N648" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -43265,7 +43265,7 @@
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -43342,7 +43342,7 @@
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -43419,7 +43419,7 @@
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -43496,7 +43496,7 @@
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -43553,7 +43553,7 @@
       <c r="M653" t="inlineStr"/>
       <c r="N653" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
@@ -43630,7 +43630,7 @@
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -43707,7 +43707,7 @@
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -43784,7 +43784,7 @@
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
@@ -43841,7 +43841,7 @@
       <c r="M657" t="inlineStr"/>
       <c r="N657" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
@@ -43918,7 +43918,7 @@
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
@@ -43975,7 +43975,7 @@
       <c r="M659" t="inlineStr"/>
       <c r="N659" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -44032,7 +44032,7 @@
       <c r="M660" t="inlineStr"/>
       <c r="N660" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -44109,7 +44109,7 @@
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -44166,7 +44166,7 @@
       <c r="M662" t="inlineStr"/>
       <c r="N662" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
@@ -44223,7 +44223,7 @@
       <c r="M663" t="inlineStr"/>
       <c r="N663" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
@@ -44280,7 +44280,7 @@
       <c r="M664" t="inlineStr"/>
       <c r="N664" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -44337,7 +44337,7 @@
       <c r="M665" t="inlineStr"/>
       <c r="N665" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -44394,7 +44394,7 @@
       <c r="M666" t="inlineStr"/>
       <c r="N666" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -44463,7 +44463,7 @@
       <c r="M667" t="inlineStr"/>
       <c r="N667" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -44540,7 +44540,7 @@
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -44605,7 +44605,7 @@
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -44682,7 +44682,7 @@
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -44739,7 +44739,7 @@
       <c r="M671" t="inlineStr"/>
       <c r="N671" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -44804,7 +44804,7 @@
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -44861,7 +44861,7 @@
       <c r="M673" t="inlineStr"/>
       <c r="N673" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -44926,7 +44926,7 @@
       <c r="M674" t="inlineStr"/>
       <c r="N674" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -45003,7 +45003,7 @@
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -45060,7 +45060,7 @@
       <c r="M676" t="inlineStr"/>
       <c r="N676" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
@@ -45117,7 +45117,7 @@
       <c r="M677" t="inlineStr"/>
       <c r="N677" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -45182,7 +45182,7 @@
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -45218,13 +45218,13 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>85.49817960462039</v>
+        <v>85.49826586153121</v>
       </c>
       <c r="E679" t="n">
-        <v>393049.6663329728</v>
+        <v>393050.0628706554</v>
       </c>
       <c r="F679" t="n">
-        <v>7.083278879423946e-07</v>
+        <v>7.08328602556153e-07</v>
       </c>
       <c r="G679" t="b">
         <v>0</v>
@@ -45259,7 +45259,7 @@
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -45316,7 +45316,7 @@
       <c r="M680" t="inlineStr"/>
       <c r="N680" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
@@ -45373,7 +45373,7 @@
       <c r="M681" t="inlineStr"/>
       <c r="N681" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -45450,7 +45450,7 @@
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
@@ -45507,7 +45507,7 @@
       <c r="M683" t="inlineStr"/>
       <c r="N683" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -45564,7 +45564,7 @@
       <c r="M684" t="inlineStr"/>
       <c r="N684" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -45641,7 +45641,7 @@
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -45706,7 +45706,7 @@
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
@@ -45763,7 +45763,7 @@
       <c r="M687" t="inlineStr"/>
       <c r="N687" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -45840,7 +45840,7 @@
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -45905,7 +45905,7 @@
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
@@ -45962,7 +45962,7 @@
       <c r="M690" t="inlineStr"/>
       <c r="N690" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
@@ -46019,7 +46019,7 @@
       <c r="M691" t="inlineStr"/>
       <c r="N691" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -46076,7 +46076,7 @@
       <c r="M692" t="inlineStr"/>
       <c r="N692" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -46141,7 +46141,7 @@
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
@@ -46198,7 +46198,7 @@
       <c r="M694" t="inlineStr"/>
       <c r="N694" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -46255,7 +46255,7 @@
       <c r="M695" t="inlineStr"/>
       <c r="N695" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -46312,7 +46312,7 @@
       <c r="M696" t="inlineStr"/>
       <c r="N696" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -46389,7 +46389,7 @@
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -46466,7 +46466,7 @@
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -46531,7 +46531,7 @@
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -46588,7 +46588,7 @@
       <c r="M700" t="inlineStr"/>
       <c r="N700" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -46665,7 +46665,7 @@
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>2025-09-18 20:15:10</t>
+          <t>2025-09-18 20:18:16</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">

--- a/data_cripto/top_holders.xlsx
+++ b/data_cripto/top_holders.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1002,7 +1002,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1065,7 +1065,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1120,7 +1120,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1396,7 +1396,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1451,7 +1451,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1656,7 +1656,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2157,7 +2157,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2437,7 +2437,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2492,7 +2492,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2547,7 +2547,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2752,7 +2752,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2807,7 +2807,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2949,7 +2949,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3004,7 +3004,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3434,7 +3434,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3564,7 +3564,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3781,7 +3781,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4061,7 +4061,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4191,7 +4191,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4396,7 +4396,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4893,7 +4893,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4948,7 +4948,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5086,7 +5086,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5153,7 +5153,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5283,7 +5283,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5338,7 +5338,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5393,7 +5393,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6419,7 +6419,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6486,7 +6486,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6624,7 +6624,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6679,7 +6679,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6734,7 +6734,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6789,7 +6789,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6852,7 +6852,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6915,7 +6915,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7033,7 +7033,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7088,7 +7088,7 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7151,7 +7151,7 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7206,7 +7206,7 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:20</t>
+          <t>2025-10-05 22:00:20</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9085,7 +9085,7 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9154,7 +9154,7 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9625,7 +9625,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9682,7 +9682,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9747,7 +9747,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -9881,7 +9881,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -9938,7 +9938,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10291,7 +10291,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10348,7 +10348,7 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10405,7 +10405,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10462,7 +10462,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10519,7 +10519,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -10860,7 +10860,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -10994,7 +10994,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11136,7 +11136,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11193,7 +11193,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11250,7 +11250,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11538,7 +11538,7 @@
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -11680,7 +11680,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -11749,7 +11749,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -11806,7 +11806,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -11948,7 +11948,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12005,7 +12005,7 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12062,7 +12062,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12119,7 +12119,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12176,7 +12176,7 @@
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12233,7 +12233,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12290,7 +12290,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12347,7 +12347,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12404,7 +12404,7 @@
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -12461,7 +12461,7 @@
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -12518,7 +12518,7 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -12595,7 +12595,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -12717,7 +12717,7 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -12839,7 +12839,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -12896,7 +12896,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -12953,7 +12953,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13010,7 +13010,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13152,7 +13152,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13209,7 +13209,7 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13274,7 +13274,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -13331,7 +13331,7 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -13388,7 +13388,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -13587,7 +13587,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -13709,7 +13709,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -13766,7 +13766,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -13888,7 +13888,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -13945,7 +13945,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14002,7 +14002,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14059,7 +14059,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14136,7 +14136,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -14193,7 +14193,7 @@
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -14327,7 +14327,7 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -14558,7 +14558,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -14635,7 +14635,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -14789,7 +14789,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -14854,7 +14854,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15085,7 +15085,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -15239,7 +15239,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -15308,7 +15308,7 @@
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -15365,7 +15365,7 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -15422,7 +15422,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -15499,7 +15499,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -15564,7 +15564,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -15621,7 +15621,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -15755,7 +15755,7 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -15909,7 +15909,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -15966,7 +15966,7 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16023,7 +16023,7 @@
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -16088,7 +16088,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -16153,7 +16153,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -16340,7 +16340,7 @@
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -16397,7 +16397,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -16454,7 +16454,7 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -16511,7 +16511,7 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -16568,7 +16568,7 @@
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -16625,7 +16625,7 @@
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -16682,7 +16682,7 @@
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -16816,7 +16816,7 @@
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -16873,7 +16873,7 @@
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -16930,7 +16930,7 @@
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -16987,7 +16987,7 @@
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -17044,7 +17044,7 @@
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -17101,7 +17101,7 @@
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -17158,7 +17158,7 @@
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -17215,7 +17215,7 @@
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -17272,7 +17272,7 @@
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -17329,7 +17329,7 @@
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -17386,7 +17386,7 @@
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -17443,7 +17443,7 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -17500,7 +17500,7 @@
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -17638,7 +17638,7 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -17760,7 +17760,7 @@
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -17817,7 +17817,7 @@
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -17882,7 +17882,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -17959,7 +17959,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -18024,7 +18024,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -18081,7 +18081,7 @@
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -18138,7 +18138,7 @@
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -18272,7 +18272,7 @@
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -18329,7 +18329,7 @@
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -18394,7 +18394,7 @@
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -18451,7 +18451,7 @@
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -18528,7 +18528,7 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -18585,7 +18585,7 @@
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -18642,7 +18642,7 @@
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -18853,7 +18853,7 @@
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -18910,7 +18910,7 @@
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -18975,7 +18975,7 @@
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -19032,7 +19032,7 @@
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -19089,7 +19089,7 @@
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -19146,7 +19146,7 @@
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -19203,7 +19203,7 @@
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -19260,7 +19260,7 @@
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -19317,7 +19317,7 @@
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -19374,7 +19374,7 @@
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -19431,7 +19431,7 @@
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -19504,7 +19504,7 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -19561,7 +19561,7 @@
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -19683,7 +19683,7 @@
       <c r="M291" t="inlineStr"/>
       <c r="N291" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -19740,7 +19740,7 @@
       <c r="M292" t="inlineStr"/>
       <c r="N292" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -19797,7 +19797,7 @@
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -19862,7 +19862,7 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -19984,7 +19984,7 @@
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -20041,7 +20041,7 @@
       <c r="M297" t="inlineStr"/>
       <c r="N297" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -20098,7 +20098,7 @@
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -20175,7 +20175,7 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -20232,7 +20232,7 @@
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -20297,7 +20297,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -20362,7 +20362,7 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -20463,13 +20463,13 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>481.0038316950652</v>
+        <v>481.0039406608191</v>
       </c>
       <c r="E304" t="n">
-        <v>2165974.684237829</v>
+        <v>2165975.174913888</v>
       </c>
       <c r="F304" t="n">
-        <v>3.985040356981185e-06</v>
+        <v>3.985041259745152e-06</v>
       </c>
       <c r="G304" t="b">
         <v>0</v>
@@ -20504,7 +20504,7 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -20561,7 +20561,7 @@
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -20626,7 +20626,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -20691,7 +20691,7 @@
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -20748,7 +20748,7 @@
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -20813,7 +20813,7 @@
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -20890,7 +20890,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -20947,7 +20947,7 @@
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -21004,7 +21004,7 @@
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -21081,7 +21081,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -21138,7 +21138,7 @@
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -21160,12 +21160,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5744Cbf430D99456a0A8771208b674F27f8EF0Fb</t>
+          <t>https://intel.arkm.com/explorer/address/0x3bDB03ad7363152DFBc185Ee23eBC93F0CF93fd1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>0x5744Cbf430D99456a0A8771208b674F27f8EF0Fb</t>
+          <t>0x3bDB03ad7363152DFBc185Ee23eBC93F0CF93fd1</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -21174,26 +21174,38 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>36.28360926298732</v>
+        <v>38.14867465827563</v>
       </c>
       <c r="E315" t="n">
-        <v>163386.1810195098</v>
+        <v>171784.6264464549</v>
       </c>
       <c r="F315" t="n">
-        <v>3.006039405141484e-07</v>
+        <v>3.160557111215493e-07</v>
       </c>
       <c r="G315" t="b">
         <v>0</v>
       </c>
       <c r="H315" t="b">
-        <v>1</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Orbiter Finance</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>bridge</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>https://www.orbiter.finance</t>
+        </is>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Proxy (EIP-1967 Transparent)</t>
+          <t>Bridge</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
@@ -21203,7 +21215,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -21225,12 +21237,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x2c3474Bfe64cD9748be69D24c30cC91639265e68</t>
+          <t>https://intel.arkm.com/explorer/address/0x5744Cbf430D99456a0A8771208b674F27f8EF0Fb</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>0x2c3474Bfe64cD9748be69D24c30cC91639265e68</t>
+          <t>0x5744Cbf430D99456a0A8771208b674F27f8EF0Fb</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -21239,34 +21251,26 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>32.79970785617723</v>
+        <v>36.28363426298732</v>
       </c>
       <c r="E316" t="n">
-        <v>147698.0684676018</v>
+        <v>163386.2935952597</v>
       </c>
       <c r="F316" t="n">
-        <v>2.717403706399624e-07</v>
+        <v>3.006041476351781e-07</v>
       </c>
       <c r="G316" t="b">
         <v>0</v>
       </c>
       <c r="H316" t="b">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr">
-        <is>
-          <t>@hadesburn</t>
-        </is>
-      </c>
-      <c r="J316" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
-          <t>hadesburn.eth</t>
+          <t>Proxy (EIP-1967 Transparent)</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
@@ -21276,7 +21280,7 @@
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -21298,12 +21302,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3bDB03ad7363152DFBc185Ee23eBC93F0CF93fd1</t>
+          <t>https://intel.arkm.com/explorer/address/0x2c3474Bfe64cD9748be69D24c30cC91639265e68</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>0x3bDB03ad7363152DFBc185Ee23eBC93F0CF93fd1</t>
+          <t>0x2c3474Bfe64cD9748be69D24c30cC91639265e68</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -21312,13 +21316,13 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>32.1441746582756</v>
+        <v>32.79970785617723</v>
       </c>
       <c r="E317" t="n">
-        <v>144746.1828114548</v>
+        <v>147698.0684676018</v>
       </c>
       <c r="F317" t="n">
-        <v>2.663093822011114e-07</v>
+        <v>2.717403706399624e-07</v>
       </c>
       <c r="G317" t="b">
         <v>0</v>
@@ -21328,22 +21332,18 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Orbiter Finance</t>
+          <t>@hadesburn</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>bridge</t>
-        </is>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>https://www.orbiter.finance</t>
-        </is>
-      </c>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Bridge</t>
+          <t>hadesburn.eth</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
@@ -21353,7 +21353,7 @@
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -21475,7 +21475,7 @@
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -21532,7 +21532,7 @@
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -21589,7 +21589,7 @@
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -21646,7 +21646,7 @@
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -21719,7 +21719,7 @@
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -21841,7 +21841,7 @@
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -21898,7 +21898,7 @@
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -21963,7 +21963,7 @@
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -22020,7 +22020,7 @@
       <c r="M328" t="inlineStr"/>
       <c r="N328" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -22077,7 +22077,7 @@
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -22134,7 +22134,7 @@
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -22199,7 +22199,7 @@
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -22256,7 +22256,7 @@
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -22321,7 +22321,7 @@
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -22378,7 +22378,7 @@
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -22435,7 +22435,7 @@
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -22512,7 +22512,7 @@
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -22577,7 +22577,7 @@
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -22634,7 +22634,7 @@
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -22691,7 +22691,7 @@
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -22748,7 +22748,7 @@
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -22882,7 +22882,7 @@
       <c r="M342" t="inlineStr"/>
       <c r="N342" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -22939,7 +22939,7 @@
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -22996,7 +22996,7 @@
       <c r="M344" t="inlineStr"/>
       <c r="N344" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -23053,7 +23053,7 @@
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -23110,7 +23110,7 @@
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -23167,7 +23167,7 @@
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -23203,13 +23203,13 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>13.28008428798416</v>
+        <v>13.2800847183284</v>
       </c>
       <c r="E348" t="n">
-        <v>59800.61795132131</v>
+        <v>59800.61988917433</v>
       </c>
       <c r="F348" t="n">
-        <v>1.100233893048873e-07</v>
+        <v>1.100233928702209e-07</v>
       </c>
       <c r="G348" t="b">
         <v>0</v>
@@ -23232,7 +23232,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -23289,7 +23289,7 @@
       <c r="M349" t="inlineStr"/>
       <c r="N349" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -23346,7 +23346,7 @@
       <c r="M350" t="inlineStr"/>
       <c r="N350" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -23403,7 +23403,7 @@
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -23476,7 +23476,7 @@
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -23598,7 +23598,7 @@
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -23663,7 +23663,7 @@
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -23720,7 +23720,7 @@
       <c r="M356" t="inlineStr"/>
       <c r="N356" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -23777,7 +23777,7 @@
       <c r="M357" t="inlineStr"/>
       <c r="N357" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -23907,7 +23907,7 @@
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -23964,7 +23964,7 @@
       <c r="M360" t="inlineStr"/>
       <c r="N360" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -24021,7 +24021,7 @@
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -24078,7 +24078,7 @@
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -24135,7 +24135,7 @@
       <c r="M363" t="inlineStr"/>
       <c r="N363" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -24192,7 +24192,7 @@
       <c r="M364" t="inlineStr"/>
       <c r="N364" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -24249,7 +24249,7 @@
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -24306,7 +24306,7 @@
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -24363,7 +24363,7 @@
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -24436,7 +24436,7 @@
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -24493,7 +24493,7 @@
       <c r="M369" t="inlineStr"/>
       <c r="N369" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -24558,7 +24558,7 @@
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -24623,7 +24623,7 @@
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -24680,7 +24680,7 @@
       <c r="M372" t="inlineStr"/>
       <c r="N372" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -24737,7 +24737,7 @@
       <c r="M373" t="inlineStr"/>
       <c r="N373" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -24794,7 +24794,7 @@
       <c r="M374" t="inlineStr"/>
       <c r="N374" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -24851,7 +24851,7 @@
       <c r="M375" t="inlineStr"/>
       <c r="N375" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -24908,7 +24908,7 @@
       <c r="M376" t="inlineStr"/>
       <c r="N376" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -24965,7 +24965,7 @@
       <c r="M377" t="inlineStr"/>
       <c r="N377" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -25022,7 +25022,7 @@
       <c r="M378" t="inlineStr"/>
       <c r="N378" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -25079,7 +25079,7 @@
       <c r="M379" t="inlineStr"/>
       <c r="N379" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -25136,7 +25136,7 @@
       <c r="M380" t="inlineStr"/>
       <c r="N380" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -25193,7 +25193,7 @@
       <c r="M381" t="inlineStr"/>
       <c r="N381" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -25250,7 +25250,7 @@
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -25307,7 +25307,7 @@
       <c r="M383" t="inlineStr"/>
       <c r="N383" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -25364,7 +25364,7 @@
       <c r="M384" t="inlineStr"/>
       <c r="N384" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -25429,7 +25429,7 @@
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -25486,7 +25486,7 @@
       <c r="M386" t="inlineStr"/>
       <c r="N386" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -25543,7 +25543,7 @@
       <c r="M387" t="inlineStr"/>
       <c r="N387" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -25600,7 +25600,7 @@
       <c r="M388" t="inlineStr"/>
       <c r="N388" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -25657,7 +25657,7 @@
       <c r="M389" t="inlineStr"/>
       <c r="N389" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -25714,7 +25714,7 @@
       <c r="M390" t="inlineStr"/>
       <c r="N390" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -25787,7 +25787,7 @@
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -25844,7 +25844,7 @@
       <c r="M392" t="inlineStr"/>
       <c r="N392" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -25901,7 +25901,7 @@
       <c r="M393" t="inlineStr"/>
       <c r="N393" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -25978,7 +25978,7 @@
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -26035,7 +26035,7 @@
       <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -26092,7 +26092,7 @@
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -26149,7 +26149,7 @@
       <c r="M397" t="inlineStr"/>
       <c r="N397" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -26206,7 +26206,7 @@
       <c r="M398" t="inlineStr"/>
       <c r="N398" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -26271,7 +26271,7 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -26336,7 +26336,7 @@
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -26393,7 +26393,7 @@
       <c r="M401" t="inlineStr"/>
       <c r="N401" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -26458,7 +26458,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -26494,13 +26494,13 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>2437174.347357222</v>
+        <v>2437167.049772657</v>
       </c>
       <c r="E403" t="n">
-        <v>10974669201.37999</v>
+        <v>10974636340.13777</v>
       </c>
       <c r="F403" t="n">
-        <v>0.02019160241820056</v>
+        <v>0.02019154195887137</v>
       </c>
       <c r="G403" t="b">
         <v>0</v>
@@ -26523,7 +26523,7 @@
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -26677,7 +26677,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -26754,7 +26754,7 @@
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -26831,7 +26831,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -26908,7 +26908,7 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -26985,7 +26985,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -27062,7 +27062,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -27119,7 +27119,7 @@
       <c r="M411" t="inlineStr"/>
       <c r="N411" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -27196,7 +27196,7 @@
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -27253,7 +27253,7 @@
       <c r="M413" t="inlineStr"/>
       <c r="N413" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -27330,7 +27330,7 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -27484,7 +27484,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -27561,7 +27561,7 @@
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -27618,7 +27618,7 @@
       <c r="M418" t="inlineStr"/>
       <c r="N418" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -27695,7 +27695,7 @@
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -27845,7 +27845,7 @@
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -27999,7 +27999,7 @@
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -28056,7 +28056,7 @@
       <c r="M424" t="inlineStr"/>
       <c r="N424" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -28129,7 +28129,7 @@
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -28206,7 +28206,7 @@
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -28283,7 +28283,7 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -28319,13 +28319,13 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>202286.5786967337</v>
+        <v>202287.2418599181</v>
       </c>
       <c r="E428" t="n">
-        <v>910902532.4687529</v>
+        <v>910905518.7124671</v>
       </c>
       <c r="F428" t="n">
-        <v>0.001675912179205214</v>
+        <v>0.001675917673406879</v>
       </c>
       <c r="G428" t="b">
         <v>0</v>
@@ -28360,7 +28360,7 @@
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -28437,7 +28437,7 @@
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -28502,7 +28502,7 @@
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -28538,13 +28538,13 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>198138.2775257851</v>
+        <v>198137.9660947816</v>
       </c>
       <c r="E431" t="n">
-        <v>892222607.846936</v>
+        <v>892221205.4637841</v>
       </c>
       <c r="F431" t="n">
-        <v>0.00164154416279901</v>
+        <v>0.001641541582642605</v>
       </c>
       <c r="G431" t="b">
         <v>0</v>
@@ -28579,7 +28579,7 @@
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -28656,7 +28656,7 @@
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -28733,7 +28733,7 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -28802,7 +28802,7 @@
       <c r="M434" t="inlineStr"/>
       <c r="N434" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -28879,7 +28879,7 @@
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -28936,7 +28936,7 @@
       <c r="M436" t="inlineStr"/>
       <c r="N436" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -29013,7 +29013,7 @@
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -29070,7 +29070,7 @@
       <c r="M438" t="inlineStr"/>
       <c r="N438" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -29106,13 +29106,13 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>151626.5592693627</v>
+        <v>151687.2892693627</v>
       </c>
       <c r="E439" t="n">
-        <v>682778945.1867185</v>
+        <v>683052414.1986183</v>
       </c>
       <c r="F439" t="n">
-        <v>0.001256201963608618</v>
+        <v>0.001256705102014037</v>
       </c>
       <c r="G439" t="b">
         <v>0</v>
@@ -29147,7 +29147,7 @@
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -29216,7 +29216,7 @@
       <c r="M440" t="inlineStr"/>
       <c r="N440" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -29293,7 +29293,7 @@
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -29370,7 +29370,7 @@
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -29427,7 +29427,7 @@
       <c r="M443" t="inlineStr"/>
       <c r="N443" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -29496,7 +29496,7 @@
       <c r="M444" t="inlineStr"/>
       <c r="N444" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -29573,7 +29573,7 @@
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -29642,7 +29642,7 @@
       <c r="M446" t="inlineStr"/>
       <c r="N446" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -29699,7 +29699,7 @@
       <c r="M447" t="inlineStr"/>
       <c r="N447" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -29776,7 +29776,7 @@
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -29853,7 +29853,7 @@
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -29922,7 +29922,7 @@
       <c r="M450" t="inlineStr"/>
       <c r="N450" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -29991,7 +29991,7 @@
       <c r="M451" t="inlineStr"/>
       <c r="N451" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -30048,7 +30048,7 @@
       <c r="M452" t="inlineStr"/>
       <c r="N452" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -30105,7 +30105,7 @@
       <c r="M453" t="inlineStr"/>
       <c r="N453" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -30182,7 +30182,7 @@
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -30259,7 +30259,7 @@
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -30316,7 +30316,7 @@
       <c r="M456" t="inlineStr"/>
       <c r="N456" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -30385,7 +30385,7 @@
       <c r="M457" t="inlineStr"/>
       <c r="N457" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -30442,7 +30442,7 @@
       <c r="M458" t="inlineStr"/>
       <c r="N458" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -30519,7 +30519,7 @@
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -30576,7 +30576,7 @@
       <c r="M460" t="inlineStr"/>
       <c r="N460" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -30633,7 +30633,7 @@
       <c r="M461" t="inlineStr"/>
       <c r="N461" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -30690,7 +30690,7 @@
       <c r="M462" t="inlineStr"/>
       <c r="N462" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -30767,7 +30767,7 @@
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -30824,7 +30824,7 @@
       <c r="M464" t="inlineStr"/>
       <c r="N464" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -30881,7 +30881,7 @@
       <c r="M465" t="inlineStr"/>
       <c r="N465" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -30938,7 +30938,7 @@
       <c r="M466" t="inlineStr"/>
       <c r="N466" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -31015,7 +31015,7 @@
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -31092,7 +31092,7 @@
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -31169,7 +31169,7 @@
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -31246,7 +31246,7 @@
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -31315,7 +31315,7 @@
       <c r="M471" t="inlineStr"/>
       <c r="N471" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -31351,13 +31351,13 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>97196.32640793477</v>
+        <v>97196.33842793478</v>
       </c>
       <c r="E472" t="n">
-        <v>437677973.7047226</v>
+        <v>437678027.8311431</v>
       </c>
       <c r="F472" t="n">
-        <v>0.0008052561284615438</v>
+        <v>0.000805256228045335</v>
       </c>
       <c r="G472" t="b">
         <v>0</v>
@@ -31392,7 +31392,7 @@
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -31461,7 +31461,7 @@
       <c r="M473" t="inlineStr"/>
       <c r="N473" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -31538,7 +31538,7 @@
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -31595,7 +31595,7 @@
       <c r="M475" t="inlineStr"/>
       <c r="N475" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -31652,7 +31652,7 @@
       <c r="M476" t="inlineStr"/>
       <c r="N476" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -31729,7 +31729,7 @@
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -31806,7 +31806,7 @@
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -31883,7 +31883,7 @@
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -31960,7 +31960,7 @@
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -32037,7 +32037,7 @@
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -32114,7 +32114,7 @@
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -32191,7 +32191,7 @@
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -32268,7 +32268,7 @@
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -32345,7 +32345,7 @@
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -32381,13 +32381,13 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>89653.09264620683</v>
+        <v>89655.45264620683</v>
       </c>
       <c r="E486" t="n">
-        <v>403710565.7786487</v>
+        <v>403721192.9294487</v>
       </c>
       <c r="F486" t="n">
-        <v>0.0007427616346927591</v>
+        <v>0.0007427811869179656</v>
       </c>
       <c r="G486" t="b">
         <v>0</v>
@@ -32422,7 +32422,7 @@
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -32479,7 +32479,7 @@
       <c r="M487" t="inlineStr"/>
       <c r="N487" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -32536,7 +32536,7 @@
       <c r="M488" t="inlineStr"/>
       <c r="N488" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -32593,7 +32593,7 @@
       <c r="M489" t="inlineStr"/>
       <c r="N489" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -32670,7 +32670,7 @@
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -32747,7 +32747,7 @@
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -32812,7 +32812,7 @@
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -32877,7 +32877,7 @@
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -32942,7 +32942,7 @@
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -33007,7 +33007,7 @@
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -33072,7 +33072,7 @@
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -33129,7 +33129,7 @@
       <c r="M497" t="inlineStr"/>
       <c r="N497" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -33194,7 +33194,7 @@
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -33271,7 +33271,7 @@
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -33336,7 +33336,7 @@
       <c r="M500" t="inlineStr"/>
       <c r="N500" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -33401,7 +33401,7 @@
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -33437,13 +33437,13 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>50224.36373186283</v>
+        <v>50221.4821421767</v>
       </c>
       <c r="E502" t="n">
-        <v>226161816.6154903</v>
+        <v>226148840.7306859</v>
       </c>
       <c r="F502" t="n">
-        <v>0.0004161008773461481</v>
+        <v>0.000416077003833226</v>
       </c>
       <c r="G502" t="b">
         <v>0</v>
@@ -33466,7 +33466,7 @@
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -33543,7 +33543,7 @@
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -33620,7 +33620,7 @@
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -33656,13 +33656,13 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>11390.02430842144</v>
+        <v>11390.02740842144</v>
       </c>
       <c r="E505" t="n">
-        <v>51289621.16155098</v>
+        <v>51289635.12094398</v>
       </c>
       <c r="F505" t="n">
-        <v>9.436454253618332e-05</v>
+        <v>9.4364568219191e-05</v>
       </c>
       <c r="G505" t="b">
         <v>0</v>
@@ -33697,7 +33697,7 @@
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -33733,13 +33733,13 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>5275.889554677833</v>
+        <v>5275.889345277833</v>
       </c>
       <c r="E506" t="n">
-        <v>23757488.94140092</v>
+        <v>23757487.99846644</v>
       </c>
       <c r="F506" t="n">
-        <v>4.370990709216498e-05</v>
+        <v>4.370990535731923e-05</v>
       </c>
       <c r="G506" t="b">
         <v>0</v>
@@ -33774,7 +33774,7 @@
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
@@ -33839,7 +33839,7 @@
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
@@ -33916,7 +33916,7 @@
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -33993,7 +33993,7 @@
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -34070,7 +34070,7 @@
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -34127,7 +34127,7 @@
       <c r="M511" t="inlineStr"/>
       <c r="N511" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -34163,13 +34163,13 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>894.2285190002672</v>
+        <v>894.2143598802672</v>
       </c>
       <c r="E512" t="n">
-        <v>4026737.847913773</v>
+        <v>4026674.088971639</v>
       </c>
       <c r="F512" t="n">
-        <v>7.408541266753783e-06</v>
+        <v>7.408423960693205e-06</v>
       </c>
       <c r="G512" t="b">
         <v>0</v>
@@ -34204,7 +34204,7 @@
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
@@ -34281,7 +34281,7 @@
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -34358,7 +34358,7 @@
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -34415,7 +34415,7 @@
       <c r="M515" t="inlineStr"/>
       <c r="N515" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -34472,7 +34472,7 @@
       <c r="M516" t="inlineStr"/>
       <c r="N516" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -34529,7 +34529,7 @@
       <c r="M517" t="inlineStr"/>
       <c r="N517" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -34586,7 +34586,7 @@
       <c r="M518" t="inlineStr"/>
       <c r="N518" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -34708,7 +34708,7 @@
       <c r="M520" t="inlineStr"/>
       <c r="N520" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -34773,7 +34773,7 @@
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -34850,7 +34850,7 @@
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -34907,7 +34907,7 @@
       <c r="M523" t="inlineStr"/>
       <c r="N523" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -34984,7 +34984,7 @@
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -35041,7 +35041,7 @@
       <c r="M525" t="inlineStr"/>
       <c r="N525" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -35098,7 +35098,7 @@
       <c r="M526" t="inlineStr"/>
       <c r="N526" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -35175,7 +35175,7 @@
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -35232,7 +35232,7 @@
       <c r="M528" t="inlineStr"/>
       <c r="N528" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -35297,7 +35297,7 @@
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -35354,7 +35354,7 @@
       <c r="M530" t="inlineStr"/>
       <c r="N530" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -35411,7 +35411,7 @@
       <c r="M531" t="inlineStr"/>
       <c r="N531" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -35468,7 +35468,7 @@
       <c r="M532" t="inlineStr"/>
       <c r="N532" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -35525,7 +35525,7 @@
       <c r="M533" t="inlineStr"/>
       <c r="N533" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -35582,7 +35582,7 @@
       <c r="M534" t="inlineStr"/>
       <c r="N534" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -35639,7 +35639,7 @@
       <c r="M535" t="inlineStr"/>
       <c r="N535" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -35704,7 +35704,7 @@
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -35761,7 +35761,7 @@
       <c r="M537" t="inlineStr"/>
       <c r="N537" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -35826,7 +35826,7 @@
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -35903,7 +35903,7 @@
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -35968,7 +35968,7 @@
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -36033,7 +36033,7 @@
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -36090,7 +36090,7 @@
       <c r="M542" t="inlineStr"/>
       <c r="N542" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
@@ -36147,7 +36147,7 @@
       <c r="M543" t="inlineStr"/>
       <c r="N543" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -36216,7 +36216,7 @@
       <c r="M544" t="inlineStr"/>
       <c r="N544" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -36273,7 +36273,7 @@
       <c r="M545" t="inlineStr"/>
       <c r="N545" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -36330,7 +36330,7 @@
       <c r="M546" t="inlineStr"/>
       <c r="N546" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -36387,7 +36387,7 @@
       <c r="M547" t="inlineStr"/>
       <c r="N547" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -36452,7 +36452,7 @@
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -36509,7 +36509,7 @@
       <c r="M549" t="inlineStr"/>
       <c r="N549" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -36566,7 +36566,7 @@
       <c r="M550" t="inlineStr"/>
       <c r="N550" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -36623,7 +36623,7 @@
       <c r="M551" t="inlineStr"/>
       <c r="N551" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -36680,7 +36680,7 @@
       <c r="M552" t="inlineStr"/>
       <c r="N552" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
@@ -36737,7 +36737,7 @@
       <c r="M553" t="inlineStr"/>
       <c r="N553" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
@@ -36773,13 +36773,13 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>34.10923137991381</v>
+        <v>34.10924519805981</v>
       </c>
       <c r="E554" t="n">
-        <v>153594.8921806932</v>
+        <v>153594.9544042193</v>
       </c>
       <c r="F554" t="n">
-        <v>2.825895650676167e-07</v>
+        <v>2.825896795487619e-07</v>
       </c>
       <c r="G554" t="b">
         <v>0</v>
@@ -36802,7 +36802,7 @@
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -36859,7 +36859,7 @@
       <c r="M555" t="inlineStr"/>
       <c r="N555" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -36924,7 +36924,7 @@
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -37001,7 +37001,7 @@
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
@@ -37058,7 +37058,7 @@
       <c r="M558" t="inlineStr"/>
       <c r="N558" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
@@ -37115,7 +37115,7 @@
       <c r="M559" t="inlineStr"/>
       <c r="N559" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
@@ -37172,7 +37172,7 @@
       <c r="M560" t="inlineStr"/>
       <c r="N560" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
@@ -37237,7 +37237,7 @@
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -37294,7 +37294,7 @@
       <c r="M562" t="inlineStr"/>
       <c r="N562" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
@@ -37351,7 +37351,7 @@
       <c r="M563" t="inlineStr"/>
       <c r="N563" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
@@ -37416,7 +37416,7 @@
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -37473,7 +37473,7 @@
       <c r="M565" t="inlineStr"/>
       <c r="N565" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -37530,7 +37530,7 @@
       <c r="M566" t="inlineStr"/>
       <c r="N566" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -37587,7 +37587,7 @@
       <c r="M567" t="inlineStr"/>
       <c r="N567" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -37623,13 +37623,13 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>22.9250938857123</v>
+        <v>22.9249950975154</v>
       </c>
       <c r="E568" t="n">
-        <v>103232.3855201791</v>
+        <v>103231.9406739648</v>
       </c>
       <c r="F568" t="n">
-        <v>1.89930762090192e-07</v>
+        <v>1.899299436456692e-07</v>
       </c>
       <c r="G568" t="b">
         <v>0</v>
@@ -37664,7 +37664,7 @@
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
@@ -37721,7 +37721,7 @@
       <c r="M569" t="inlineStr"/>
       <c r="N569" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -37798,7 +37798,7 @@
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
@@ -37863,7 +37863,7 @@
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
@@ -37920,7 +37920,7 @@
       <c r="M572" t="inlineStr"/>
       <c r="N572" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -37977,7 +37977,7 @@
       <c r="M573" t="inlineStr"/>
       <c r="N573" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -38042,7 +38042,7 @@
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
@@ -38111,7 +38111,7 @@
       <c r="M575" t="inlineStr"/>
       <c r="N575" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
@@ -38168,7 +38168,7 @@
       <c r="M576" t="inlineStr"/>
       <c r="N576" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -38245,7 +38245,7 @@
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -38302,7 +38302,7 @@
       <c r="M578" t="inlineStr"/>
       <c r="N578" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
@@ -38359,7 +38359,7 @@
       <c r="M579" t="inlineStr"/>
       <c r="N579" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
@@ -38416,7 +38416,7 @@
       <c r="M580" t="inlineStr"/>
       <c r="N580" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
@@ -38481,7 +38481,7 @@
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
@@ -38538,7 +38538,7 @@
       <c r="M582" t="inlineStr"/>
       <c r="N582" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -38595,7 +38595,7 @@
       <c r="M583" t="inlineStr"/>
       <c r="N583" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
@@ -38652,7 +38652,7 @@
       <c r="M584" t="inlineStr"/>
       <c r="N584" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -38717,7 +38717,7 @@
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -38774,7 +38774,7 @@
       <c r="M586" t="inlineStr"/>
       <c r="N586" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -38831,7 +38831,7 @@
       <c r="M587" t="inlineStr"/>
       <c r="N587" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
@@ -38888,7 +38888,7 @@
       <c r="M588" t="inlineStr"/>
       <c r="N588" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
@@ -38953,7 +38953,7 @@
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -39010,7 +39010,7 @@
       <c r="M590" t="inlineStr"/>
       <c r="N590" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -39067,7 +39067,7 @@
       <c r="M591" t="inlineStr"/>
       <c r="N591" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -39144,7 +39144,7 @@
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -39201,7 +39201,7 @@
       <c r="M593" t="inlineStr"/>
       <c r="N593" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -39258,7 +39258,7 @@
       <c r="M594" t="inlineStr"/>
       <c r="N594" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -39315,7 +39315,7 @@
       <c r="M595" t="inlineStr"/>
       <c r="N595" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -39372,7 +39372,7 @@
       <c r="M596" t="inlineStr"/>
       <c r="N596" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -39429,7 +39429,7 @@
       <c r="M597" t="inlineStr"/>
       <c r="N597" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -39486,7 +39486,7 @@
       <c r="M598" t="inlineStr"/>
       <c r="N598" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -39543,7 +39543,7 @@
       <c r="M599" t="inlineStr"/>
       <c r="N599" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -39600,7 +39600,7 @@
       <c r="M600" t="inlineStr"/>
       <c r="N600" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -39665,7 +39665,7 @@
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -39722,7 +39722,7 @@
       <c r="M602" t="inlineStr"/>
       <c r="N602" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -39799,7 +39799,7 @@
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -39835,13 +39835,13 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>20056.34730104279</v>
+        <v>20056.44192926051</v>
       </c>
       <c r="E604" t="n">
-        <v>90314333.58701472</v>
+        <v>90314759.70071794</v>
       </c>
       <c r="F604" t="n">
-        <v>0.0001661636522241995</v>
+        <v>0.0001661644362039553</v>
       </c>
       <c r="G604" t="b">
         <v>0</v>
@@ -39864,7 +39864,7 @@
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -39941,7 +39941,7 @@
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
@@ -39977,13 +39977,13 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>11312.11668845592</v>
+        <v>11312.31659543845</v>
       </c>
       <c r="E606" t="n">
-        <v>50938800.81161767</v>
+        <v>50939700.99875719</v>
       </c>
       <c r="F606" t="n">
-        <v>9.371909027734196e-05</v>
+        <v>9.37207464749448e-05</v>
       </c>
       <c r="G606" t="b">
         <v>0</v>
@@ -40018,7 +40018,7 @@
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
@@ -40075,7 +40075,7 @@
       <c r="M607" t="inlineStr"/>
       <c r="N607" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
@@ -40132,7 +40132,7 @@
       <c r="M608" t="inlineStr"/>
       <c r="N608" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
@@ -40209,7 +40209,7 @@
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -40286,7 +40286,7 @@
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
@@ -40363,7 +40363,7 @@
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -40399,13 +40399,13 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>4411.86877370116</v>
+        <v>4411.868773670681</v>
       </c>
       <c r="E612" t="n">
-        <v>19866777.44403953</v>
+        <v>19866777.44390228</v>
       </c>
       <c r="F612" t="n">
-        <v>3.655163213762105e-05</v>
+        <v>3.655163213736854e-05</v>
       </c>
       <c r="G612" t="b">
         <v>0</v>
@@ -40440,7 +40440,7 @@
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
@@ -40517,7 +40517,7 @@
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -40594,7 +40594,7 @@
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -40671,7 +40671,7 @@
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
@@ -40748,7 +40748,7 @@
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -40784,13 +40784,13 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>1325.462086891976</v>
+        <v>1325.471685309044</v>
       </c>
       <c r="E617" t="n">
-        <v>5968595.541137174</v>
+        <v>5968638.763097185</v>
       </c>
       <c r="F617" t="n">
-        <v>1.098124289218052e-05</v>
+        <v>1.098132241354159e-05</v>
       </c>
       <c r="G617" t="b">
         <v>0</v>
@@ -40825,7 +40825,7 @@
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -40882,7 +40882,7 @@
       <c r="M618" t="inlineStr"/>
       <c r="N618" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
@@ -40939,7 +40939,7 @@
       <c r="M619" t="inlineStr"/>
       <c r="N619" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -41016,7 +41016,7 @@
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -41093,7 +41093,7 @@
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -41129,13 +41129,13 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>896.0812320097883</v>
+        <v>896.0802317912384</v>
       </c>
       <c r="E622" t="n">
-        <v>4035080.670177037</v>
+        <v>4035076.1661629</v>
       </c>
       <c r="F622" t="n">
-        <v>7.423890699806795e-06</v>
+        <v>7.423882413154954e-06</v>
       </c>
       <c r="G622" t="b">
         <v>0</v>
@@ -41170,7 +41170,7 @@
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -41247,7 +41247,7 @@
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
@@ -41304,7 +41304,7 @@
       <c r="M624" t="inlineStr"/>
       <c r="N624" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -41381,7 +41381,7 @@
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
@@ -41438,7 +41438,7 @@
       <c r="M626" t="inlineStr"/>
       <c r="N626" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -41495,7 +41495,7 @@
       <c r="M627" t="inlineStr"/>
       <c r="N627" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -41572,7 +41572,7 @@
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
@@ -41629,7 +41629,7 @@
       <c r="M629" t="inlineStr"/>
       <c r="N629" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -41694,7 +41694,7 @@
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
@@ -41751,7 +41751,7 @@
       <c r="M631" t="inlineStr"/>
       <c r="N631" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -41828,7 +41828,7 @@
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -41905,7 +41905,7 @@
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -41962,7 +41962,7 @@
       <c r="M634" t="inlineStr"/>
       <c r="N634" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -42039,7 +42039,7 @@
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -42116,7 +42116,7 @@
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -42173,7 +42173,7 @@
       <c r="M637" t="inlineStr"/>
       <c r="N637" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -42209,13 +42209,13 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>268.3408447387081</v>
+        <v>268.3408513714851</v>
       </c>
       <c r="E638" t="n">
-        <v>1208346.874083745</v>
+        <v>1208346.903951339</v>
       </c>
       <c r="F638" t="n">
-        <v>2.223161283230886e-06</v>
+        <v>2.22316133818239e-06</v>
       </c>
       <c r="G638" t="b">
         <v>0</v>
@@ -42230,7 +42230,7 @@
       <c r="M638" t="inlineStr"/>
       <c r="N638" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -42287,7 +42287,7 @@
       <c r="M639" t="inlineStr"/>
       <c r="N639" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -42344,7 +42344,7 @@
       <c r="M640" t="inlineStr"/>
       <c r="N640" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -42421,7 +42421,7 @@
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -42498,7 +42498,7 @@
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -42575,7 +42575,7 @@
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -42652,7 +42652,7 @@
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -42709,7 +42709,7 @@
       <c r="M645" t="inlineStr"/>
       <c r="N645" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -42766,7 +42766,7 @@
       <c r="M646" t="inlineStr"/>
       <c r="N646" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
@@ -42843,7 +42843,7 @@
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
@@ -42920,7 +42920,7 @@
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -42977,7 +42977,7 @@
       <c r="M649" t="inlineStr"/>
       <c r="N649" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -43054,7 +43054,7 @@
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -43131,7 +43131,7 @@
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -43208,7 +43208,7 @@
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -43265,7 +43265,7 @@
       <c r="M653" t="inlineStr"/>
       <c r="N653" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
@@ -43342,7 +43342,7 @@
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -43399,7 +43399,7 @@
       <c r="M655" t="inlineStr"/>
       <c r="N655" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -43476,7 +43476,7 @@
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
@@ -43545,7 +43545,7 @@
       <c r="M657" t="inlineStr"/>
       <c r="N657" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
@@ -43602,7 +43602,7 @@
       <c r="M658" t="inlineStr"/>
       <c r="N658" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
@@ -43659,7 +43659,7 @@
       <c r="M659" t="inlineStr"/>
       <c r="N659" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -43716,7 +43716,7 @@
       <c r="M660" t="inlineStr"/>
       <c r="N660" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -43793,7 +43793,7 @@
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -43850,7 +43850,7 @@
       <c r="M662" t="inlineStr"/>
       <c r="N662" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
@@ -43927,7 +43927,7 @@
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
@@ -43984,7 +43984,7 @@
       <c r="M664" t="inlineStr"/>
       <c r="N664" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -44041,7 +44041,7 @@
       <c r="M665" t="inlineStr"/>
       <c r="N665" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -44118,7 +44118,7 @@
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -44154,13 +44154,13 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>111.1266196263472</v>
+        <v>111.1266189923068</v>
       </c>
       <c r="E667" t="n">
-        <v>500406.5019760302</v>
+        <v>500406.4991209271</v>
       </c>
       <c r="F667" t="n">
-        <v>9.206663954948165e-07</v>
+        <v>9.206663902418922e-07</v>
       </c>
       <c r="G667" t="b">
         <v>0</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -44252,7 +44252,7 @@
       <c r="M668" t="inlineStr"/>
       <c r="N668" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -44309,7 +44309,7 @@
       <c r="M669" t="inlineStr"/>
       <c r="N669" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -44386,7 +44386,7 @@
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -44451,7 +44451,7 @@
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -44528,7 +44528,7 @@
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -44585,7 +44585,7 @@
       <c r="M673" t="inlineStr"/>
       <c r="N673" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -44650,7 +44650,7 @@
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -44707,7 +44707,7 @@
       <c r="M675" t="inlineStr"/>
       <c r="N675" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -44772,7 +44772,7 @@
       <c r="M676" t="inlineStr"/>
       <c r="N676" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
@@ -44849,7 +44849,7 @@
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -44926,7 +44926,7 @@
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -44991,7 +44991,7 @@
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -45048,7 +45048,7 @@
       <c r="M680" t="inlineStr"/>
       <c r="N680" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
@@ -45113,7 +45113,7 @@
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -45170,7 +45170,7 @@
       <c r="M682" t="inlineStr"/>
       <c r="N682" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
@@ -45227,7 +45227,7 @@
       <c r="M683" t="inlineStr"/>
       <c r="N683" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -45284,7 +45284,7 @@
       <c r="M684" t="inlineStr"/>
       <c r="N684" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -45361,7 +45361,7 @@
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -45418,7 +45418,7 @@
       <c r="M686" t="inlineStr"/>
       <c r="N686" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
@@ -45475,7 +45475,7 @@
       <c r="M687" t="inlineStr"/>
       <c r="N687" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -45532,7 +45532,7 @@
       <c r="M688" t="inlineStr"/>
       <c r="N688" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -45597,7 +45597,7 @@
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
@@ -45674,7 +45674,7 @@
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
@@ -45739,7 +45739,7 @@
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -45796,7 +45796,7 @@
       <c r="M692" t="inlineStr"/>
       <c r="N692" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -45853,7 +45853,7 @@
       <c r="M693" t="inlineStr"/>
       <c r="N693" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
@@ -45930,7 +45930,7 @@
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -46007,7 +46007,7 @@
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -46064,7 +46064,7 @@
       <c r="M696" t="inlineStr"/>
       <c r="N696" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -46129,7 +46129,7 @@
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -46206,7 +46206,7 @@
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -46263,7 +46263,7 @@
       <c r="M699" t="inlineStr"/>
       <c r="N699" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -46328,7 +46328,7 @@
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -46385,7 +46385,7 @@
       <c r="M701" t="inlineStr"/>
       <c r="N701" t="inlineStr">
         <is>
-          <t>2025-10-05 21:57:22</t>
+          <t>2025-10-05 22:00:54</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">

--- a/data_cripto/top_holders.xlsx
+++ b/data_cripto/top_holders.xlsx
@@ -540,7 +540,7 @@
         <v>248597.57945341</v>
       </c>
       <c r="E2" t="n">
-        <v>30912114614.71372</v>
+        <v>30904905284.90957</v>
       </c>
       <c r="F2" t="n">
         <v>0.01247275406476814</v>
@@ -576,7 +576,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -615,7 +615,7 @@
         <v>140574.82555459</v>
       </c>
       <c r="E3" t="n">
-        <v>17479917258.41105</v>
+        <v>17475840588.46996</v>
       </c>
       <c r="F3" t="n">
         <v>0.007052985916818564</v>
@@ -651,7 +651,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -690,7 +690,7 @@
         <v>140398.41918208</v>
       </c>
       <c r="E4" t="n">
-        <v>17457981831.61492</v>
+        <v>17453910277.45864</v>
       </c>
       <c r="F4" t="n">
         <v>0.007044135173763812</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -765,7 +765,7 @@
         <v>130010.07864772</v>
       </c>
       <c r="E5" t="n">
-        <v>16166233239.52939</v>
+        <v>16162462947.24861</v>
       </c>
       <c r="F5" t="n">
         <v>0.006522926492202948</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -840,7 +840,7 @@
         <v>94643.48487621</v>
       </c>
       <c r="E6" t="n">
-        <v>11768538770.41721</v>
+        <v>11765794109.3558</v>
       </c>
       <c r="F6" t="n">
         <v>0.004748497202945626</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -911,7 +911,7 @@
         <v>86335.46796544</v>
       </c>
       <c r="E7" t="n">
-        <v>10735470099.6306</v>
+        <v>10732966371.0596</v>
       </c>
       <c r="F7" t="n">
         <v>0.004331663491524114</v>
@@ -947,7 +947,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -986,7 +986,7 @@
         <v>83000.09828099</v>
       </c>
       <c r="E8" t="n">
-        <v>10320730220.84798</v>
+        <v>10318323217.99784</v>
       </c>
       <c r="F8" t="n">
         <v>0.004164319763235623</v>
@@ -1002,7 +1002,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1041,7 +1041,7 @@
         <v>79957.2680219</v>
       </c>
       <c r="E9" t="n">
-        <v>9942366449.451178</v>
+        <v>9940047688.678541</v>
       </c>
       <c r="F9" t="n">
         <v>0.00401165345986328</v>
@@ -1065,7 +1065,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1104,7 +1104,7 @@
         <v>78317.03554557</v>
       </c>
       <c r="E10" t="n">
-        <v>9738410101.949448</v>
+        <v>9736138907.918625</v>
       </c>
       <c r="F10" t="n">
         <v>0.003929358948664535</v>
@@ -1120,7 +1120,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1159,7 +1159,7 @@
         <v>69370.18402303</v>
       </c>
       <c r="E11" t="n">
-        <v>8625904902.527689</v>
+        <v>8623893167.191021</v>
       </c>
       <c r="F11" t="n">
         <v>0.003480473328217247</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1230,7 +1230,7 @@
         <v>68200.00662779</v>
       </c>
       <c r="E12" t="n">
-        <v>8480398024.139175</v>
+        <v>8478420223.94697</v>
       </c>
       <c r="F12" t="n">
         <v>0.003421762640466103</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1305,7 +1305,7 @@
         <v>54790.71555413</v>
       </c>
       <c r="E13" t="n">
-        <v>6813006316.29385</v>
+        <v>6811417385.542779</v>
       </c>
       <c r="F13" t="n">
         <v>0.002748985415070806</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1380,7 +1380,7 @@
         <v>53880.06592036</v>
       </c>
       <c r="E14" t="n">
-        <v>6699770676.933084</v>
+        <v>6698208155.021394</v>
       </c>
       <c r="F14" t="n">
         <v>0.002703295875590342</v>
@@ -1396,7 +1396,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1435,7 +1435,7 @@
         <v>51830.40133436</v>
       </c>
       <c r="E15" t="n">
-        <v>6444903084.322329</v>
+        <v>6443400002.683633</v>
       </c>
       <c r="F15" t="n">
         <v>0.002600459145029037</v>
@@ -1451,7 +1451,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1490,7 +1490,7 @@
         <v>47132.66947359</v>
       </c>
       <c r="E16" t="n">
-        <v>5860758918.363022</v>
+        <v>5859392070.948288</v>
       </c>
       <c r="F16" t="n">
         <v>0.002364762344237818</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1565,7 +1565,7 @@
         <v>44194.36887199</v>
       </c>
       <c r="E17" t="n">
-        <v>5495392991.756469</v>
+        <v>5494111355.059181</v>
       </c>
       <c r="F17" t="n">
         <v>0.002217340551746127</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1640,7 +1640,7 @@
         <v>44000.08725277</v>
       </c>
       <c r="E18" t="n">
-        <v>5471234849.532938</v>
+        <v>5469958847.002608</v>
       </c>
       <c r="F18" t="n">
         <v>0.002207592963450361</v>
@@ -1656,7 +1656,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1695,7 +1695,7 @@
         <v>42657.50576053</v>
       </c>
       <c r="E19" t="n">
-        <v>5304290211.298863</v>
+        <v>5303053143.631808</v>
       </c>
       <c r="F19" t="n">
         <v>0.002140232336683851</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1770,7 +1770,7 @@
         <v>41166.97402625</v>
       </c>
       <c r="E20" t="n">
-        <v>5118948552.268083</v>
+        <v>5117754710.021321</v>
       </c>
       <c r="F20" t="n">
         <v>0.002065448681153967</v>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1845,7 +1845,7 @@
         <v>40984.18138495</v>
       </c>
       <c r="E21" t="n">
-        <v>5096219018.492992</v>
+        <v>5095030477.232829</v>
       </c>
       <c r="F21" t="n">
         <v>0.002056277523233616</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1920,7 +1920,7 @@
         <v>37927.07815205</v>
       </c>
       <c r="E22" t="n">
-        <v>4716080459.89481</v>
+        <v>4714980574.6284</v>
       </c>
       <c r="F22" t="n">
         <v>0.001902895109541549</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1995,7 +1995,7 @@
         <v>36000.42381185</v>
       </c>
       <c r="E23" t="n">
-        <v>4476508699.3083</v>
+        <v>4475464687.017756</v>
       </c>
       <c r="F23" t="n">
         <v>0.001806230106583882</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2066,7 +2066,7 @@
         <v>35277.262915</v>
       </c>
       <c r="E24" t="n">
-        <v>4386586534.42859</v>
+        <v>4385563493.804055</v>
       </c>
       <c r="F24" t="n">
         <v>0.001769947339730323</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2141,7 +2141,7 @@
         <v>32321.0023363</v>
       </c>
       <c r="E25" t="n">
-        <v>4018987356.50956</v>
+        <v>4018050047.441807</v>
       </c>
       <c r="F25" t="n">
         <v>0.001621624450864848</v>
@@ -2157,7 +2157,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2196,7 +2196,7 @@
         <v>32050</v>
       </c>
       <c r="E26" t="n">
-        <v>3985289300</v>
+        <v>3984359850</v>
       </c>
       <c r="F26" t="n">
         <v>0.001608027594857322</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2271,7 +2271,7 @@
         <v>31643.40162297</v>
       </c>
       <c r="E27" t="n">
-        <v>3934730418.209828</v>
+        <v>3933812759.562762</v>
       </c>
       <c r="F27" t="n">
         <v>0.001587627550854563</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2346,7 +2346,7 @@
         <v>31275.35248335</v>
       </c>
       <c r="E28" t="n">
-        <v>3888964979.894639</v>
+        <v>3888057994.672622</v>
       </c>
       <c r="F28" t="n">
         <v>0.001569161617226717</v>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2421,7 +2421,7 @@
         <v>31000.07534728</v>
       </c>
       <c r="E29" t="n">
-        <v>3854735369.132879</v>
+        <v>3853836366.947808</v>
       </c>
       <c r="F29" t="n">
         <v>0.00155535028396513</v>
@@ -2437,7 +2437,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2476,7 +2476,7 @@
         <v>28151.05949029</v>
       </c>
       <c r="E30" t="n">
-        <v>3500471643.379601</v>
+        <v>3499655262.654382</v>
       </c>
       <c r="F30" t="n">
         <v>0.001412408127452619</v>
@@ -2492,7 +2492,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2531,7 +2531,7 @@
         <v>27500.0000267</v>
       </c>
       <c r="E31" t="n">
-        <v>3419515003.320038</v>
+        <v>3418717503.319264</v>
       </c>
       <c r="F31" t="n">
         <v>0.001379742867441831</v>
@@ -2547,7 +2547,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2586,7 +2586,7 @@
         <v>27495.40865736</v>
       </c>
       <c r="E32" t="n">
-        <v>3418944084.908086</v>
+        <v>3418146718.057024</v>
       </c>
       <c r="F32" t="n">
         <v>0.001379512507111195</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2661,7 +2661,7 @@
         <v>27270.06378601</v>
       </c>
       <c r="E33" t="n">
-        <v>3390923351.535199</v>
+        <v>3390132519.685405</v>
       </c>
       <c r="F33" t="n">
         <v>0.001368206398796363</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2736,7 +2736,7 @@
         <v>26983.53947496</v>
       </c>
       <c r="E34" t="n">
-        <v>3355295199.553376</v>
+        <v>3354512676.908602</v>
       </c>
       <c r="F34" t="n">
         <v>0.001353830767009595</v>
@@ -2752,7 +2752,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2791,7 +2791,7 @@
         <v>26139.38441336</v>
       </c>
       <c r="E35" t="n">
-        <v>3250327894.263663</v>
+        <v>3249569852.115675</v>
       </c>
       <c r="F35" t="n">
         <v>0.00131147742431408</v>
@@ -2807,7 +2807,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2846,7 +2846,7 @@
         <v>25555.64643036</v>
       </c>
       <c r="E36" t="n">
-        <v>3177742411.029544</v>
+        <v>3177001297.283064</v>
       </c>
       <c r="F36" t="n">
         <v>0.001282189849124365</v>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>24051.75831911</v>
       </c>
       <c r="E37" t="n">
-        <v>2990739939.948052</v>
+        <v>2990042438.956798</v>
       </c>
       <c r="F37" t="n">
         <v>0.001206736071200251</v>
@@ -2949,7 +2949,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2988,7 +2988,7 @@
         <v>23599.50835125</v>
       </c>
       <c r="E38" t="n">
-        <v>2934504465.444532</v>
+        <v>2933820079.702346</v>
       </c>
       <c r="F38" t="n">
         <v>0.001184045574223895</v>
@@ -3004,7 +3004,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3043,7 +3043,7 @@
         <v>23171.110969</v>
       </c>
       <c r="E39" t="n">
-        <v>2881234964.551274</v>
+        <v>2880563002.333173</v>
       </c>
       <c r="F39" t="n">
         <v>0.001162551820332393</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3118,7 +3118,7 @@
         <v>23000.00129843</v>
       </c>
       <c r="E40" t="n">
-        <v>2859958161.454576</v>
+        <v>2859291161.416922</v>
       </c>
       <c r="F40" t="n">
         <v>0.001153966825885481</v>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>22602.07691316</v>
       </c>
       <c r="E41" t="n">
-        <v>2810477855.843793</v>
+        <v>2809822395.613312</v>
       </c>
       <c r="F41" t="n">
         <v>0.001134001977455503</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3268,7 +3268,7 @@
         <v>21709.87679217</v>
       </c>
       <c r="E42" t="n">
-        <v>2699536339.599171</v>
+        <v>2698906753.172198</v>
       </c>
       <c r="F42" t="n">
         <v>0.001089238095561994</v>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3343,7 +3343,7 @@
         <v>20560.53699648</v>
       </c>
       <c r="E43" t="n">
-        <v>2556620533.364302</v>
+        <v>2556024277.791404</v>
       </c>
       <c r="F43" t="n">
         <v>0.001031572881604516</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3418,7 +3418,7 @@
         <v>20008.00324754</v>
       </c>
       <c r="E44" t="n">
-        <v>2487915171.818609</v>
+        <v>2487334939.72443</v>
       </c>
       <c r="F44" t="n">
         <v>0.001003850899845218</v>
@@ -3434,7 +3434,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3473,7 +3473,7 @@
         <v>19414.4316707</v>
       </c>
       <c r="E45" t="n">
-        <v>2414106920.524862</v>
+        <v>2413543902.006412</v>
       </c>
       <c r="F45" t="n">
         <v>0.0009740699489846346</v>
@@ -3489,7 +3489,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3528,7 +3528,7 @@
         <v>19401.58418145</v>
       </c>
       <c r="E46" t="n">
-        <v>2412509386.626582</v>
+        <v>2411946740.68532</v>
       </c>
       <c r="F46" t="n">
         <v>0.0009734253587431798</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3603,7 +3603,7 @@
         <v>19164.75977766</v>
       </c>
       <c r="E47" t="n">
-        <v>2383061219.312911</v>
+        <v>2382505441.279358</v>
       </c>
       <c r="F47" t="n">
         <v>0.0009615432939559737</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3678,7 +3678,7 @@
         <v>19124.58880544</v>
       </c>
       <c r="E48" t="n">
-        <v>2378066119.601242</v>
+        <v>2377511506.525885</v>
       </c>
       <c r="F48" t="n">
         <v>0.0009595278171434305</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3753,7 +3753,7 @@
         <v>18422.68865254</v>
       </c>
       <c r="E49" t="n">
-        <v>2290787643.188739</v>
+        <v>2290253385.217815</v>
       </c>
       <c r="F49" t="n">
         <v>0.0009243117542823456</v>
@@ -3781,7 +3781,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3820,7 +3820,7 @@
         <v>17023.00596155</v>
       </c>
       <c r="E50" t="n">
-        <v>2116742699.294896</v>
+        <v>2116249032.122011</v>
       </c>
       <c r="F50" t="n">
         <v>0.000854086219456883</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3895,7 +3895,7 @@
         <v>16849.47453579</v>
       </c>
       <c r="E51" t="n">
-        <v>2095164760.627343</v>
+        <v>2094676125.865805</v>
       </c>
       <c r="F51" t="n">
         <v>0.0008453797195755409</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3970,7 +3970,7 @@
         <v>16450.04572437</v>
       </c>
       <c r="E52" t="n">
-        <v>2045497385.642512</v>
+        <v>2045020334.316505</v>
       </c>
       <c r="F52" t="n">
         <v>0.0008253393903729069</v>
@@ -3986,7 +3986,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4025,7 +4025,7 @@
         <v>16306.62941835</v>
       </c>
       <c r="E53" t="n">
-        <v>2027664141.654149</v>
+        <v>2027191249.401017</v>
       </c>
       <c r="F53" t="n">
         <v>0.0008181438403687676</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4100,7 +4100,7 @@
         <v>15745.55983694</v>
       </c>
       <c r="E54" t="n">
-        <v>1957897383.484141</v>
+        <v>1957440762.24887</v>
       </c>
       <c r="F54" t="n">
         <v>0.0007899935948292255</v>
@@ -4116,7 +4116,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4155,7 +4155,7 @@
         <v>15066.94352786</v>
       </c>
       <c r="E55" t="n">
-        <v>1873514159.91528</v>
+        <v>1873077218.552972</v>
       </c>
       <c r="F55" t="n">
         <v>0.0007559457398738162</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4230,7 +4230,7 @@
         <v>14863.0545606</v>
       </c>
       <c r="E56" t="n">
-        <v>1848161382.392368</v>
+        <v>1847730353.81011</v>
       </c>
       <c r="F56" t="n">
         <v>0.0007457161272173095</v>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4305,7 +4305,7 @@
         <v>14495.35095448</v>
       </c>
       <c r="E57" t="n">
-        <v>1802438909.78577</v>
+        <v>1802018544.60809</v>
       </c>
       <c r="F57" t="n">
         <v>0.0007272675298578865</v>
@@ -4321,7 +4321,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4360,7 +4360,7 @@
         <v>14107.9979354</v>
       </c>
       <c r="E58" t="n">
-        <v>1754273111.275248</v>
+        <v>1753863979.335122</v>
       </c>
       <c r="F58" t="n">
         <v>0.0007078330729582942</v>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4435,7 +4435,7 @@
         <v>13763.93847403</v>
       </c>
       <c r="E59" t="n">
-        <v>1711490693.491735</v>
+        <v>1711091539.275988</v>
       </c>
       <c r="F59" t="n">
         <v>0.0006905707606913766</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4510,7 +4510,7 @@
         <v>13573.84887099</v>
       </c>
       <c r="E60" t="n">
-        <v>1687853811.712123</v>
+        <v>1687460170.094864</v>
       </c>
       <c r="F60" t="n">
         <v>0.0006810334961926622</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4585,7 +4585,7 @@
         <v>13514.3200493</v>
       </c>
       <c r="E61" t="n">
-        <v>1680451640.850258</v>
+        <v>1680059725.568828</v>
       </c>
       <c r="F61" t="n">
         <v>0.0006780467882997806</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4660,7 +4660,7 @@
         <v>13003.0228555</v>
       </c>
       <c r="E62" t="n">
-        <v>1616873879.990003</v>
+        <v>1616496792.327193</v>
       </c>
       <c r="F62" t="n">
         <v>0.00065239374627783</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4731,7 +4731,7 @@
         <v>12267.02337304</v>
       </c>
       <c r="E63" t="n">
-        <v>1525355288.344032</v>
+        <v>1524999544.666214</v>
       </c>
       <c r="F63" t="n">
         <v>0.0006154668359004077</v>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4802,7 +4802,7 @@
         <v>10996.0000033</v>
       </c>
       <c r="E64" t="n">
-        <v>1367308616.410342</v>
+        <v>1366989732.410246</v>
       </c>
       <c r="F64" t="n">
         <v>0.0005516964567350266</v>
@@ -4818,7 +4818,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4857,7 +4857,7 @@
         <v>10770.53622242</v>
       </c>
       <c r="E65" t="n">
-        <v>1339273097.113037</v>
+        <v>1338960751.562587</v>
       </c>
       <c r="F65" t="n">
         <v>0.0005403843824356224</v>
@@ -4873,7 +4873,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4912,7 +4912,7 @@
         <v>10608.16687241</v>
       </c>
       <c r="E66" t="n">
-        <v>1319083117.916694</v>
+        <v>1318775481.077394</v>
       </c>
       <c r="F66" t="n">
         <v>0.0005322379114410787</v>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4987,7 +4987,7 @@
         <v>10584.71032107</v>
       </c>
       <c r="E67" t="n">
-        <v>1316166389.58377</v>
+        <v>1315859432.984459</v>
       </c>
       <c r="F67" t="n">
         <v>0.0005310610383729069</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5062,7 +5062,7 @@
         <v>10500.00585651</v>
       </c>
       <c r="E68" t="n">
-        <v>1305633728.233593</v>
+        <v>1305329228.063754</v>
       </c>
       <c r="F68" t="n">
         <v>0.000526811206347319</v>
@@ -5086,7 +5086,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5125,7 +5125,7 @@
         <v>10499.99999582</v>
       </c>
       <c r="E69" t="n">
-        <v>1305632999.480234</v>
+        <v>1305328499.480355</v>
       </c>
       <c r="F69" t="n">
         <v>0.0005268109123020383</v>
@@ -5153,7 +5153,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5192,7 +5192,7 @@
         <v>10216.72065976</v>
       </c>
       <c r="E70" t="n">
-        <v>1270408347.158517</v>
+        <v>1270112062.259384</v>
       </c>
       <c r="F70" t="n">
         <v>0.0005125980889186579</v>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5267,7 +5267,7 @@
         <v>10137.25763072</v>
       </c>
       <c r="E71" t="n">
-        <v>1260527437.349509</v>
+        <v>1260233456.878218</v>
       </c>
       <c r="F71" t="n">
         <v>0.0005086112326482282</v>
@@ -5283,7 +5283,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5322,7 +5322,7 @@
         <v>10001.74295561</v>
       </c>
       <c r="E72" t="n">
-        <v>1243676729.558281</v>
+        <v>1243386679.012568</v>
       </c>
       <c r="F72" t="n">
         <v>0.0005018121269669489</v>
@@ -5338,7 +5338,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5377,7 +5377,7 @@
         <v>10000.02532913</v>
       </c>
       <c r="E73" t="n">
-        <v>1243463149.575999</v>
+        <v>1243173148.841454</v>
       </c>
       <c r="F73" t="n">
         <v>0.0005017259494075885</v>
@@ -5393,7 +5393,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5432,7 +5432,7 @@
         <v>10000.01057393</v>
       </c>
       <c r="E74" t="n">
-        <v>1243461314.8259</v>
+        <v>1243171314.519256</v>
       </c>
       <c r="F74" t="n">
         <v>0.0005017252091027908</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5507,7 +5507,7 @@
         <v>10000.00854493</v>
       </c>
       <c r="E75" t="n">
-        <v>1243461062.527866</v>
+        <v>1243171062.280063</v>
       </c>
       <c r="F75" t="n">
         <v>0.0005017251073028536</v>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5582,7 +5582,7 @@
         <v>10000.00764266</v>
       </c>
       <c r="E76" t="n">
-        <v>1243460950.3342</v>
+        <v>1243170950.112563</v>
       </c>
       <c r="F76" t="n">
         <v>0.0005017250620337411</v>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5657,7 +5657,7 @@
         <v>10000.00756766</v>
       </c>
       <c r="E77" t="n">
-        <v>1243460941.00825</v>
+        <v>1243170940.788788</v>
       </c>
       <c r="F77" t="n">
         <v>0.0005017250582708059</v>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5732,7 +5732,7 @@
         <v>10000.00721131</v>
       </c>
       <c r="E78" t="n">
-        <v>1243460896.697553</v>
+        <v>1243170896.488425</v>
       </c>
       <c r="F78" t="n">
         <v>0.0005017250403918469</v>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5807,7 +5807,7 @@
         <v>10000.00594951</v>
       </c>
       <c r="E79" t="n">
-        <v>1243460739.797771</v>
+        <v>1243170739.625235</v>
       </c>
       <c r="F79" t="n">
         <v>0.0005017249770842271</v>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5882,7 +5882,7 @@
         <v>10000.00589081</v>
       </c>
       <c r="E80" t="n">
-        <v>1243460732.49866</v>
+        <v>1243170732.327827</v>
       </c>
       <c r="F80" t="n">
         <v>0.0005017249741391032</v>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5957,7 +5957,7 @@
         <v>10000.00580595</v>
       </c>
       <c r="E81" t="n">
-        <v>1243460721.946659</v>
+        <v>1243170721.778286</v>
       </c>
       <c r="F81" t="n">
         <v>0.0005017249698814676</v>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6032,7 +6032,7 @@
         <v>10000.00579717</v>
       </c>
       <c r="E82" t="n">
-        <v>1243460720.854901</v>
+        <v>1243170720.686783</v>
       </c>
       <c r="F82" t="n">
         <v>0.0005017249694409533</v>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6107,7 +6107,7 @@
         <v>10000.00335146</v>
       </c>
       <c r="E83" t="n">
-        <v>1243460416.740645</v>
+        <v>1243170416.643453</v>
       </c>
       <c r="F83" t="n">
         <v>0.0005017248467336469</v>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6182,7 +6182,7 @@
         <v>10000.00042386</v>
       </c>
       <c r="E84" t="n">
-        <v>1243460052.705296</v>
+        <v>1243170052.693004</v>
       </c>
       <c r="F84" t="n">
         <v>0.00050172469984873</v>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6257,7 +6257,7 @@
         <v>10000.00024095</v>
       </c>
       <c r="E85" t="n">
-        <v>1243460029.961169</v>
+        <v>1243170029.954181</v>
       </c>
       <c r="F85" t="n">
         <v>0.0005017246906716838</v>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6332,7 +6332,7 @@
         <v>9901.65000546</v>
       </c>
       <c r="E86" t="n">
-        <v>1231230571.578929</v>
+        <v>1230943423.728771</v>
       </c>
       <c r="F86" t="n">
         <v>0.0004967902166427093</v>
@@ -6348,7 +6348,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6387,7 +6387,7 @@
         <v>9799.992190389999</v>
       </c>
       <c r="E87" t="n">
-        <v>1218589828.906235</v>
+        <v>1218305629.132714</v>
       </c>
       <c r="F87" t="n">
         <v>0.0004916897931835685</v>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6458,7 +6458,7 @@
         <v>9757.062496959999</v>
       </c>
       <c r="E88" t="n">
-        <v>1213251693.246988</v>
+        <v>1212968738.434576</v>
       </c>
       <c r="F88" t="n">
         <v>0.0004895359045197867</v>
@@ -6486,7 +6486,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>9750.00040544</v>
       </c>
       <c r="E89" t="n">
-        <v>1212373550.414842</v>
+        <v>1212090800.403085</v>
       </c>
       <c r="F89" t="n">
         <v>0.0004891815819599875</v>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6600,7 +6600,7 @@
         <v>9500.003378429999</v>
       </c>
       <c r="E90" t="n">
-        <v>1181287420.094257</v>
+        <v>1181011919.996282</v>
       </c>
       <c r="F90" t="n">
         <v>0.0004766386141576669</v>
@@ -6624,7 +6624,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6663,7 +6663,7 @@
         <v>9424.78292225</v>
       </c>
       <c r="E91" t="n">
-        <v>1171934057.250098</v>
+        <v>1171660738.545353</v>
       </c>
       <c r="F91" t="n">
         <v>0.0004728646182376921</v>
@@ -6679,7 +6679,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6718,7 +6718,7 @@
         <v>9260.016629580001</v>
       </c>
       <c r="E92" t="n">
-        <v>1151446027.821755</v>
+        <v>1151177487.339497</v>
       </c>
       <c r="F92" t="n">
         <v>0.0004645978867145814</v>
@@ -6734,7 +6734,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6773,7 +6773,7 @@
         <v>9252.09035896</v>
       </c>
       <c r="E93" t="n">
-        <v>1150460427.77524</v>
+        <v>1150192117.15483</v>
       </c>
       <c r="F93" t="n">
         <v>0.0004642002061566635</v>
@@ -6789,7 +6789,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6828,7 +6828,7 @@
         <v>9111.90945098</v>
       </c>
       <c r="E94" t="n">
-        <v>1133029492.591559</v>
+        <v>1132765247.217481</v>
       </c>
       <c r="F94" t="n">
         <v>0.0004571669840566949</v>
@@ -6852,7 +6852,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6891,7 +6891,7 @@
         <v>9099.002763119999</v>
       </c>
       <c r="E95" t="n">
-        <v>1131424597.58292</v>
+        <v>1131160726.502789</v>
       </c>
       <c r="F95" t="n">
         <v>0.0004565194236748824</v>
@@ -6915,7 +6915,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6954,7 +6954,7 @@
         <v>8999.00631028</v>
       </c>
       <c r="E96" t="n">
-        <v>1118990438.658077</v>
+        <v>1118729467.475079</v>
       </c>
       <c r="F96" t="n">
         <v>0.0004515023548588272</v>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7017,7 +7017,7 @@
         <v>8757.152</v>
       </c>
       <c r="E97" t="n">
-        <v>1088916822.592</v>
+        <v>1088662865.184</v>
       </c>
       <c r="F97" t="n">
         <v>0.0004393679272499216</v>
@@ -7033,7 +7033,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7072,7 +7072,7 @@
         <v>8611.05676772</v>
       </c>
       <c r="E98" t="n">
-        <v>1070750464.838911</v>
+        <v>1070500744.192647</v>
       </c>
       <c r="F98" t="n">
         <v>0.0004320379689041078</v>
@@ -7096,7 +7096,7 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7135,7 +7135,7 @@
         <v>8539.498165589999</v>
       </c>
       <c r="E99" t="n">
-        <v>1061852438.898454</v>
+        <v>1061604793.451652</v>
       </c>
       <c r="F99" t="n">
         <v>0.0004284476972387582</v>
@@ -7151,7 +7151,7 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7190,7 +7190,7 @@
         <v>8488.39388553</v>
       </c>
       <c r="E100" t="n">
-        <v>1055497826.090113</v>
+        <v>1055251662.667433</v>
       </c>
       <c r="F100" t="n">
         <v>0.0004258836693900282</v>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7265,7 +7265,7 @@
         <v>8471.943254039999</v>
       </c>
       <c r="E101" t="n">
-        <v>1053452255.866858</v>
+        <v>1053206569.512491</v>
       </c>
       <c r="F101" t="n">
         <v>0.0004250583006103481</v>
@@ -7281,7 +7281,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-10-07 11:12:20</t>
+          <t>2025-10-07 11:24:20</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">

--- a/data_cripto/top_holders.xlsx
+++ b/data_cripto/top_holders.xlsx
@@ -540,7 +540,7 @@
         <v>248597.57945341</v>
       </c>
       <c r="E2" t="n">
-        <v>30904905284.90957</v>
+        <v>30922804310.63021</v>
       </c>
       <c r="F2" t="n">
         <v>0.01247275406476814</v>
@@ -576,7 +576,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -615,7 +615,7 @@
         <v>140574.82555459</v>
       </c>
       <c r="E3" t="n">
-        <v>17475840588.46996</v>
+        <v>17485961975.9099</v>
       </c>
       <c r="F3" t="n">
         <v>0.007052985916818564</v>
@@ -651,7 +651,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -690,7 +690,7 @@
         <v>140398.41918208</v>
       </c>
       <c r="E4" t="n">
-        <v>17453910277.45864</v>
+        <v>17464018963.63975</v>
       </c>
       <c r="F4" t="n">
         <v>0.007044135173763812</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -765,7 +765,7 @@
         <v>130010.07864772</v>
       </c>
       <c r="E5" t="n">
-        <v>16162462947.24861</v>
+        <v>16171823672.91124</v>
       </c>
       <c r="F5" t="n">
         <v>0.006522926492202948</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -840,7 +840,7 @@
         <v>94643.48487621</v>
       </c>
       <c r="E6" t="n">
-        <v>11765794109.3558</v>
+        <v>11772608440.26689</v>
       </c>
       <c r="F6" t="n">
         <v>0.004748497202945626</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -911,7 +911,7 @@
         <v>86335.46796544</v>
       </c>
       <c r="E7" t="n">
-        <v>10732966371.0596</v>
+        <v>10739182524.75312</v>
       </c>
       <c r="F7" t="n">
         <v>0.004331663491524114</v>
@@ -947,7 +947,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -986,7 +986,7 @@
         <v>83000.09828099</v>
       </c>
       <c r="E8" t="n">
-        <v>10318323217.99784</v>
+        <v>10324299225.07406</v>
       </c>
       <c r="F8" t="n">
         <v>0.004164319763235623</v>
@@ -1002,7 +1002,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1041,7 +1041,7 @@
         <v>79957.2680219</v>
       </c>
       <c r="E9" t="n">
-        <v>9940047688.678541</v>
+        <v>9945804611.976118</v>
       </c>
       <c r="F9" t="n">
         <v>0.00401165345986328</v>
@@ -1065,7 +1065,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1104,7 +1104,7 @@
         <v>78317.03554557</v>
       </c>
       <c r="E10" t="n">
-        <v>9736138907.918625</v>
+        <v>9741777734.477907</v>
       </c>
       <c r="F10" t="n">
         <v>0.003929358948664535</v>
@@ -1120,7 +1120,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1159,7 +1159,7 @@
         <v>69370.18402303</v>
       </c>
       <c r="E11" t="n">
-        <v>8623893167.191021</v>
+        <v>8628887820.440678</v>
       </c>
       <c r="F11" t="n">
         <v>0.003480473328217247</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1230,7 +1230,7 @@
         <v>68200.00662779</v>
       </c>
       <c r="E12" t="n">
-        <v>8478420223.94697</v>
+        <v>8483330624.42417</v>
       </c>
       <c r="F12" t="n">
         <v>0.003421762640466103</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1305,7 +1305,7 @@
         <v>54790.71555413</v>
       </c>
       <c r="E13" t="n">
-        <v>6811417385.542779</v>
+        <v>6815362317.062676</v>
       </c>
       <c r="F13" t="n">
         <v>0.002748985415070806</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1380,7 +1380,7 @@
         <v>53880.06592036</v>
       </c>
       <c r="E14" t="n">
-        <v>6698208155.021394</v>
+        <v>6702087519.767659</v>
       </c>
       <c r="F14" t="n">
         <v>0.002703295875590342</v>
@@ -1396,7 +1396,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1435,7 +1435,7 @@
         <v>51830.40133436</v>
       </c>
       <c r="E15" t="n">
-        <v>6443400002.683633</v>
+        <v>6447131791.579705</v>
       </c>
       <c r="F15" t="n">
         <v>0.002600459145029037</v>
@@ -1451,7 +1451,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1490,7 +1490,7 @@
         <v>47132.66947359</v>
       </c>
       <c r="E16" t="n">
-        <v>5859392070.948288</v>
+        <v>5862785623.150386</v>
       </c>
       <c r="F16" t="n">
         <v>0.002364762344237818</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1565,7 +1565,7 @@
         <v>44194.36887199</v>
       </c>
       <c r="E17" t="n">
-        <v>5494111355.059181</v>
+        <v>5497293349.617964</v>
       </c>
       <c r="F17" t="n">
         <v>0.002217340551746127</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1640,7 +1640,7 @@
         <v>44000.08725277</v>
       </c>
       <c r="E18" t="n">
-        <v>5469958847.002608</v>
+        <v>5473126853.284807</v>
       </c>
       <c r="F18" t="n">
         <v>0.002207592963450361</v>
@@ -1656,7 +1656,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1695,7 +1695,7 @@
         <v>42657.50576053</v>
       </c>
       <c r="E19" t="n">
-        <v>5303053143.631808</v>
+        <v>5306124484.046566</v>
       </c>
       <c r="F19" t="n">
         <v>0.002140232336683851</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1770,7 +1770,7 @@
         <v>41166.97402625</v>
       </c>
       <c r="E20" t="n">
-        <v>5117754710.021321</v>
+        <v>5120718732.151212</v>
       </c>
       <c r="F20" t="n">
         <v>0.002065448681153967</v>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1845,7 +1845,7 @@
         <v>40984.18138495</v>
       </c>
       <c r="E21" t="n">
-        <v>5095030477.232829</v>
+        <v>5097981338.292545</v>
       </c>
       <c r="F21" t="n">
         <v>0.002056277523233616</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1920,7 +1920,7 @@
         <v>37927.07815205</v>
       </c>
       <c r="E22" t="n">
-        <v>4714980574.6284</v>
+        <v>4717711324.255347</v>
       </c>
       <c r="F22" t="n">
         <v>0.001902895109541549</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1995,7 +1995,7 @@
         <v>36000.42381185</v>
       </c>
       <c r="E23" t="n">
-        <v>4475464687.017756</v>
+        <v>4478056717.53221</v>
       </c>
       <c r="F23" t="n">
         <v>0.001806230106583882</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2066,7 +2066,7 @@
         <v>35277.262915</v>
       </c>
       <c r="E24" t="n">
-        <v>4385563493.804055</v>
+        <v>4388103456.733934</v>
       </c>
       <c r="F24" t="n">
         <v>0.001769947339730323</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2141,7 +2141,7 @@
         <v>32321.0023363</v>
       </c>
       <c r="E25" t="n">
-        <v>4018050047.441807</v>
+        <v>4020377159.610021</v>
       </c>
       <c r="F25" t="n">
         <v>0.001621624450864848</v>
@@ -2157,7 +2157,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2196,7 +2196,7 @@
         <v>32050</v>
       </c>
       <c r="E26" t="n">
-        <v>3984359850</v>
+        <v>3986667450</v>
       </c>
       <c r="F26" t="n">
         <v>0.001608027594857322</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2271,7 +2271,7 @@
         <v>31643.40162297</v>
       </c>
       <c r="E27" t="n">
-        <v>3933812759.562762</v>
+        <v>3936091084.479615</v>
       </c>
       <c r="F27" t="n">
         <v>0.001587627550854563</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2346,7 +2346,7 @@
         <v>31275.35248335</v>
       </c>
       <c r="E28" t="n">
-        <v>3888057994.672622</v>
+        <v>3890309820.051424</v>
       </c>
       <c r="F28" t="n">
         <v>0.001569161617226717</v>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2421,7 +2421,7 @@
         <v>31000.07534728</v>
       </c>
       <c r="E29" t="n">
-        <v>3853836366.947808</v>
+        <v>3856068372.372812</v>
       </c>
       <c r="F29" t="n">
         <v>0.00155535028396513</v>
@@ -2437,7 +2437,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2476,7 +2476,7 @@
         <v>28151.05949029</v>
       </c>
       <c r="E30" t="n">
-        <v>3499655262.654382</v>
+        <v>3501682138.937683</v>
       </c>
       <c r="F30" t="n">
         <v>0.001412408127452619</v>
@@ -2492,7 +2492,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2531,7 +2531,7 @@
         <v>27500.0000267</v>
       </c>
       <c r="E31" t="n">
-        <v>3418717503.319264</v>
+        <v>3420697503.321187</v>
       </c>
       <c r="F31" t="n">
         <v>0.001379742867441831</v>
@@ -2547,7 +2547,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2586,7 +2586,7 @@
         <v>27495.40865736</v>
       </c>
       <c r="E32" t="n">
-        <v>3418146718.057024</v>
+        <v>3420126387.480353</v>
       </c>
       <c r="F32" t="n">
         <v>0.001379512507111195</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2661,7 +2661,7 @@
         <v>27270.06378601</v>
       </c>
       <c r="E33" t="n">
-        <v>3390132519.685405</v>
+        <v>3392095964.277998</v>
       </c>
       <c r="F33" t="n">
         <v>0.001368206398796363</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2736,7 +2736,7 @@
         <v>26983.53947496</v>
       </c>
       <c r="E34" t="n">
-        <v>3354512676.908602</v>
+        <v>3356455491.750799</v>
       </c>
       <c r="F34" t="n">
         <v>0.001353830767009595</v>
@@ -2752,7 +2752,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2791,7 +2791,7 @@
         <v>26139.38441336</v>
       </c>
       <c r="E35" t="n">
-        <v>3249569852.115675</v>
+        <v>3251451887.793437</v>
       </c>
       <c r="F35" t="n">
         <v>0.00131147742431408</v>
@@ -2807,7 +2807,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2846,7 +2846,7 @@
         <v>25555.64643036</v>
       </c>
       <c r="E36" t="n">
-        <v>3177001297.283064</v>
+        <v>3178841303.82605</v>
       </c>
       <c r="F36" t="n">
         <v>0.001282189849124365</v>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>24051.75831911</v>
       </c>
       <c r="E37" t="n">
-        <v>2990042438.956798</v>
+        <v>2991774165.555774</v>
       </c>
       <c r="F37" t="n">
         <v>0.001206736071200251</v>
@@ -2949,7 +2949,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2988,7 +2988,7 @@
         <v>23599.50835125</v>
       </c>
       <c r="E38" t="n">
-        <v>2933820079.702346</v>
+        <v>2935519244.303637</v>
       </c>
       <c r="F38" t="n">
         <v>0.001184045574223895</v>
@@ -3004,7 +3004,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3043,7 +3043,7 @@
         <v>23171.110969</v>
       </c>
       <c r="E39" t="n">
-        <v>2880563002.333173</v>
+        <v>2882231322.322941</v>
       </c>
       <c r="F39" t="n">
         <v>0.001162551820332393</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3118,7 +3118,7 @@
         <v>23000.00129843</v>
       </c>
       <c r="E40" t="n">
-        <v>2859291161.416922</v>
+        <v>2860947161.510409</v>
       </c>
       <c r="F40" t="n">
         <v>0.001153966825885481</v>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>22602.07691316</v>
       </c>
       <c r="E41" t="n">
-        <v>2809822395.613312</v>
+        <v>2811449745.151059</v>
       </c>
       <c r="F41" t="n">
         <v>0.001134001977455503</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>21709.87679217</v>
+        <v>22504.23979217</v>
       </c>
       <c r="E42" t="n">
-        <v>2698906753.172198</v>
+        <v>2799279883.508234</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001089238095561994</v>
+        <v>0.001129093247647288</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3343,7 +3343,7 @@
         <v>20560.53699648</v>
       </c>
       <c r="E43" t="n">
-        <v>2556024277.791404</v>
+        <v>2557504636.455151</v>
       </c>
       <c r="F43" t="n">
         <v>0.001031572881604516</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3418,7 +3418,7 @@
         <v>20008.00324754</v>
       </c>
       <c r="E44" t="n">
-        <v>2487334939.72443</v>
+        <v>2488775515.958253</v>
       </c>
       <c r="F44" t="n">
         <v>0.001003850899845218</v>
@@ -3434,7 +3434,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3473,7 +3473,7 @@
         <v>19414.4316707</v>
       </c>
       <c r="E45" t="n">
-        <v>2413543902.006412</v>
+        <v>2414941741.086702</v>
       </c>
       <c r="F45" t="n">
         <v>0.0009740699489846346</v>
@@ -3489,7 +3489,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3528,7 +3528,7 @@
         <v>19401.58418145</v>
       </c>
       <c r="E46" t="n">
-        <v>2411946740.68532</v>
+        <v>2413343654.746384</v>
       </c>
       <c r="F46" t="n">
         <v>0.0009734253587431798</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3603,7 +3603,7 @@
         <v>19164.75977766</v>
       </c>
       <c r="E47" t="n">
-        <v>2382505441.279358</v>
+        <v>2383885303.98335</v>
       </c>
       <c r="F47" t="n">
         <v>0.0009615432939559737</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>19124.58880544</v>
+        <v>19125.95883733</v>
       </c>
       <c r="E48" t="n">
-        <v>2377511506.525885</v>
+        <v>2379058893.816641</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0009595278171434305</v>
+        <v>0.0009595965550243963</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3753,7 +3753,7 @@
         <v>18422.68865254</v>
       </c>
       <c r="E49" t="n">
-        <v>2290253385.217815</v>
+        <v>2291579818.800798</v>
       </c>
       <c r="F49" t="n">
         <v>0.0009243117542823456</v>
@@ -3781,7 +3781,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3820,7 +3820,7 @@
         <v>17023.00596155</v>
       </c>
       <c r="E50" t="n">
-        <v>2116249032.122011</v>
+        <v>2117474688.551243</v>
       </c>
       <c r="F50" t="n">
         <v>0.000854086219456883</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3895,7 +3895,7 @@
         <v>16849.47453579</v>
       </c>
       <c r="E51" t="n">
-        <v>2094676125.865805</v>
+        <v>2095889288.032382</v>
       </c>
       <c r="F51" t="n">
         <v>0.0008453797195755409</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3970,7 +3970,7 @@
         <v>16450.04572437</v>
       </c>
       <c r="E52" t="n">
-        <v>2045020334.316505</v>
+        <v>2046204737.60866</v>
       </c>
       <c r="F52" t="n">
         <v>0.0008253393903729069</v>
@@ -3986,7 +3986,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4025,7 +4025,7 @@
         <v>16306.62941835</v>
       </c>
       <c r="E53" t="n">
-        <v>2027191249.401017</v>
+        <v>2028365326.719138</v>
       </c>
       <c r="F53" t="n">
         <v>0.0008181438403687676</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4100,7 +4100,7 @@
         <v>15745.55983694</v>
       </c>
       <c r="E54" t="n">
-        <v>1957440762.24887</v>
+        <v>1958574442.55713</v>
       </c>
       <c r="F54" t="n">
         <v>0.0007899935948292255</v>
@@ -4116,7 +4116,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4155,7 +4155,7 @@
         <v>15066.94352786</v>
       </c>
       <c r="E55" t="n">
-        <v>1873077218.552972</v>
+        <v>1874162038.486978</v>
       </c>
       <c r="F55" t="n">
         <v>0.0007559457398738162</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>14863.0545606</v>
+        <v>14863.09440655</v>
       </c>
       <c r="E56" t="n">
-        <v>1847730353.81011</v>
+        <v>1848805450.136348</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007457161272173095</v>
+        <v>0.0007457181263869552</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4305,7 +4305,7 @@
         <v>14495.35095448</v>
       </c>
       <c r="E57" t="n">
-        <v>1802018544.60809</v>
+        <v>1803062209.876813</v>
       </c>
       <c r="F57" t="n">
         <v>0.0007272675298578865</v>
@@ -4321,7 +4321,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4360,7 +4360,7 @@
         <v>14107.9979354</v>
       </c>
       <c r="E58" t="n">
-        <v>1753863979.335122</v>
+        <v>1754879755.186471</v>
       </c>
       <c r="F58" t="n">
         <v>0.0007078330729582942</v>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4435,7 +4435,7 @@
         <v>13763.93847403</v>
       </c>
       <c r="E59" t="n">
-        <v>1711091539.275988</v>
+        <v>1712082542.846118</v>
       </c>
       <c r="F59" t="n">
         <v>0.0006905707606913766</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4510,7 +4510,7 @@
         <v>13573.84887099</v>
       </c>
       <c r="E60" t="n">
-        <v>1687460170.094864</v>
+        <v>1688437487.213575</v>
       </c>
       <c r="F60" t="n">
         <v>0.0006810334961926622</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4585,7 +4585,7 @@
         <v>13514.3200493</v>
       </c>
       <c r="E61" t="n">
-        <v>1680059725.568828</v>
+        <v>1681032756.612378</v>
       </c>
       <c r="F61" t="n">
         <v>0.0006780467882997806</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4660,7 +4660,7 @@
         <v>13003.0228555</v>
       </c>
       <c r="E62" t="n">
-        <v>1616496792.327193</v>
+        <v>1617433009.97279</v>
       </c>
       <c r="F62" t="n">
         <v>0.00065239374627783</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4731,7 +4731,7 @@
         <v>12267.02337304</v>
       </c>
       <c r="E63" t="n">
-        <v>1524999544.666214</v>
+        <v>1525882770.349073</v>
       </c>
       <c r="F63" t="n">
         <v>0.0006154668359004077</v>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4802,7 +4802,7 @@
         <v>10996.0000033</v>
       </c>
       <c r="E64" t="n">
-        <v>1366989732.410246</v>
+        <v>1367781444.410484</v>
       </c>
       <c r="F64" t="n">
         <v>0.0005516964567350266</v>
@@ -4818,7 +4818,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4857,7 +4857,7 @@
         <v>10770.53622242</v>
       </c>
       <c r="E65" t="n">
-        <v>1338960751.562587</v>
+        <v>1339736230.170601</v>
       </c>
       <c r="F65" t="n">
         <v>0.0005403843824356224</v>
@@ -4873,7 +4873,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4912,7 +4912,7 @@
         <v>10608.16687241</v>
       </c>
       <c r="E66" t="n">
-        <v>1318775481.077394</v>
+        <v>1319539269.092207</v>
       </c>
       <c r="F66" t="n">
         <v>0.0005322379114410787</v>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4970,12 +4970,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qxlth5har0qasqvattsjvgp80st2x402u5shuud</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>bc1qxlth5har0qasqvattsjvgp80st2x402u5shuud</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4984,13 +4984,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>10584.71032107</v>
+        <v>10500.00585651</v>
       </c>
       <c r="E67" t="n">
-        <v>1315859432.984459</v>
+        <v>1306085228.485422</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0005310610383729069</v>
+        <v>0.000526811206347319</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -4998,32 +4998,20 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>LuBian.com Hacker</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>https://binance.com</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+          <t>hacker</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5045,12 +5033,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qxlth5har0qasqvattsjvgp80st2x402u5shuud</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bc1qxlth5har0qasqvattsjvgp80st2x402u5shuud</t>
+          <t>bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5059,13 +5047,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10500.00585651</v>
+        <v>10499.99999582</v>
       </c>
       <c r="E68" t="n">
-        <v>1305329228.063754</v>
+        <v>1306084499.480054</v>
       </c>
       <c r="F68" t="n">
-        <v>0.000526811206347319</v>
+        <v>0.0005268109123020383</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -5073,20 +5061,24 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LuBian.com Hacker</t>
+          <t>Twenty One Capital</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>hacker</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>https://xxi.money/</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5108,12 +5100,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
+          <t>https://intel.arkm.com/explorer/address/1Q8QR5k32hexiMQnRgkJ6fmmjn5fMWhdv9</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bc1qpzt4m58zzqgp84ktyuj5tz8g8k8ssg2g2d5eeerwhx4gxulqq5mqjzm5gc</t>
+          <t>1Q8QR5k32hexiMQnRgkJ6fmmjn5fMWhdv9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -5122,13 +5114,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>10499.99999582</v>
+        <v>10216.72065976</v>
       </c>
       <c r="E69" t="n">
-        <v>1305328499.480355</v>
+        <v>1270847666.146887</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0005268109123020383</v>
+        <v>0.0005125980889186579</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
@@ -5136,24 +5128,32 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Twenty One Capital</t>
+          <t>Binance Pool</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>miner-validator</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://xxi.money/</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+          <t>https://pool.binance.com</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Miner</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5175,12 +5175,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Q8QR5k32hexiMQnRgkJ6fmmjn5fMWhdv9</t>
+          <t>https://intel.arkm.com/explorer/address/39gUvGynQ7Re3i15G3J2gp9DEB9LnLFPMN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1Q8QR5k32hexiMQnRgkJ6fmmjn5fMWhdv9</t>
+          <t>39gUvGynQ7Re3i15G3J2gp9DEB9LnLFPMN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5189,46 +5189,26 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10216.72065976</v>
+        <v>10137.25763072</v>
       </c>
       <c r="E70" t="n">
-        <v>1270112062.259384</v>
+        <v>1260963339.42763</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0005125980889186579</v>
+        <v>0.0005086112326482282</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Binance Pool</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>miner-validator</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>https://pool.binance.com</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Miner</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5250,12 +5230,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/39gUvGynQ7Re3i15G3J2gp9DEB9LnLFPMN</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qsxdxm0exqdsmnl9ejrz250xqxrxpxkgf5nhhtq</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>39gUvGynQ7Re3i15G3J2gp9DEB9LnLFPMN</t>
+          <t>bc1qsxdxm0exqdsmnl9ejrz250xqxrxpxkgf5nhhtq</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5264,13 +5244,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10137.25763072</v>
+        <v>10001.74295561</v>
       </c>
       <c r="E71" t="n">
-        <v>1260233456.878218</v>
+        <v>1244106804.505372</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0005086112326482282</v>
+        <v>0.0005018121269669489</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -5283,7 +5263,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5305,12 +5285,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qsxdxm0exqdsmnl9ejrz250xqxrxpxkgf5nhhtq</t>
+          <t>https://intel.arkm.com/explorer/address/1Ki3WTEEqTLPNsN5cGTsMkL2sJ4m5mdCXT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bc1qsxdxm0exqdsmnl9ejrz250xqxrxpxkgf5nhhtq</t>
+          <t>1Ki3WTEEqTLPNsN5cGTsMkL2sJ4m5mdCXT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5319,13 +5299,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10001.74295561</v>
+        <v>10000.02532913</v>
       </c>
       <c r="E72" t="n">
-        <v>1243386679.012568</v>
+        <v>1243893150.665152</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005018121269669489</v>
+        <v>0.0005017259494075885</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -5338,7 +5318,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5360,12 +5340,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1Ki3WTEEqTLPNsN5cGTsMkL2sJ4m5mdCXT</t>
+          <t>https://intel.arkm.com/explorer/address/1DzsfLRDfbmQM99xm59au2SrTY3YmciBSB</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1Ki3WTEEqTLPNsN5cGTsMkL2sJ4m5mdCXT</t>
+          <t>1DzsfLRDfbmQM99xm59au2SrTY3YmciBSB</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5374,26 +5354,46 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>10000.02532913</v>
+        <v>10000.01057393</v>
       </c>
       <c r="E73" t="n">
-        <v>1243173148.841454</v>
+        <v>1243891315.280579</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0005017259494075885</v>
+        <v>0.0005017252091027908</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Upbit</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>https://sg.upbit.com</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5415,12 +5415,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DzsfLRDfbmQM99xm59au2SrTY3YmciBSB</t>
+          <t>https://intel.arkm.com/explorer/address/1GUfWdZQoo2pQ4BKHsiegxuZPnheY5ueTm</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1DzsfLRDfbmQM99xm59au2SrTY3YmciBSB</t>
+          <t>1GUfWdZQoo2pQ4BKHsiegxuZPnheY5ueTm</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5429,13 +5429,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10000.01057393</v>
+        <v>10000.00854493</v>
       </c>
       <c r="E74" t="n">
-        <v>1243171314.519256</v>
+        <v>1243891062.895298</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0005017252091027908</v>
+        <v>0.0005017251073028536</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5490,12 +5490,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1GUfWdZQoo2pQ4BKHsiegxuZPnheY5ueTm</t>
+          <t>https://intel.arkm.com/explorer/address/12HnxiXEeKUVjQRbMVTytsGWnzHd5LdGCt</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1GUfWdZQoo2pQ4BKHsiegxuZPnheY5ueTm</t>
+          <t>12HnxiXEeKUVjQRbMVTytsGWnzHd5LdGCt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5504,13 +5504,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10000.00854493</v>
+        <v>10000.00764266</v>
       </c>
       <c r="E75" t="n">
-        <v>1243171062.280063</v>
+        <v>1243890950.662835</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0005017251073028536</v>
+        <v>0.0005017250620337411</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5565,12 +5565,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/12HnxiXEeKUVjQRbMVTytsGWnzHd5LdGCt</t>
+          <t>https://intel.arkm.com/explorer/address/17uULjz9moeLyjXHoKNwDRgKzf8ahY3Jia</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>12HnxiXEeKUVjQRbMVTytsGWnzHd5LdGCt</t>
+          <t>17uULjz9moeLyjXHoKNwDRgKzf8ahY3Jia</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5579,13 +5579,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10000.00764266</v>
+        <v>10000.00756766</v>
       </c>
       <c r="E76" t="n">
-        <v>1243170950.112563</v>
+        <v>1243890941.33366</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0005017250620337411</v>
+        <v>0.0005017250582708059</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5640,12 +5640,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/17uULjz9moeLyjXHoKNwDRgKzf8ahY3Jia</t>
+          <t>https://intel.arkm.com/explorer/address/18qNs1yBGGKR8RyErnEF5kegbNUgPfixhS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>17uULjz9moeLyjXHoKNwDRgKzf8ahY3Jia</t>
+          <t>18qNs1yBGGKR8RyErnEF5kegbNUgPfixhS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5654,13 +5654,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10000.00756766</v>
+        <v>10000.00721131</v>
       </c>
       <c r="E77" t="n">
-        <v>1243170940.788788</v>
+        <v>1243890897.007639</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0005017250582708059</v>
+        <v>0.0005017250403918469</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5715,12 +5715,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/18qNs1yBGGKR8RyErnEF5kegbNUgPfixhS</t>
+          <t>https://intel.arkm.com/explorer/address/1DP3VYwN6ozHXDDaETbvNFLd86CAXfaewi</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>18qNs1yBGGKR8RyErnEF5kegbNUgPfixhS</t>
+          <t>1DP3VYwN6ozHXDDaETbvNFLd86CAXfaewi</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5729,13 +5729,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>10000.00721131</v>
+        <v>10000.00594951</v>
       </c>
       <c r="E78" t="n">
-        <v>1243170896.488425</v>
+        <v>1243890740.053599</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0005017250403918469</v>
+        <v>0.0005017249770842271</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5790,12 +5790,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DP3VYwN6ozHXDDaETbvNFLd86CAXfaewi</t>
+          <t>https://intel.arkm.com/explorer/address/1NhJGUJu8rrTwPS4vopsdTqqcK4nAwdLwJ</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1DP3VYwN6ozHXDDaETbvNFLd86CAXfaewi</t>
+          <t>1NhJGUJu8rrTwPS4vopsdTqqcK4nAwdLwJ</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5804,13 +5804,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10000.00594951</v>
+        <v>10000.00589081</v>
       </c>
       <c r="E79" t="n">
-        <v>1243170739.625235</v>
+        <v>1243890732.751965</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0005017249770842271</v>
+        <v>0.0005017249741391032</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5865,12 +5865,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1NhJGUJu8rrTwPS4vopsdTqqcK4nAwdLwJ</t>
+          <t>https://intel.arkm.com/explorer/address/1MewpRkpcbFdqamPPYc1bXa9AJ189Succy</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1NhJGUJu8rrTwPS4vopsdTqqcK4nAwdLwJ</t>
+          <t>1MewpRkpcbFdqamPPYc1bXa9AJ189Succy</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10000.00589081</v>
+        <v>10000.00580595</v>
       </c>
       <c r="E80" t="n">
-        <v>1243170732.327827</v>
+        <v>1243890722.196315</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0005017249741391032</v>
+        <v>0.0005017249698814676</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5940,12 +5940,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1MewpRkpcbFdqamPPYc1bXa9AJ189Succy</t>
+          <t>https://intel.arkm.com/explorer/address/1MtUMTqtdrpT6Rar5fgWoyrzAevatssej5</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1MewpRkpcbFdqamPPYc1bXa9AJ189Succy</t>
+          <t>1MtUMTqtdrpT6Rar5fgWoyrzAevatssej5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5954,13 +5954,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>10000.00580595</v>
+        <v>10000.00579717</v>
       </c>
       <c r="E81" t="n">
-        <v>1243170721.778286</v>
+        <v>1243890721.104179</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0005017249698814676</v>
+        <v>0.0005017249694409533</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6015,12 +6015,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1MtUMTqtdrpT6Rar5fgWoyrzAevatssej5</t>
+          <t>https://intel.arkm.com/explorer/address/1H2MXWiSniAgg7ykdXEzPHL6oTH1ic4kP</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1MtUMTqtdrpT6Rar5fgWoyrzAevatssej5</t>
+          <t>1H2MXWiSniAgg7ykdXEzPHL6oTH1ic4kP</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6029,13 +6029,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>10000.00579717</v>
+        <v>10000.00335146</v>
       </c>
       <c r="E82" t="n">
-        <v>1243170720.686783</v>
+        <v>1243890416.884758</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0005017249694409533</v>
+        <v>0.0005017248467336469</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6090,12 +6090,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1H2MXWiSniAgg7ykdXEzPHL6oTH1ic4kP</t>
+          <t>https://intel.arkm.com/explorer/address/1DcT5Wij5tfb3oVViF8mA8p4WrG98ahZPT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1H2MXWiSniAgg7ykdXEzPHL6oTH1ic4kP</t>
+          <t>1DcT5Wij5tfb3oVViF8mA8p4WrG98ahZPT</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6104,13 +6104,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10000.00335146</v>
+        <v>10000.00042386</v>
       </c>
       <c r="E83" t="n">
-        <v>1243170416.643453</v>
+        <v>1243890052.723522</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0005017248467336469</v>
+        <v>0.00050172469984873</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -6118,7 +6118,7 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Upbit</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>https://sg.upbit.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6165,12 +6165,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1DcT5Wij5tfb3oVViF8mA8p4WrG98ahZPT</t>
+          <t>https://intel.arkm.com/explorer/address/1CY7fykRLWXeSbKB885Kr4KjQxmDdvW923</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1DcT5Wij5tfb3oVViF8mA8p4WrG98ahZPT</t>
+          <t>1CY7fykRLWXeSbKB885Kr4KjQxmDdvW923</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6179,13 +6179,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>10000.00042386</v>
+        <v>10000.00024095</v>
       </c>
       <c r="E84" t="n">
-        <v>1243170052.693004</v>
+        <v>1243890029.971529</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00050172469984873</v>
+        <v>0.0005017246906716838</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6240,12 +6240,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/1CY7fykRLWXeSbKB885Kr4KjQxmDdvW923</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qcxycjmmyl0fwd0nnqv73clpfrjwvcrqws7m0r35c96ncv57989csr83nrp</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1CY7fykRLWXeSbKB885Kr4KjQxmDdvW923</t>
+          <t>bc1qcxycjmmyl0fwd0nnqv73clpfrjwvcrqws7m0r35c96ncv57989csr83nrp</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6254,46 +6254,26 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10000.00024095</v>
+        <v>9901.65000546</v>
       </c>
       <c r="E85" t="n">
-        <v>1243170029.954181</v>
+        <v>1231656342.529164</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0005017246906716838</v>
+        <v>0.0004967902166427093</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Cold Wallet</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6315,12 +6295,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qcxycjmmyl0fwd0nnqv73clpfrjwvcrqws7m0r35c96ncv57989csr83nrp</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qxkhwkn623l5lg4rx9vx8cujmleaga0eg6wc7p6</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>bc1qcxycjmmyl0fwd0nnqv73clpfrjwvcrqws7m0r35c96ncv57989csr83nrp</t>
+          <t>bc1qxkhwkn623l5lg4rx9vx8cujmleaga0eg6wc7p6</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6329,26 +6309,42 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9901.65000546</v>
+        <v>9799.992190389999</v>
       </c>
       <c r="E86" t="n">
-        <v>1230943423.728771</v>
+        <v>1219011228.570422</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0004967902166427093</v>
+        <v>0.0004916897931835685</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>U.S. Government</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>government</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Silk Road DOJ Confiscated Funds</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6370,12 +6366,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qxkhwkn623l5lg4rx9vx8cujmleaga0eg6wc7p6</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bc1qxkhwkn623l5lg4rx9vx8cujmleaga0eg6wc7p6</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6384,13 +6380,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>9799.992190389999</v>
+        <v>9796.97543889</v>
       </c>
       <c r="E87" t="n">
-        <v>1218305629.132714</v>
+        <v>1218635977.868088</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0004916897931835685</v>
+        <v>0.0004915384353158984</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
@@ -6398,18 +6394,22 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>U.S. Government</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>government</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>https://binance.com</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Silk Road DOJ Confiscated Funds</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6458,7 +6458,7 @@
         <v>9757.062496959999</v>
       </c>
       <c r="E88" t="n">
-        <v>1212968738.434576</v>
+        <v>1213671246.934357</v>
       </c>
       <c r="F88" t="n">
         <v>0.0004895359045197867</v>
@@ -6486,7 +6486,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>9750.00040544</v>
       </c>
       <c r="E89" t="n">
-        <v>1212090800.403085</v>
+        <v>1212792800.432276</v>
       </c>
       <c r="F89" t="n">
         <v>0.0004891815819599875</v>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6600,7 +6600,7 @@
         <v>9500.003378429999</v>
       </c>
       <c r="E90" t="n">
-        <v>1181011919.996282</v>
+        <v>1181695920.239529</v>
       </c>
       <c r="F90" t="n">
         <v>0.0004766386141576669</v>
@@ -6624,7 +6624,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6663,7 +6663,7 @@
         <v>9424.78292225</v>
       </c>
       <c r="E91" t="n">
-        <v>1171660738.545353</v>
+        <v>1172339322.915755</v>
       </c>
       <c r="F91" t="n">
         <v>0.0004728646182376921</v>
@@ -6679,7 +6679,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6718,7 +6718,7 @@
         <v>9260.016629580001</v>
       </c>
       <c r="E92" t="n">
-        <v>1151177487.339497</v>
+        <v>1151844208.536827</v>
       </c>
       <c r="F92" t="n">
         <v>0.0004645978867145814</v>
@@ -6734,7 +6734,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6773,7 +6773,7 @@
         <v>9252.09035896</v>
       </c>
       <c r="E93" t="n">
-        <v>1150192117.15483</v>
+        <v>1150858267.660676</v>
       </c>
       <c r="F93" t="n">
         <v>0.0004642002061566635</v>
@@ -6789,7 +6789,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6828,7 +6828,7 @@
         <v>9111.90945098</v>
       </c>
       <c r="E94" t="n">
-        <v>1132765247.217481</v>
+        <v>1133421304.697951</v>
       </c>
       <c r="F94" t="n">
         <v>0.0004571669840566949</v>
@@ -6852,7 +6852,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6891,7 +6891,7 @@
         <v>9099.002763119999</v>
       </c>
       <c r="E95" t="n">
-        <v>1131160726.502789</v>
+        <v>1131815854.701734</v>
       </c>
       <c r="F95" t="n">
         <v>0.0004565194236748824</v>
@@ -6915,7 +6915,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6954,7 +6954,7 @@
         <v>8999.00631028</v>
       </c>
       <c r="E96" t="n">
-        <v>1118729467.475079</v>
+        <v>1119377395.929419</v>
       </c>
       <c r="F96" t="n">
         <v>0.0004515023548588272</v>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7017,7 +7017,7 @@
         <v>8757.152</v>
       </c>
       <c r="E97" t="n">
-        <v>1088662865.184</v>
+        <v>1089293380.128</v>
       </c>
       <c r="F97" t="n">
         <v>0.0004393679272499216</v>
@@ -7033,7 +7033,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7072,7 +7072,7 @@
         <v>8611.05676772</v>
       </c>
       <c r="E98" t="n">
-        <v>1070500744.192647</v>
+        <v>1071120740.279923</v>
       </c>
       <c r="F98" t="n">
         <v>0.0004320379689041078</v>
@@ -7096,7 +7096,7 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7135,7 +7135,7 @@
         <v>8539.498165589999</v>
       </c>
       <c r="E99" t="n">
-        <v>1061604793.451652</v>
+        <v>1062219637.319575</v>
       </c>
       <c r="F99" t="n">
         <v>0.0004284476972387582</v>
@@ -7151,7 +7151,7 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7190,7 +7190,7 @@
         <v>8488.39388553</v>
       </c>
       <c r="E100" t="n">
-        <v>1055251662.667433</v>
+        <v>1055862827.027191</v>
       </c>
       <c r="F100" t="n">
         <v>0.0004258836693900282</v>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7265,7 +7265,7 @@
         <v>8471.943254039999</v>
       </c>
       <c r="E101" t="n">
-        <v>1053206569.512491</v>
+        <v>1053816549.426782</v>
       </c>
       <c r="F101" t="n">
         <v>0.0004250583006103481</v>
@@ -7281,7 +7281,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-10-07 11:24:20</t>
+          <t>2025-10-07 11:36:20</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">

--- a/data_cripto/top_holders.xlsx
+++ b/data_cripto/top_holders.xlsx
@@ -540,7 +540,7 @@
         <v>248597.57949627</v>
       </c>
       <c r="E2" t="n">
-        <v>28108928313.64325</v>
+        <v>28108182520.90476</v>
       </c>
       <c r="F2" t="n">
         <v>0.01246633365099241</v>
@@ -576,7 +576,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -615,7 +615,7 @@
         <v>140574.82561551</v>
       </c>
       <c r="E3" t="n">
-        <v>15894795532.34571</v>
+        <v>15894373807.86887</v>
       </c>
       <c r="F3" t="n">
         <v>0.007049355358181662</v>
@@ -651,7 +651,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -690,7 +690,7 @@
         <v>130010.07865864</v>
       </c>
       <c r="E4" t="n">
-        <v>14700239593.93242</v>
+        <v>14699849563.69645</v>
       </c>
       <c r="F4" t="n">
         <v>0.006519568781942596</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -765,7 +765,7 @@
         <v>120353.33726881</v>
       </c>
       <c r="E5" t="n">
-        <v>13608351844.98435</v>
+        <v>13607990784.97254</v>
       </c>
       <c r="F5" t="n">
         <v>0.006035315635186695</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -840,7 +840,7 @@
         <v>94643.48489007</v>
       </c>
       <c r="E6" t="n">
-        <v>10701338836.52022</v>
+        <v>10701054906.06554</v>
       </c>
       <c r="F6" t="n">
         <v>0.004746052889666106</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -911,7 +911,7 @@
         <v>86335.46794985</v>
       </c>
       <c r="E7" t="n">
-        <v>9761951361.08954</v>
+        <v>9761692354.68569</v>
       </c>
       <c r="F7" t="n">
         <v>0.004329433744118739</v>
@@ -947,7 +947,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -986,7 +986,7 @@
         <v>86200.09825618</v>
       </c>
       <c r="E8" t="n">
-        <v>9746645109.826271</v>
+        <v>9746386509.531506</v>
       </c>
       <c r="F8" t="n">
         <v>0.004322645408645231</v>
@@ -1002,7 +1002,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1041,7 +1041,7 @@
         <v>79957.26802990001</v>
       </c>
       <c r="E9" t="n">
-        <v>9040768296.140793</v>
+        <v>9040528424.336702</v>
       </c>
       <c r="F9" t="n">
         <v>0.004009588440492109</v>
@@ -1065,7 +1065,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1104,7 +1104,7 @@
         <v>78317.03554851</v>
       </c>
       <c r="E10" t="n">
-        <v>8855307209.470026</v>
+        <v>8855072258.36338</v>
       </c>
       <c r="F10" t="n">
         <v>0.003927336290573209</v>
@@ -1120,7 +1120,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1159,7 +1159,7 @@
         <v>69370.18402597</v>
       </c>
       <c r="E11" t="n">
-        <v>7843686707.816427</v>
+        <v>7843478597.264349</v>
       </c>
       <c r="F11" t="n">
         <v>0.003478681736366068</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1230,7 +1230,7 @@
         <v>68200.00663325</v>
       </c>
       <c r="E12" t="n">
-        <v>7711374750.021577</v>
+        <v>7711170150.001678</v>
       </c>
       <c r="F12" t="n">
         <v>0.003420001270377401</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1305,7 +1305,7 @@
         <v>57394.55419849</v>
       </c>
       <c r="E13" t="n">
-        <v>6489602243.223264</v>
+        <v>6489430059.56067</v>
       </c>
       <c r="F13" t="n">
         <v>0.002878144122875819</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1380,7 +1380,7 @@
         <v>53880.06602692</v>
       </c>
       <c r="E14" t="n">
-        <v>6092219065.663844</v>
+        <v>6092057425.465764</v>
       </c>
       <c r="F14" t="n">
         <v>0.002701904345127239</v>
@@ -1396,7 +1396,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1435,7 +1435,7 @@
         <v>51830.40133436</v>
       </c>
       <c r="E15" t="n">
-        <v>5860463478.876086</v>
+        <v>5860307987.672082</v>
       </c>
       <c r="F15" t="n">
         <v>0.002599120544971633</v>
@@ -1451,7 +1451,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1490,7 +1490,7 @@
         <v>47238.66947905</v>
       </c>
       <c r="E16" t="n">
-        <v>5341276357.996183</v>
+        <v>5341134641.987746</v>
       </c>
       <c r="F16" t="n">
         <v>0.002368860614604758</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1565,7 +1565,7 @@
         <v>44194.36887529</v>
       </c>
       <c r="E17" t="n">
-        <v>4997057288.72904</v>
+        <v>4996924705.622415</v>
       </c>
       <c r="F17" t="n">
         <v>0.002216199164170325</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1640,7 +1640,7 @@
         <v>44000.08738837</v>
       </c>
       <c r="E18" t="n">
-        <v>4975089881.002995</v>
+        <v>4974957880.74083</v>
       </c>
       <c r="F18" t="n">
         <v>0.002206456600131434</v>
@@ -1656,7 +1656,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1695,7 +1695,7 @@
         <v>42657.50576383</v>
       </c>
       <c r="E19" t="n">
-        <v>4823284176.716258</v>
+        <v>4823156204.198966</v>
       </c>
       <c r="F19" t="n">
         <v>0.002139130640968352</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1770,7 +1770,7 @@
         <v>41468.17659155</v>
       </c>
       <c r="E20" t="n">
-        <v>4688806727.206559</v>
+        <v>4688682322.676784</v>
       </c>
       <c r="F20" t="n">
         <v>0.002079489777559528</v>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1845,7 +1845,7 @@
         <v>40984.18145204</v>
       </c>
       <c r="E21" t="n">
-        <v>4634081396.782163</v>
+        <v>4633958444.237806</v>
       </c>
       <c r="F21" t="n">
         <v>0.002055219046899897</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1920,7 +1920,7 @@
         <v>37927.07815205</v>
       </c>
       <c r="E22" t="n">
-        <v>4288414726.652294</v>
+        <v>4288300945.417838</v>
       </c>
       <c r="F22" t="n">
         <v>0.001901915584249742</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1995,7 +1995,7 @@
         <v>36000.42381479</v>
       </c>
       <c r="E23" t="n">
-        <v>4070567920.738305</v>
+        <v>4070459919.466861</v>
       </c>
       <c r="F23" t="n">
         <v>0.001805300340259504</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2066,7 +2066,7 @@
         <v>35277.2629183</v>
       </c>
       <c r="E24" t="n">
-        <v>3988800118.172181</v>
+        <v>3988694286.383426</v>
       </c>
       <c r="F24" t="n">
         <v>0.001769036250169559</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2141,7 +2141,7 @@
         <v>33650.0000133</v>
       </c>
       <c r="E25" t="n">
-        <v>3804805501.503831</v>
+        <v>3804704551.503791</v>
       </c>
       <c r="F25" t="n">
         <v>0.001687434480945906</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2216,7 +2216,7 @@
         <v>31643.40162591</v>
       </c>
       <c r="E26" t="n">
-        <v>3577919421.841643</v>
+        <v>3577824491.636766</v>
       </c>
       <c r="F26" t="n">
         <v>0.001586810311348461</v>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2291,7 +2291,7 @@
         <v>31275.35248881</v>
       </c>
       <c r="E27" t="n">
-        <v>3536304105.909747</v>
+        <v>3536210279.85228</v>
       </c>
       <c r="F27" t="n">
         <v>0.001568353883283692</v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2366,7 +2366,7 @@
         <v>31000.07557838</v>
       </c>
       <c r="E28" t="n">
-        <v>3505178545.647427</v>
+        <v>3505085545.420691</v>
       </c>
       <c r="F28" t="n">
         <v>0.001554549670793819</v>
@@ -2382,7 +2382,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2421,7 +2421,7 @@
         <v>29983.88764199</v>
       </c>
       <c r="E29" t="n">
-        <v>3390278175.679809</v>
+        <v>3390188224.016883</v>
       </c>
       <c r="F29" t="n">
         <v>0.001503591258838158</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2496,7 +2496,7 @@
         <v>28151.05953118</v>
       </c>
       <c r="E30" t="n">
-        <v>3183040301.190523</v>
+        <v>3182955848.011929</v>
       </c>
       <c r="F30" t="n">
         <v>0.001411681084971729</v>
@@ -2512,7 +2512,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2551,7 +2551,7 @@
         <v>27500.00003</v>
       </c>
       <c r="E31" t="n">
-        <v>3109425003.3921</v>
+        <v>3109342503.39201</v>
       </c>
       <c r="F31" t="n">
         <v>0.001379032637690767</v>
@@ -2567,7 +2567,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2606,7 +2606,7 @@
         <v>27495.40866066</v>
       </c>
       <c r="E32" t="n">
-        <v>3108905857.260826</v>
+        <v>3108823371.034844</v>
       </c>
       <c r="F32" t="n">
         <v>0.001378802395939326</v>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2681,7 +2681,7 @@
         <v>26983.53948042</v>
       </c>
       <c r="E33" t="n">
-        <v>3051028809.051089</v>
+        <v>3050947858.432648</v>
       </c>
       <c r="F33" t="n">
         <v>0.001353133875757183</v>
@@ -2697,7 +2697,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2736,7 +2736,7 @@
         <v>26140.94829546</v>
       </c>
       <c r="E34" t="n">
-        <v>2955757023.767662</v>
+        <v>2955678600.922776</v>
       </c>
       <c r="F34" t="n">
         <v>0.001310880757829082</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2811,7 +2811,7 @@
         <v>26139.38441336</v>
       </c>
       <c r="E35" t="n">
-        <v>2955580195.618615</v>
+        <v>2955501777.465375</v>
       </c>
       <c r="F35" t="n">
         <v>0.001310802334394353</v>
@@ -2827,7 +2827,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2866,7 +2866,7 @@
         <v>24051.75831911</v>
       </c>
       <c r="E36" t="n">
-        <v>2719532313.141768</v>
+        <v>2719460157.86681</v>
       </c>
       <c r="F36" t="n">
         <v>0.001206114897444352</v>
@@ -2894,7 +2894,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2933,7 +2933,7 @@
         <v>23599.50835671</v>
       </c>
       <c r="E37" t="n">
-        <v>2668396409.893199</v>
+        <v>2668325611.36813</v>
       </c>
       <c r="F37" t="n">
         <v>0.001183436080794764</v>
@@ -2949,7 +2949,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2988,7 +2988,7 @@
         <v>23128.03262346</v>
       </c>
       <c r="E38" t="n">
-        <v>2615086648.734622</v>
+        <v>2615017264.636752</v>
       </c>
       <c r="F38" t="n">
         <v>0.00115979315631034</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3063,7 +3063,7 @@
         <v>23000.00130173</v>
       </c>
       <c r="E39" t="n">
-        <v>2600610147.186611</v>
+        <v>2600541147.182706</v>
       </c>
       <c r="F39" t="n">
         <v>0.00115337281554235</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3138,7 +3138,7 @@
         <v>22313.75976244</v>
       </c>
       <c r="E40" t="n">
-        <v>2523016816.339091</v>
+        <v>2522949875.059803</v>
       </c>
       <c r="F40" t="n">
         <v>0.001118960107215525</v>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3213,7 +3213,7 @@
         <v>21317.99043278</v>
       </c>
       <c r="E41" t="n">
-        <v>2410425178.234435</v>
+        <v>2410361224.263136</v>
       </c>
       <c r="F41" t="n">
         <v>0.001069025619807723</v>
@@ -3229,7 +3229,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3268,7 +3268,7 @@
         <v>20890.64638586</v>
       </c>
       <c r="E42" t="n">
-        <v>2362105386.84919</v>
+        <v>2362042714.910033</v>
       </c>
       <c r="F42" t="n">
         <v>0.001047595751168354</v>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3343,7 +3343,7 @@
         <v>20560.53699648</v>
       </c>
       <c r="E43" t="n">
-        <v>2324779918.191994</v>
+        <v>2324718236.581004</v>
       </c>
       <c r="F43" t="n">
         <v>0.001031041874024115</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3418,7 +3418,7 @@
         <v>20008.003253</v>
       </c>
       <c r="E44" t="n">
-        <v>2262304927.81671</v>
+        <v>2262244903.806951</v>
       </c>
       <c r="F44" t="n">
         <v>0.00100333416257491</v>
@@ -3434,7 +3434,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3470,13 +3470,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19458.7151253</v>
+        <v>19458.79122338</v>
       </c>
       <c r="E45" t="n">
-        <v>2200196919.217671</v>
+        <v>2200147147.253907</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0009757892078560732</v>
+        <v>0.0009757930239191958</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3548,7 +3548,7 @@
         <v>19438.37198809</v>
       </c>
       <c r="E46" t="n">
-        <v>2197896720.693336</v>
+        <v>2197838405.577372</v>
       </c>
       <c r="F46" t="n">
         <v>0.0009747690678511637</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3623,7 +3623,7 @@
         <v>19414.43168316</v>
       </c>
       <c r="E47" t="n">
-        <v>2195189790.414901</v>
+        <v>2195131547.119852</v>
       </c>
       <c r="F47" t="n">
         <v>0.0009735685419668466</v>
@@ -3639,7 +3639,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3678,7 +3678,7 @@
         <v>18422.68865254</v>
       </c>
       <c r="E48" t="n">
-        <v>2083053405.942698</v>
+        <v>2082998137.87674</v>
       </c>
       <c r="F48" t="n">
         <v>0.0009238359599328337</v>
@@ -3706,7 +3706,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3745,7 +3745,7 @@
         <v>17104.01362896</v>
       </c>
       <c r="E49" t="n">
-        <v>1933950821.026507</v>
+        <v>1933899508.98562</v>
       </c>
       <c r="F49" t="n">
         <v>0.0008577088365131737</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3820,7 +3820,7 @@
         <v>16546.00587075</v>
       </c>
       <c r="E50" t="n">
-        <v>1870856883.805702</v>
+        <v>1870807245.78809</v>
       </c>
       <c r="F50" t="n">
         <v>0.0008297266216107452</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3895,7 +3895,7 @@
         <v>16450.04572767</v>
       </c>
       <c r="E51" t="n">
-        <v>1860006670.427647</v>
+        <v>1859957320.290464</v>
       </c>
       <c r="F51" t="n">
         <v>0.0008249145427350931</v>
@@ -3911,7 +3911,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3950,7 +3950,7 @@
         <v>16306.62942381</v>
       </c>
       <c r="E52" t="n">
-        <v>1843790588.950197</v>
+        <v>1843741669.061925</v>
       </c>
       <c r="F52" t="n">
         <v>0.0008177226967865782</v>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4025,7 +4025,7 @@
         <v>15745.5598424</v>
       </c>
       <c r="E53" t="n">
-        <v>1780350451.380168</v>
+        <v>1780303214.700641</v>
       </c>
       <c r="F53" t="n">
         <v>0.0007895869417343667</v>
@@ -4041,7 +4041,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4080,7 +4080,7 @@
         <v>15397.12076987</v>
       </c>
       <c r="E54" t="n">
-        <v>1740952445.449201</v>
+        <v>1740906254.086891</v>
       </c>
       <c r="F54" t="n">
         <v>0.0007721138925437711</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4138,12 +4138,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
+          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15066.94353332</v>
+        <v>15327.13242741</v>
       </c>
       <c r="E55" t="n">
-        <v>1703619305.312492</v>
+        <v>1732992882.169966</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007555566130918338</v>
+        <v>0.0007686042122381374</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -4166,7 +4166,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Binance</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4176,12 +4176,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>https://gemini.com</t>
+          <t>https://binance.com</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4213,12 +4213,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>https://intel.arkm.com/explorer/address/38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bc1qm34lsc65zpw79lxes69zkqmk6ee3ewf0j77s3h</t>
+          <t>38UmuUqPCrFmQo4khkomQwZ4VbY2nZMJ67</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>15042.93143766</v>
+        <v>15066.94353332</v>
       </c>
       <c r="E56" t="n">
-        <v>1700904257.656216</v>
+        <v>1703574104.481893</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007543524871435294</v>
+        <v>0.0007555566130918338</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -4241,7 +4241,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Binance</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4251,12 +4251,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>https://binance.com</t>
+          <t>https://gemini.com</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>14710.44915629</v>
+        <v>14710.49075184</v>
       </c>
       <c r="E57" t="n">
-        <v>1663310486.10171</v>
+        <v>1663271057.838293</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0007376796174357866</v>
+        <v>0.0007376817033129128</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4380,7 +4380,7 @@
         <v>14495.35095994</v>
       </c>
       <c r="E58" t="n">
-        <v>1638989333.040416</v>
+        <v>1638945846.987536</v>
       </c>
       <c r="F58" t="n">
         <v>0.000726893165335733</v>
@@ -4396,7 +4396,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4435,7 +4435,7 @@
         <v>14064.75291376</v>
       </c>
       <c r="E59" t="n">
-        <v>1590301611.958843</v>
+        <v>1590259417.700102</v>
       </c>
       <c r="F59" t="n">
         <v>0.000705300119562631</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4510,7 +4510,7 @@
         <v>13514.32005224</v>
       </c>
       <c r="E60" t="n">
-        <v>1528064168.306777</v>
+        <v>1528023625.34662</v>
       </c>
       <c r="F60" t="n">
         <v>0.0006776977602875208</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4585,7 +4585,7 @@
         <v>13306.24860963</v>
       </c>
       <c r="E61" t="n">
-        <v>1504537530.290864</v>
+        <v>1504497611.545035</v>
       </c>
       <c r="F61" t="n">
         <v>0.0006672636762868819</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4660,7 +4660,7 @@
         <v>13107.90655724</v>
       </c>
       <c r="E62" t="n">
-        <v>1482110994.427127</v>
+        <v>1482071670.707455</v>
       </c>
       <c r="F62" t="n">
         <v>0.0006573174885278275</v>
@@ -4676,7 +4676,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4715,7 +4715,7 @@
         <v>13003.02286096</v>
       </c>
       <c r="E63" t="n">
-        <v>1470251794.888747</v>
+        <v>1470212785.820164</v>
       </c>
       <c r="F63" t="n">
         <v>0.0006520579234305919</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4786,7 +4786,7 @@
         <v>12267.02337634</v>
       </c>
       <c r="E64" t="n">
-        <v>1387032333.162764</v>
+        <v>1386995532.092635</v>
       </c>
       <c r="F64" t="n">
         <v>0.0006151500212666891</v>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4857,7 +4857,7 @@
         <v>12163.93847733</v>
       </c>
       <c r="E65" t="n">
-        <v>1375376523.631703</v>
+        <v>1375340031.816271</v>
       </c>
       <c r="F65" t="n">
         <v>0.0006099806598109522</v>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4932,7 +4932,7 @@
         <v>11946.0000033</v>
       </c>
       <c r="E66" t="n">
-        <v>1350734220.373131</v>
+        <v>1350698382.373121</v>
       </c>
       <c r="F66" t="n">
         <v>0.0005990517773248422</v>
@@ -4948,7 +4948,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4987,7 +4987,7 @@
         <v>10770.53622242</v>
       </c>
       <c r="E67" t="n">
-        <v>1217824530.669029</v>
+        <v>1217792219.060362</v>
       </c>
       <c r="F67" t="n">
         <v>0.0005401062167252589</v>
@@ -5003,7 +5003,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5042,7 +5042,7 @@
         <v>10679.99838152</v>
       </c>
       <c r="E68" t="n">
-        <v>1207587416.998466</v>
+        <v>1207555377.003322</v>
       </c>
       <c r="F68" t="n">
         <v>0.0005355660480921334</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5117,7 +5117,7 @@
         <v>10608.16687787</v>
       </c>
       <c r="E69" t="n">
-        <v>1199465428.880761</v>
+        <v>1199433604.380127</v>
       </c>
       <c r="F69" t="n">
         <v>0.0005319639394434175</v>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5192,7 +5192,7 @@
         <v>10500.00585651</v>
       </c>
       <c r="E70" t="n">
-        <v>1187235662.195586</v>
+        <v>1187204162.178016</v>
       </c>
       <c r="F70" t="n">
         <v>0.0005265400275009195</v>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5263,7 +5263,7 @@
         <v>10499.99999582</v>
       </c>
       <c r="E71" t="n">
-        <v>1187234999.527367</v>
+        <v>1187203499.52738</v>
       </c>
       <c r="F71" t="n">
         <v>0.0005265397336070003</v>
@@ -5291,7 +5291,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5330,7 +5330,7 @@
         <v>10255.64992469</v>
       </c>
       <c r="E72" t="n">
-        <v>1159606336.984698</v>
+        <v>1159575570.034924</v>
       </c>
       <c r="F72" t="n">
         <v>0.0005142863982345373</v>
@@ -5346,7 +5346,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5385,7 +5385,7 @@
         <v>10216.72066522</v>
       </c>
       <c r="E73" t="n">
-        <v>1155204605.616426</v>
+        <v>1155173955.45443</v>
       </c>
       <c r="F73" t="n">
         <v>0.0005123342266232029</v>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5460,7 +5460,7 @@
         <v>10137.25763618</v>
       </c>
       <c r="E74" t="n">
-        <v>1146219720.922873</v>
+        <v>1146189309.149964</v>
       </c>
       <c r="F74" t="n">
         <v>0.0005083494226080617</v>
@@ -5476,7 +5476,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5515,7 +5515,7 @@
         <v>10001.74297107</v>
       </c>
       <c r="E75" t="n">
-        <v>1130897077.738885</v>
+        <v>1130867072.509972</v>
       </c>
       <c r="F75" t="n">
         <v>0.0005015538173037505</v>
@@ -5531,7 +5531,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5570,7 +5570,7 @@
         <v>10000.02533459</v>
       </c>
       <c r="E76" t="n">
-        <v>1130702864.582091</v>
+        <v>1130672864.506088</v>
       </c>
       <c r="F76" t="n">
         <v>0.0005014676836032769</v>
@@ -5586,7 +5586,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5625,7 +5625,7 @@
         <v>10000.01058489</v>
       </c>
       <c r="E77" t="n">
-        <v>1130701196.833512</v>
+        <v>1130671196.801758</v>
       </c>
       <c r="F77" t="n">
         <v>0.0005014669439553615</v>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5700,7 +5700,7 @@
         <v>10000.00855039</v>
       </c>
       <c r="E78" t="n">
-        <v>1130700966.792597</v>
+        <v>1130670966.766946</v>
       </c>
       <c r="F78" t="n">
         <v>0.0005014668419320198</v>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5775,7 +5775,7 @@
         <v>10000.00764812</v>
       </c>
       <c r="E79" t="n">
-        <v>1130700864.772928</v>
+        <v>1130670864.749984</v>
       </c>
       <c r="F79" t="n">
         <v>0.0005014667966862096</v>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5850,7 +5850,7 @@
         <v>10000.00757312</v>
       </c>
       <c r="E80" t="n">
-        <v>1130700856.292678</v>
+        <v>1130670856.269959</v>
       </c>
       <c r="F80" t="n">
         <v>0.0005014667929252115</v>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5925,7 +5925,7 @@
         <v>10000.00721677</v>
       </c>
       <c r="E81" t="n">
-        <v>1130700816.000184</v>
+        <v>1130670815.978534</v>
       </c>
       <c r="F81" t="n">
         <v>0.0005014667750554559</v>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6000,7 +6000,7 @@
         <v>10000.00595497</v>
       </c>
       <c r="E82" t="n">
-        <v>1130700673.328458</v>
+        <v>1130670673.310593</v>
       </c>
       <c r="F82" t="n">
         <v>0.0005014667117804239</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6075,7 +6075,7 @@
         <v>10000.00590177</v>
       </c>
       <c r="E83" t="n">
-        <v>1130700667.313134</v>
+        <v>1130670667.295429</v>
       </c>
       <c r="F83" t="n">
         <v>0.0005014667091126226</v>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6150,7 +6150,7 @@
         <v>10000.00581691</v>
       </c>
       <c r="E84" t="n">
-        <v>1130700657.718014</v>
+        <v>1130670657.700563</v>
       </c>
       <c r="F84" t="n">
         <v>0.0005014667048571786</v>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6225,7 +6225,7 @@
         <v>10000.00580813</v>
       </c>
       <c r="E85" t="n">
-        <v>1130700656.725259</v>
+        <v>1130670656.707835</v>
       </c>
       <c r="F85" t="n">
         <v>0.000501466704416891</v>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6300,7 +6300,7 @@
         <v>10000.00336242</v>
       </c>
       <c r="E86" t="n">
-        <v>1130700380.188829</v>
+        <v>1130670380.178742</v>
       </c>
       <c r="F86" t="n">
         <v>0.000501466581772749</v>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6375,7 +6375,7 @@
         <v>10000.00044024</v>
       </c>
       <c r="E87" t="n">
-        <v>1130700049.777937</v>
+        <v>1130670049.776616</v>
       </c>
       <c r="F87" t="n">
         <v>0.0005014664352352367</v>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6450,7 +6450,7 @@
         <v>10000.00025187</v>
       </c>
       <c r="E88" t="n">
-        <v>1130700028.478941</v>
+        <v>1130670028.478185</v>
       </c>
       <c r="F88" t="n">
         <v>0.0005014664257891138</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>9799.992193329999</v>
       </c>
       <c r="E89" t="n">
-        <v>1108085117.299823</v>
+        <v>1108055717.323243</v>
       </c>
       <c r="F89" t="n">
         <v>0.0004914366934172253</v>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6596,7 +6596,7 @@
         <v>9750.0004142</v>
       </c>
       <c r="E90" t="n">
-        <v>1102432546.833594</v>
+        <v>1102403296.832351</v>
       </c>
       <c r="F90" t="n">
         <v>0.0004889297736004511</v>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6671,7 +6671,7 @@
         <v>9537.152</v>
       </c>
       <c r="E91" t="n">
-        <v>1078365776.64</v>
+        <v>1078337165.184</v>
       </c>
       <c r="F91" t="n">
         <v>0.0004782561405189124</v>
@@ -6687,7 +6687,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6726,7 +6726,7 @@
         <v>9500.003378429999</v>
       </c>
       <c r="E92" t="n">
-        <v>1074165381.99908</v>
+        <v>1074136881.988945</v>
       </c>
       <c r="F92" t="n">
         <v>0.0004763932619176627</v>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>9424.78293317</v>
       </c>
       <c r="E93" t="n">
-        <v>1065660206.253532</v>
+        <v>1065631931.904732</v>
       </c>
       <c r="F93" t="n">
         <v>0.0004726212092295896</v>
@@ -6813,7 +6813,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6852,7 +6852,7 @@
         <v>9260.0166405</v>
       </c>
       <c r="E94" t="n">
-        <v>1047030081.541335</v>
+        <v>1047002301.491413</v>
       </c>
       <c r="F94" t="n">
         <v>0.0004643587330501218</v>
@@ -6868,7 +6868,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6907,7 +6907,7 @@
         <v>9252.09037534</v>
       </c>
       <c r="E95" t="n">
-        <v>1046133858.739694</v>
+        <v>1046106102.468568</v>
       </c>
       <c r="F95" t="n">
         <v>0.0004639612574741688</v>
@@ -6923,7 +6923,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6962,7 +6962,7 @@
         <v>9111.90945098</v>
       </c>
       <c r="E96" t="n">
-        <v>1030283601.622309</v>
+        <v>1030256265.893956</v>
       </c>
       <c r="F96" t="n">
         <v>0.0004569316549409611</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7033,7 +7033,7 @@
         <v>9099.002763119999</v>
       </c>
       <c r="E97" t="n">
-        <v>1028824242.425978</v>
+        <v>1028796945.417689</v>
       </c>
       <c r="F97" t="n">
         <v>0.0004562844278942698</v>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7104,7 +7104,7 @@
         <v>8999.00637859</v>
       </c>
       <c r="E98" t="n">
-        <v>1017517651.227171</v>
+        <v>1017490654.208035</v>
       </c>
       <c r="F98" t="n">
         <v>0.0004512699450663603</v>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7167,7 +7167,7 @@
         <v>8672.21214319</v>
       </c>
       <c r="E99" t="n">
-        <v>980567027.0304933</v>
+        <v>980541010.3940637</v>
       </c>
       <c r="F99" t="n">
         <v>0.0004348823117596632</v>
@@ -7183,7 +7183,7 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7222,7 +7222,7 @@
         <v>8611.05677318</v>
       </c>
       <c r="E100" t="n">
-        <v>973652189.3434626</v>
+        <v>973626356.173143</v>
       </c>
       <c r="F100" t="n">
         <v>0.0004318155753552325</v>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7293,7 +7293,7 @@
         <v>8539.49817651</v>
       </c>
       <c r="E101" t="n">
-        <v>965561058.8179858</v>
+        <v>965535440.3234562</v>
       </c>
       <c r="F101" t="n">
         <v>0.0004282271520749552</v>
@@ -7309,7 +7309,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-10-29 10:32:04</t>
+          <t>2025-10-29 10:44:04</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">

--- a/data_cripto/top_holders.xlsx
+++ b/data_cripto/top_holders.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -927,7 +927,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1065,7 +1065,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1120,7 +1120,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1471,7 +1471,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1656,7 +1656,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2319,7 +2319,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2449,7 +2449,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2504,7 +2504,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2709,7 +2709,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2839,7 +2839,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2894,7 +2894,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2949,7 +2949,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3091,7 +3091,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3146,7 +3146,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>23098.42029981</v>
+        <v>23342.3575814</v>
       </c>
       <c r="E41" t="n">
-        <v>1977594352.388533</v>
+        <v>1998479286.689142</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00115703677243257</v>
+        <v>0.001169255980556045</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3351,7 +3351,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3481,7 +3481,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3611,7 +3611,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3816,7 +3816,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3958,7 +3958,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4013,7 +4013,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4593,7 +4593,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4731,7 +4731,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4988,13 +4988,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>11710.1714975</v>
+        <v>11422.28246785</v>
       </c>
       <c r="E67" t="n">
-        <v>1002578042.92996</v>
+        <v>977930135.7674456</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0005865811972522955</v>
+        <v>0.0005721603758557899</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5082,7 +5082,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5137,7 +5137,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5338,7 +5338,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5468,7 +5468,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5523,7 +5523,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5653,7 +5653,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5763,7 +5763,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6935,7 +6935,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6990,7 +6990,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7045,7 +7045,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7100,7 +7100,7 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:55</t>
+          <t>2025-12-17 19:11:55</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>181974.3957772165</v>
+        <v>181923.0035546732</v>
       </c>
       <c r="E102" t="n">
-        <v>510621974.2948273</v>
+        <v>510477767.2044486</v>
       </c>
       <c r="F102" t="n">
-        <v>0.001507720122222221</v>
+        <v>0.001507294320077236</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>21429.69993662315</v>
+        <v>21429.70890479799</v>
       </c>
       <c r="E105" t="n">
-        <v>60131952.31916391</v>
+        <v>60131977.48395222</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0001775523950478544</v>
+        <v>0.0001775524693522511</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7649,13 +7649,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>15524.68485937909</v>
+        <v>15524.68481296045</v>
       </c>
       <c r="E106" t="n">
-        <v>43562420.96226631</v>
+        <v>43562420.83201516</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0001286273250347842</v>
+        <v>0.0001286273246501899</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8407,13 +8407,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3711.779792880305</v>
+        <v>3711.702451370045</v>
       </c>
       <c r="E116" t="n">
-        <v>10415291.21662007</v>
+        <v>10415074.19556886</v>
       </c>
       <c r="F116" t="n">
-        <v>3.075336537913171e-05</v>
+        <v>3.075272457826077e-05</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8505,7 +8505,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8541,13 +8541,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3472.793987000867</v>
+        <v>3472.793617879856</v>
       </c>
       <c r="E118" t="n">
-        <v>9744694.655464305</v>
+        <v>9744693.619707057</v>
       </c>
       <c r="F118" t="n">
-        <v>2.877328622068213e-05</v>
+        <v>2.877328316238828e-05</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8695,13 +8695,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2723.370251368668</v>
+        <v>2722.369850690078</v>
       </c>
       <c r="E120" t="n">
-        <v>7641804.159042996</v>
+        <v>7638997.024734867</v>
       </c>
       <c r="F120" t="n">
-        <v>2.256405419406819e-05</v>
+        <v>2.255576553221029e-05</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
@@ -8728,7 +8728,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -8841,13 +8841,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2709.650157008517</v>
+        <v>2709.260532167578</v>
       </c>
       <c r="E122" t="n">
-        <v>7603305.437067471</v>
+        <v>7602212.145867547</v>
       </c>
       <c r="F122" t="n">
-        <v>2.245037851866762e-05</v>
+        <v>2.244715034357028e-05</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -8995,13 +8995,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2496.671936423972</v>
+        <v>2496.673355423972</v>
       </c>
       <c r="E124" t="n">
-        <v>7005686.420325031</v>
+        <v>7005690.40205322</v>
       </c>
       <c r="F124" t="n">
-        <v>2.068578110154788e-05</v>
+        <v>2.068579285844832e-05</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9226,13 +9226,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2053.94970912415</v>
+        <v>2053.9156986285</v>
       </c>
       <c r="E127" t="n">
-        <v>5763403.423299456</v>
+        <v>5763307.989508557</v>
       </c>
       <c r="F127" t="n">
-        <v>1.70176759936613e-05</v>
+        <v>1.701739420506989e-05</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9303,13 +9303,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2053.140256590633</v>
+        <v>2051.140507274557</v>
       </c>
       <c r="E128" t="n">
-        <v>5761132.091395884</v>
+        <v>5755520.77481748</v>
       </c>
       <c r="F128" t="n">
-        <v>1.701096940250844e-05</v>
+        <v>1.699440079531306e-05</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1753.150481106575</v>
+        <v>1753.150463586158</v>
       </c>
       <c r="E130" t="n">
-        <v>4919357.781489861</v>
+        <v>4919357.732327397</v>
       </c>
       <c r="F130" t="n">
-        <v>1.452545148650462e-05</v>
+        <v>1.452545134134198e-05</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9599,13 +9599,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1484.082891418171</v>
+        <v>1489.285156066341</v>
       </c>
       <c r="E132" t="n">
-        <v>4164351.434148302</v>
+        <v>4178949.040773713</v>
       </c>
       <c r="F132" t="n">
-        <v>1.2296134458258e-05</v>
+        <v>1.233923700055617e-05</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9705,7 +9705,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9762,7 +9762,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10026,7 +10026,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10083,7 +10083,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10282,7 +10282,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10339,7 +10339,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10473,7 +10473,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10530,7 +10530,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10587,7 +10587,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10644,7 +10644,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -10843,7 +10843,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -10900,7 +10900,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11034,7 +11034,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11156,7 +11156,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11213,7 +11213,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11270,7 +11270,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11327,7 +11327,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11396,7 +11396,7 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11453,7 +11453,7 @@
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11510,7 +11510,7 @@
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -11567,7 +11567,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -11624,7 +11624,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -11758,7 +11758,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -11892,7 +11892,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12026,7 +12026,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12083,7 +12083,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12205,7 +12205,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12262,7 +12262,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12319,7 +12319,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -12432,13 +12432,13 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>382.7675311732266</v>
+        <v>382.7675280042365</v>
       </c>
       <c r="E177" t="n">
-        <v>1074049.520147386</v>
+        <v>1074049.511255168</v>
       </c>
       <c r="F177" t="n">
-        <v>3.171359940052893e-06</v>
+        <v>3.171359913796726e-06</v>
       </c>
       <c r="G177" t="b">
         <v>0</v>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -12530,7 +12530,7 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -12566,13 +12566,13 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>368.018265365409</v>
+        <v>368.0182508586629</v>
       </c>
       <c r="E179" t="n">
-        <v>1032662.932797991</v>
+        <v>1032662.892091917</v>
       </c>
       <c r="F179" t="n">
-        <v>3.049157227130162e-06</v>
+        <v>3.049157106936807e-06</v>
       </c>
       <c r="G179" t="b">
         <v>0</v>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -12664,7 +12664,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -12729,7 +12729,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -12786,7 +12786,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -12843,7 +12843,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -12900,7 +12900,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -12957,7 +12957,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13014,7 +13014,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13071,7 +13071,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13270,7 +13270,7 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -13327,7 +13327,7 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -13384,7 +13384,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -13441,7 +13441,7 @@
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -13498,7 +13498,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -13555,7 +13555,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -13612,7 +13612,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -13669,7 +13669,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -13726,7 +13726,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -13783,7 +13783,7 @@
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -13840,7 +13840,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -13897,7 +13897,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -14318,13 +14318,13 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>12725.89275751818</v>
+        <v>12725.83184659316</v>
       </c>
       <c r="E207" t="n">
-        <v>35708982.33652359</v>
+        <v>35708811.41985889</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0001054383750076693</v>
+        <v>0.000105437870339818</v>
       </c>
       <c r="G207" t="b">
         <v>0</v>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -14472,13 +14472,13 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>4520.547000477763</v>
+        <v>4455.985158266625</v>
       </c>
       <c r="E209" t="n">
-        <v>12684700.08881061</v>
+        <v>12503538.91394773</v>
       </c>
       <c r="F209" t="n">
-        <v>3.745427837230365e-05</v>
+        <v>3.691936142306075e-05</v>
       </c>
       <c r="G209" t="b">
         <v>0</v>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -14691,13 +14691,13 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1635.960767279153</v>
+        <v>1635.424278811319</v>
       </c>
       <c r="E212" t="n">
-        <v>4590522.272592977</v>
+        <v>4589016.880587349</v>
       </c>
       <c r="F212" t="n">
-        <v>1.355449461699326e-05</v>
+        <v>1.355004962650523e-05</v>
       </c>
       <c r="G212" t="b">
         <v>0</v>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -14768,13 +14768,13 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1548.627030467329</v>
+        <v>1548.627021591195</v>
       </c>
       <c r="E213" t="n">
-        <v>4345462.933761629</v>
+        <v>4345462.908855109</v>
       </c>
       <c r="F213" t="n">
-        <v>1.283090473074767e-05</v>
+        <v>1.283090465720586e-05</v>
       </c>
       <c r="G213" t="b">
         <v>0</v>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15032,7 +15032,7 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15089,7 +15089,7 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -15365,7 +15365,7 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -15422,7 +15422,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -15458,13 +15458,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>703.1334298093296</v>
+        <v>703.1334022103387</v>
       </c>
       <c r="E223" t="n">
-        <v>1972999.435379277</v>
+        <v>1972999.357936232</v>
       </c>
       <c r="F223" t="n">
-        <v>5.825701007017062e-06</v>
+        <v>5.825700778349981e-06</v>
       </c>
       <c r="G223" t="b">
         <v>0</v>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -15556,7 +15556,7 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -15613,7 +15613,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -15670,7 +15670,7 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -15804,7 +15804,7 @@
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -15869,7 +15869,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -15926,7 +15926,7 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -16056,7 +16056,7 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -16092,13 +16092,13 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>551.2725223521032</v>
+        <v>551.6478165538649</v>
       </c>
       <c r="E233" t="n">
-        <v>1546876.210445225</v>
+        <v>1547929.289728311</v>
       </c>
       <c r="F233" t="n">
-        <v>4.567481437311787e-06</v>
+        <v>4.570590878161049e-06</v>
       </c>
       <c r="G233" t="b">
         <v>0</v>
@@ -16113,7 +16113,7 @@
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -16135,12 +16135,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
+          <t>https://intel.arkm.com/explorer/address/0xe274C0B274C9f5aE1Ee565C3845B3Dff59661cdA</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
+          <t>0xe274C0B274C9f5aE1Ee565C3845B3Dff59661cdA</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -16149,23 +16149,23 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>537.3539019047403</v>
+        <v>536.6094032233434</v>
       </c>
       <c r="E234" t="n">
-        <v>1507820.42228372</v>
+        <v>1505731.351538734</v>
       </c>
       <c r="F234" t="n">
-        <v>4.452160905363137e-06</v>
+        <v>4.445992479095718e-06</v>
       </c>
       <c r="G234" t="b">
         <v>0</v>
       </c>
       <c r="H234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Backpack Exchange</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16175,12 +16175,12 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://backpack.exchange</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>MagicSpend</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -16212,12 +16212,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xe274C0B274C9f5aE1Ee565C3845B3Dff59661cdA</t>
+          <t>https://intel.arkm.com/explorer/address/0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>0xe274C0B274C9f5aE1Ee565C3845B3Dff59661cdA</t>
+          <t>0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -16226,23 +16226,23 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>536.6094032233434</v>
+        <v>536.445770953798</v>
       </c>
       <c r="E235" t="n">
-        <v>1505731.351538734</v>
+        <v>1505272.197754067</v>
       </c>
       <c r="F235" t="n">
-        <v>4.445992479095718e-06</v>
+        <v>4.444636729764144e-06</v>
       </c>
       <c r="G235" t="b">
         <v>0</v>
       </c>
       <c r="H235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Backpack Exchange</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16252,12 +16252,12 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>https://backpack.exchange</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>MagicSpend</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -16267,7 +16267,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -16303,13 +16303,13 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>535.9502616139237</v>
+        <v>535.5749552236695</v>
       </c>
       <c r="E236" t="n">
-        <v>1503881.793591286</v>
+        <v>1502828.680107169</v>
       </c>
       <c r="F236" t="n">
-        <v>4.440531265370174e-06</v>
+        <v>4.437421723535082e-06</v>
       </c>
       <c r="G236" t="b">
         <v>0</v>
@@ -16344,7 +16344,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -16401,7 +16401,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -16458,7 +16458,7 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -16515,7 +16515,7 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -16572,7 +16572,7 @@
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -16629,7 +16629,7 @@
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -16686,7 +16686,7 @@
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -16743,7 +16743,7 @@
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -16779,13 +16779,13 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>498.3023694643464</v>
+        <v>498.2346314102214</v>
       </c>
       <c r="E244" t="n">
-        <v>1398241.431740651</v>
+        <v>1398051.358083395</v>
       </c>
       <c r="F244" t="n">
-        <v>4.128605599615188e-06</v>
+        <v>4.128044366663661e-06</v>
       </c>
       <c r="G244" t="b">
         <v>0</v>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -16877,7 +16877,7 @@
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -16934,7 +16934,7 @@
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -16991,7 +16991,7 @@
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -17048,7 +17048,7 @@
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -17105,7 +17105,7 @@
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -17162,7 +17162,7 @@
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -17227,7 +17227,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -17284,7 +17284,7 @@
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -17341,7 +17341,7 @@
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -17377,13 +17377,13 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>387.7792800863181</v>
+        <v>387.7650610692026</v>
       </c>
       <c r="E254" t="n">
-        <v>1088112.53771501</v>
+        <v>1088072.639010793</v>
       </c>
       <c r="F254" t="n">
-        <v>3.212883994310748e-06</v>
+        <v>3.212766184889638e-06</v>
       </c>
       <c r="G254" t="b">
         <v>0</v>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -17475,7 +17475,7 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -17532,7 +17532,7 @@
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -17568,13 +17568,13 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>370.8100049851334</v>
+        <v>370.811654412825</v>
       </c>
       <c r="E257" t="n">
-        <v>1040496.582088334</v>
+        <v>1040501.210398931</v>
       </c>
       <c r="F257" t="n">
-        <v>3.07228774493013e-06</v>
+        <v>3.072301411002823e-06</v>
       </c>
       <c r="G257" t="b">
         <v>0</v>
@@ -17597,7 +17597,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -17633,13 +17633,13 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>366.5366474132452</v>
+        <v>366.536647413355</v>
       </c>
       <c r="E258" t="n">
-        <v>1028505.49800804</v>
+        <v>1028505.498008348</v>
       </c>
       <c r="F258" t="n">
-        <v>3.036881515536878e-06</v>
+        <v>3.036881515537788e-06</v>
       </c>
       <c r="G258" t="b">
         <v>0</v>
@@ -17654,7 +17654,7 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -17711,7 +17711,7 @@
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -17845,7 +17845,7 @@
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -17979,7 +17979,7 @@
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -18044,7 +18044,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -18101,7 +18101,7 @@
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -18158,7 +18158,7 @@
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -18231,7 +18231,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -18332,13 +18332,13 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>312.2958756621586</v>
+        <v>312.2966141651553</v>
       </c>
       <c r="E269" t="n">
-        <v>876305.3500667736</v>
+        <v>876307.4223135676</v>
       </c>
       <c r="F269" t="n">
-        <v>2.587478165880504e-06</v>
+        <v>2.587484284630473e-06</v>
       </c>
       <c r="G269" t="b">
         <v>0</v>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -18418,7 +18418,7 @@
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -18475,7 +18475,7 @@
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -18532,7 +18532,7 @@
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -18589,7 +18589,7 @@
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -18723,7 +18723,7 @@
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -18780,7 +18780,7 @@
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -18837,7 +18837,7 @@
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -18902,7 +18902,7 @@
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -18959,7 +18959,7 @@
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -19024,7 +19024,7 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -19089,7 +19089,7 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -19146,7 +19146,7 @@
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -19268,7 +19268,7 @@
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -19325,7 +19325,7 @@
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -19402,7 +19402,7 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -19438,13 +19438,13 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>240.0486207574599</v>
+        <v>240.0486196574599</v>
       </c>
       <c r="E287" t="n">
-        <v>673578.83033164</v>
+        <v>673578.8272450289</v>
       </c>
       <c r="F287" t="n">
-        <v>1.988884943301604e-06</v>
+        <v>1.988884934187727e-06</v>
       </c>
       <c r="G287" t="b">
         <v>0</v>
@@ -19479,7 +19479,7 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -19536,7 +19536,7 @@
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -19650,7 +19650,7 @@
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -19715,7 +19715,7 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -19788,7 +19788,7 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -19845,7 +19845,7 @@
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -19902,7 +19902,7 @@
       <c r="M294" t="inlineStr"/>
       <c r="N294" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -19979,7 +19979,7 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -20036,7 +20036,7 @@
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -20158,7 +20158,7 @@
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -20223,7 +20223,7 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -20280,7 +20280,7 @@
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -20316,13 +20316,13 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>198.5155178824969</v>
+        <v>198.5104995925027</v>
       </c>
       <c r="E301" t="n">
-        <v>557036.5283334651</v>
+        <v>557022.4469615585</v>
       </c>
       <c r="F301" t="n">
-        <v>1.644768977561178e-06</v>
+        <v>1.644727399311826e-06</v>
       </c>
       <c r="G301" t="b">
         <v>0</v>
@@ -20357,7 +20357,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -20422,7 +20422,7 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -20458,13 +20458,13 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>487.0812206323045</v>
+        <v>487.0812522823315</v>
       </c>
       <c r="E303" t="n">
-        <v>1366754.775906453</v>
+        <v>1366754.864716745</v>
       </c>
       <c r="F303" t="n">
-        <v>4.035634542801061e-06</v>
+        <v>4.035634805032362e-06</v>
       </c>
       <c r="G303" t="b">
         <v>0</v>
@@ -20499,7 +20499,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -20556,7 +20556,7 @@
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -20755,7 +20755,7 @@
       <c r="M307" t="inlineStr"/>
       <c r="N307" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -20812,7 +20812,7 @@
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -20869,7 +20869,7 @@
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -21068,7 +21068,7 @@
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -21198,7 +21198,7 @@
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -21255,7 +21255,7 @@
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -21312,7 +21312,7 @@
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -21385,7 +21385,7 @@
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -21450,7 +21450,7 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -21507,7 +21507,7 @@
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -21572,7 +21572,7 @@
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -21629,7 +21629,7 @@
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -21686,7 +21686,7 @@
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -21751,7 +21751,7 @@
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -21808,7 +21808,7 @@
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -21865,7 +21865,7 @@
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -21922,7 +21922,7 @@
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -21979,7 +21979,7 @@
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -22056,7 +22056,7 @@
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -22113,7 +22113,7 @@
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -22170,7 +22170,7 @@
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -22247,7 +22247,7 @@
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -22304,7 +22304,7 @@
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -22361,7 +22361,7 @@
       <c r="M333" t="inlineStr"/>
       <c r="N333" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -22426,7 +22426,7 @@
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -22483,7 +22483,7 @@
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -22540,7 +22540,7 @@
       <c r="M336" t="inlineStr"/>
       <c r="N336" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -22670,7 +22670,7 @@
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -22735,7 +22735,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -22792,7 +22792,7 @@
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -22849,7 +22849,7 @@
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -22914,7 +22914,7 @@
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -23036,7 +23036,7 @@
       <c r="M344" t="inlineStr"/>
       <c r="N344" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -23093,7 +23093,7 @@
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -23150,7 +23150,7 @@
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -23207,7 +23207,7 @@
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -23280,7 +23280,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -23345,7 +23345,7 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -23467,7 +23467,7 @@
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -23524,7 +23524,7 @@
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -23601,7 +23601,7 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -23658,7 +23658,7 @@
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -23715,7 +23715,7 @@
       <c r="M355" t="inlineStr"/>
       <c r="N355" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -23772,7 +23772,7 @@
       <c r="M356" t="inlineStr"/>
       <c r="N356" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -23837,7 +23837,7 @@
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -23914,7 +23914,7 @@
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -23979,7 +23979,7 @@
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -24036,7 +24036,7 @@
       <c r="M360" t="inlineStr"/>
       <c r="N360" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -24093,7 +24093,7 @@
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -24150,7 +24150,7 @@
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -24207,7 +24207,7 @@
       <c r="M363" t="inlineStr"/>
       <c r="N363" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -24264,7 +24264,7 @@
       <c r="M364" t="inlineStr"/>
       <c r="N364" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -24321,7 +24321,7 @@
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -24378,7 +24378,7 @@
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -24435,7 +24435,7 @@
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -24492,7 +24492,7 @@
       <c r="M368" t="inlineStr"/>
       <c r="N368" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -24565,7 +24565,7 @@
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -24622,7 +24622,7 @@
       <c r="M370" t="inlineStr"/>
       <c r="N370" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -24687,7 +24687,7 @@
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -24744,7 +24744,7 @@
       <c r="M372" t="inlineStr"/>
       <c r="N372" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -24821,7 +24821,7 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -24878,7 +24878,7 @@
       <c r="M374" t="inlineStr"/>
       <c r="N374" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -24935,7 +24935,7 @@
       <c r="M375" t="inlineStr"/>
       <c r="N375" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -24992,7 +24992,7 @@
       <c r="M376" t="inlineStr"/>
       <c r="N376" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -25049,7 +25049,7 @@
       <c r="M377" t="inlineStr"/>
       <c r="N377" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -25114,7 +25114,7 @@
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -25236,7 +25236,7 @@
       <c r="M380" t="inlineStr"/>
       <c r="N380" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -25370,7 +25370,7 @@
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -25435,7 +25435,7 @@
       <c r="M383" t="inlineStr"/>
       <c r="N383" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -25565,7 +25565,7 @@
       <c r="M385" t="inlineStr"/>
       <c r="N385" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -25622,7 +25622,7 @@
       <c r="M386" t="inlineStr"/>
       <c r="N386" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -25687,7 +25687,7 @@
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -25744,7 +25744,7 @@
       <c r="M388" t="inlineStr"/>
       <c r="N388" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -25801,7 +25801,7 @@
       <c r="M389" t="inlineStr"/>
       <c r="N389" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -25866,7 +25866,7 @@
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -25923,7 +25923,7 @@
       <c r="M391" t="inlineStr"/>
       <c r="N391" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -26000,7 +26000,7 @@
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -26057,7 +26057,7 @@
       <c r="M393" t="inlineStr"/>
       <c r="N393" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -26114,7 +26114,7 @@
       <c r="M394" t="inlineStr"/>
       <c r="N394" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -26171,7 +26171,7 @@
       <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -26228,7 +26228,7 @@
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -26285,7 +26285,7 @@
       <c r="M397" t="inlineStr"/>
       <c r="N397" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -26342,7 +26342,7 @@
       <c r="M398" t="inlineStr"/>
       <c r="N398" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -26464,7 +26464,7 @@
       <c r="M400" t="inlineStr"/>
       <c r="N400" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -26606,7 +26606,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -26642,13 +26642,13 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>2607866.777024298</v>
+        <v>2607919.256558957</v>
       </c>
       <c r="E403" t="n">
-        <v>7317700254.997952</v>
+        <v>7317847513.096999</v>
       </c>
       <c r="F403" t="n">
-        <v>0.02160706839553429</v>
+        <v>0.02160750320643212</v>
       </c>
       <c r="G403" t="b">
         <v>0</v>
@@ -26671,7 +26671,7 @@
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -26748,7 +26748,7 @@
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -26825,7 +26825,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -26938,13 +26938,13 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>839270.888212006</v>
+        <v>839270.8925194833</v>
       </c>
       <c r="E407" t="n">
-        <v>2355002505.031771</v>
+        <v>2355002517.118596</v>
       </c>
       <c r="F407" t="n">
-        <v>0.006953646422333584</v>
+        <v>0.006953646458022508</v>
       </c>
       <c r="G407" t="b">
         <v>0</v>
@@ -26979,7 +26979,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -27015,13 +27015,13 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>757773.821849588</v>
+        <v>757773.8718495879</v>
       </c>
       <c r="E408" t="n">
-        <v>2126320921.848163</v>
+        <v>2126321062.148662</v>
       </c>
       <c r="F408" t="n">
-        <v>0.006278415347478814</v>
+        <v>0.006278415761745918</v>
       </c>
       <c r="G408" t="b">
         <v>0</v>
@@ -27056,7 +27056,7 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -27133,7 +27133,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -27210,7 +27210,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -27344,7 +27344,7 @@
       <c r="M412" t="inlineStr"/>
       <c r="N412" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -27401,7 +27401,7 @@
       <c r="M413" t="inlineStr"/>
       <c r="N413" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -27478,7 +27478,7 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -27547,7 +27547,7 @@
       <c r="M415" t="inlineStr"/>
       <c r="N415" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -27624,7 +27624,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -27701,7 +27701,7 @@
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -27758,7 +27758,7 @@
       <c r="M418" t="inlineStr"/>
       <c r="N418" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -27835,7 +27835,7 @@
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -27908,7 +27908,7 @@
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -27985,7 +27985,7 @@
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -28062,7 +28062,7 @@
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -28119,7 +28119,7 @@
       <c r="M423" t="inlineStr"/>
       <c r="N423" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -28346,7 +28346,7 @@
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -28423,7 +28423,7 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -28577,7 +28577,7 @@
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -28654,7 +28654,7 @@
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -28690,13 +28690,13 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>176322.7163913366</v>
+        <v>175889.5394940454</v>
       </c>
       <c r="E431" t="n">
-        <v>494763305.4212544</v>
+        <v>493547806.7156864</v>
       </c>
       <c r="F431" t="n">
-        <v>0.001460894025077918</v>
+        <v>0.001457305006294598</v>
       </c>
       <c r="G431" t="b">
         <v>0</v>
@@ -28731,7 +28731,7 @@
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -28885,7 +28885,7 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -28962,7 +28962,7 @@
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -29019,7 +29019,7 @@
       <c r="M435" t="inlineStr"/>
       <c r="N435" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -29076,7 +29076,7 @@
       <c r="M436" t="inlineStr"/>
       <c r="N436" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -29307,7 +29307,7 @@
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -29376,7 +29376,7 @@
       <c r="M440" t="inlineStr"/>
       <c r="N440" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -29445,7 +29445,7 @@
       <c r="M441" t="inlineStr"/>
       <c r="N441" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -29502,7 +29502,7 @@
       <c r="M442" t="inlineStr"/>
       <c r="N442" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -29579,7 +29579,7 @@
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -29725,7 +29725,7 @@
       <c r="M445" t="inlineStr"/>
       <c r="N445" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -29761,13 +29761,13 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>119976.1860083089</v>
+        <v>119976.3759663089</v>
       </c>
       <c r="E446" t="n">
-        <v>336654377.7011749</v>
+        <v>336654910.7252225</v>
       </c>
       <c r="F446" t="n">
-        <v>0.0009940437447785782</v>
+        <v>0.0009940453186455926</v>
       </c>
       <c r="G446" t="b">
         <v>0</v>
@@ -29802,7 +29802,7 @@
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -29859,7 +29859,7 @@
       <c r="M447" t="inlineStr"/>
       <c r="N447" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -29916,7 +29916,7 @@
       <c r="M448" t="inlineStr"/>
       <c r="N448" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -30062,7 +30062,7 @@
       <c r="M450" t="inlineStr"/>
       <c r="N450" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -30131,7 +30131,7 @@
       <c r="M451" t="inlineStr"/>
       <c r="N451" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -30188,7 +30188,7 @@
       <c r="M452" t="inlineStr"/>
       <c r="N452" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -30265,7 +30265,7 @@
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -30322,7 +30322,7 @@
       <c r="M454" t="inlineStr"/>
       <c r="N454" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -30391,7 +30391,7 @@
       <c r="M455" t="inlineStr"/>
       <c r="N455" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -30448,7 +30448,7 @@
       <c r="M456" t="inlineStr"/>
       <c r="N456" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -30505,7 +30505,7 @@
       <c r="M457" t="inlineStr"/>
       <c r="N457" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -30562,7 +30562,7 @@
       <c r="M458" t="inlineStr"/>
       <c r="N458" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -30639,7 +30639,7 @@
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -30675,13 +30675,13 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>100196.8621892673</v>
+        <v>100196.8618183125</v>
       </c>
       <c r="E460" t="n">
-        <v>281153397.271706</v>
+        <v>281153396.2308031</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0008301652804564452</v>
+        <v>0.0008301652773829575</v>
       </c>
       <c r="G460" t="b">
         <v>0</v>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -30773,7 +30773,7 @@
       <c r="M461" t="inlineStr"/>
       <c r="N461" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -30850,7 +30850,7 @@
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -30907,7 +30907,7 @@
       <c r="M463" t="inlineStr"/>
       <c r="N463" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -30964,7 +30964,7 @@
       <c r="M464" t="inlineStr"/>
       <c r="N464" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -31021,7 +31021,7 @@
       <c r="M465" t="inlineStr"/>
       <c r="N465" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -31078,7 +31078,7 @@
       <c r="M466" t="inlineStr"/>
       <c r="N466" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -31135,7 +31135,7 @@
       <c r="M467" t="inlineStr"/>
       <c r="N467" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -31212,7 +31212,7 @@
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -31281,7 +31281,7 @@
       <c r="M469" t="inlineStr"/>
       <c r="N469" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -31338,7 +31338,7 @@
       <c r="M470" t="inlineStr"/>
       <c r="N470" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -31407,7 +31407,7 @@
       <c r="M471" t="inlineStr"/>
       <c r="N471" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -31476,7 +31476,7 @@
       <c r="M472" t="inlineStr"/>
       <c r="N472" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -31533,7 +31533,7 @@
       <c r="M473" t="inlineStr"/>
       <c r="N473" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -31590,7 +31590,7 @@
       <c r="M474" t="inlineStr"/>
       <c r="N474" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -31655,7 +31655,7 @@
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -31712,7 +31712,7 @@
       <c r="M476" t="inlineStr"/>
       <c r="N476" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -31789,7 +31789,7 @@
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -31943,7 +31943,7 @@
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -32020,7 +32020,7 @@
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -32097,7 +32097,7 @@
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -32174,7 +32174,7 @@
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -32251,7 +32251,7 @@
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -32308,7 +32308,7 @@
       <c r="M484" t="inlineStr"/>
       <c r="N484" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -32365,7 +32365,7 @@
       <c r="M485" t="inlineStr"/>
       <c r="N485" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -32442,7 +32442,7 @@
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -32499,7 +32499,7 @@
       <c r="M487" t="inlineStr"/>
       <c r="N487" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -32576,7 +32576,7 @@
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -32641,7 +32641,7 @@
       <c r="M489" t="inlineStr"/>
       <c r="N489" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -32718,7 +32718,7 @@
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -32775,7 +32775,7 @@
       <c r="M491" t="inlineStr"/>
       <c r="N491" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -32917,7 +32917,7 @@
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -32974,7 +32974,7 @@
       <c r="M494" t="inlineStr"/>
       <c r="N494" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -33031,7 +33031,7 @@
       <c r="M495" t="inlineStr"/>
       <c r="N495" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -33088,7 +33088,7 @@
       <c r="M496" t="inlineStr"/>
       <c r="N496" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -33145,7 +33145,7 @@
       <c r="M497" t="inlineStr"/>
       <c r="N497" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -33202,7 +33202,7 @@
       <c r="M498" t="inlineStr"/>
       <c r="N498" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -33259,7 +33259,7 @@
       <c r="M499" t="inlineStr"/>
       <c r="N499" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -33316,7 +33316,7 @@
       <c r="M500" t="inlineStr"/>
       <c r="N500" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -33373,7 +33373,7 @@
       <c r="M501" t="inlineStr"/>
       <c r="N501" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -33450,7 +33450,7 @@
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -33486,13 +33486,13 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>10694.87818067354</v>
+        <v>10696.31468362953</v>
       </c>
       <c r="E503" t="n">
-        <v>30009935.12375177</v>
+        <v>30013965.96541129</v>
       </c>
       <c r="F503" t="n">
-        <v>8.861072443102314e-05</v>
+        <v>8.862262634943929e-05</v>
       </c>
       <c r="G503" t="b">
         <v>0</v>
@@ -33515,7 +33515,7 @@
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -33592,7 +33592,7 @@
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -33669,7 +33669,7 @@
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -33746,7 +33746,7 @@
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
@@ -33888,7 +33888,7 @@
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -33965,7 +33965,7 @@
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -34042,7 +34042,7 @@
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -34099,7 +34099,7 @@
       <c r="M511" t="inlineStr"/>
       <c r="N511" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -34176,7 +34176,7 @@
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
@@ -34253,7 +34253,7 @@
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -34330,7 +34330,7 @@
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -34395,7 +34395,7 @@
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -34452,7 +34452,7 @@
       <c r="M516" t="inlineStr"/>
       <c r="N516" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -34517,7 +34517,7 @@
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -34574,7 +34574,7 @@
       <c r="M518" t="inlineStr"/>
       <c r="N518" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -34631,7 +34631,7 @@
       <c r="M519" t="inlineStr"/>
       <c r="N519" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -34708,7 +34708,7 @@
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -34785,7 +34785,7 @@
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -34842,7 +34842,7 @@
       <c r="M522" t="inlineStr"/>
       <c r="N522" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -34919,7 +34919,7 @@
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -34976,7 +34976,7 @@
       <c r="M524" t="inlineStr"/>
       <c r="N524" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -35033,7 +35033,7 @@
       <c r="M525" t="inlineStr"/>
       <c r="N525" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -35098,7 +35098,7 @@
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -35155,7 +35155,7 @@
       <c r="M527" t="inlineStr"/>
       <c r="N527" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -35232,7 +35232,7 @@
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -35289,7 +35289,7 @@
       <c r="M529" t="inlineStr"/>
       <c r="N529" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -35346,7 +35346,7 @@
       <c r="M530" t="inlineStr"/>
       <c r="N530" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -35403,7 +35403,7 @@
       <c r="M531" t="inlineStr"/>
       <c r="N531" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -35460,7 +35460,7 @@
       <c r="M532" t="inlineStr"/>
       <c r="N532" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -35517,7 +35517,7 @@
       <c r="M533" t="inlineStr"/>
       <c r="N533" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -35553,13 +35553,13 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>55.51331030816977</v>
+        <v>55.51339780816977</v>
       </c>
       <c r="E534" t="n">
-        <v>155770.9038578275</v>
+        <v>155771.1493837025</v>
       </c>
       <c r="F534" t="n">
-        <v>4.599467669356206e-07</v>
+        <v>4.599474919030542e-07</v>
       </c>
       <c r="G534" t="b">
         <v>0</v>
@@ -35582,7 +35582,7 @@
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -35659,7 +35659,7 @@
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -35724,7 +35724,7 @@
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -35781,7 +35781,7 @@
       <c r="M537" t="inlineStr"/>
       <c r="N537" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -35858,7 +35858,7 @@
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -35927,7 +35927,7 @@
       <c r="M539" t="inlineStr"/>
       <c r="N539" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -35984,7 +35984,7 @@
       <c r="M540" t="inlineStr"/>
       <c r="N540" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -36049,7 +36049,7 @@
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -36126,7 +36126,7 @@
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
@@ -36203,7 +36203,7 @@
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -36260,7 +36260,7 @@
       <c r="M544" t="inlineStr"/>
       <c r="N544" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -36325,7 +36325,7 @@
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -36382,7 +36382,7 @@
       <c r="M546" t="inlineStr"/>
       <c r="N546" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -36439,7 +36439,7 @@
       <c r="M547" t="inlineStr"/>
       <c r="N547" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -36496,7 +36496,7 @@
       <c r="M548" t="inlineStr"/>
       <c r="N548" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -36561,7 +36561,7 @@
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -36618,7 +36618,7 @@
       <c r="M550" t="inlineStr"/>
       <c r="N550" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -36675,7 +36675,7 @@
       <c r="M551" t="inlineStr"/>
       <c r="N551" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -36744,7 +36744,7 @@
       <c r="M552" t="inlineStr"/>
       <c r="N552" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
@@ -36801,7 +36801,7 @@
       <c r="M553" t="inlineStr"/>
       <c r="N553" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
@@ -36858,7 +36858,7 @@
       <c r="M554" t="inlineStr"/>
       <c r="N554" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -36915,7 +36915,7 @@
       <c r="M555" t="inlineStr"/>
       <c r="N555" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -36980,7 +36980,7 @@
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -37016,13 +37016,13 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>36.07816450607336</v>
+        <v>36.06602347255443</v>
       </c>
       <c r="E557" t="n">
-        <v>101235.6903856869</v>
+        <v>101201.6225242225</v>
       </c>
       <c r="F557" t="n">
-        <v>2.989199352267378e-07</v>
+        <v>2.988193426106015e-07</v>
       </c>
       <c r="G557" t="b">
         <v>0</v>
@@ -37057,7 +37057,7 @@
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
@@ -37114,7 +37114,7 @@
       <c r="M558" t="inlineStr"/>
       <c r="N558" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
@@ -37171,7 +37171,7 @@
       <c r="M559" t="inlineStr"/>
       <c r="N559" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
@@ -37228,7 +37228,7 @@
       <c r="M560" t="inlineStr"/>
       <c r="N560" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
@@ -37305,7 +37305,7 @@
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -37382,7 +37382,7 @@
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
@@ -37439,7 +37439,7 @@
       <c r="M563" t="inlineStr"/>
       <c r="N563" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
@@ -37504,7 +37504,7 @@
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -37569,7 +37569,7 @@
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -37626,7 +37626,7 @@
       <c r="M566" t="inlineStr"/>
       <c r="N566" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -37703,7 +37703,7 @@
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -37760,7 +37760,7 @@
       <c r="M568" t="inlineStr"/>
       <c r="N568" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
@@ -37817,7 +37817,7 @@
       <c r="M569" t="inlineStr"/>
       <c r="N569" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -37874,7 +37874,7 @@
       <c r="M570" t="inlineStr"/>
       <c r="N570" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
@@ -37939,7 +37939,7 @@
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
@@ -37996,7 +37996,7 @@
       <c r="M572" t="inlineStr"/>
       <c r="N572" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -38053,7 +38053,7 @@
       <c r="M573" t="inlineStr"/>
       <c r="N573" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -38110,7 +38110,7 @@
       <c r="M574" t="inlineStr"/>
       <c r="N574" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
@@ -38167,7 +38167,7 @@
       <c r="M575" t="inlineStr"/>
       <c r="N575" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
@@ -38244,7 +38244,7 @@
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -38301,7 +38301,7 @@
       <c r="M577" t="inlineStr"/>
       <c r="N577" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -38358,7 +38358,7 @@
       <c r="M578" t="inlineStr"/>
       <c r="N578" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
@@ -38415,7 +38415,7 @@
       <c r="M579" t="inlineStr"/>
       <c r="N579" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
@@ -38492,7 +38492,7 @@
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
@@ -38557,7 +38557,7 @@
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
@@ -38622,7 +38622,7 @@
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -38691,7 +38691,7 @@
       <c r="M583" t="inlineStr"/>
       <c r="N583" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
@@ -38748,7 +38748,7 @@
       <c r="M584" t="inlineStr"/>
       <c r="N584" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -38805,7 +38805,7 @@
       <c r="M585" t="inlineStr"/>
       <c r="N585" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -38862,7 +38862,7 @@
       <c r="M586" t="inlineStr"/>
       <c r="N586" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -38919,7 +38919,7 @@
       <c r="M587" t="inlineStr"/>
       <c r="N587" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
@@ -38976,7 +38976,7 @@
       <c r="M588" t="inlineStr"/>
       <c r="N588" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
@@ -39033,7 +39033,7 @@
       <c r="M589" t="inlineStr"/>
       <c r="N589" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -39098,7 +39098,7 @@
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -39155,7 +39155,7 @@
       <c r="M591" t="inlineStr"/>
       <c r="N591" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -39220,7 +39220,7 @@
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -39277,7 +39277,7 @@
       <c r="M593" t="inlineStr"/>
       <c r="N593" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -39334,7 +39334,7 @@
       <c r="M594" t="inlineStr"/>
       <c r="N594" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -39399,7 +39399,7 @@
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -39456,7 +39456,7 @@
       <c r="M596" t="inlineStr"/>
       <c r="N596" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -39521,7 +39521,7 @@
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -39586,7 +39586,7 @@
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -39643,7 +39643,7 @@
       <c r="M599" t="inlineStr"/>
       <c r="N599" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -39700,7 +39700,7 @@
       <c r="M600" t="inlineStr"/>
       <c r="N600" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -39777,7 +39777,7 @@
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -39813,13 +39813,13 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>24238.35582758802</v>
+        <v>24236.36145653084</v>
       </c>
       <c r="E602" t="n">
-        <v>68013068.83577028</v>
+        <v>68007472.61064009</v>
       </c>
       <c r="F602" t="n">
-        <v>0.0002008230699420854</v>
+        <v>0.0002008065458956049</v>
       </c>
       <c r="G602" t="b">
         <v>0</v>
@@ -39842,7 +39842,7 @@
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -39919,7 +39919,7 @@
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -39996,7 +39996,7 @@
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -40073,7 +40073,7 @@
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
@@ -40150,7 +40150,7 @@
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
@@ -40215,7 +40215,7 @@
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
@@ -40251,13 +40251,13 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>6533.182226884413</v>
+        <v>6533.182072288344</v>
       </c>
       <c r="E608" t="n">
-        <v>18332174.66045993</v>
+        <v>18332174.22666182</v>
       </c>
       <c r="F608" t="n">
-        <v>5.412964974301878e-05</v>
+        <v>5.412964846213746e-05</v>
       </c>
       <c r="G608" t="b">
         <v>0</v>
@@ -40292,7 +40292,7 @@
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
@@ -40369,7 +40369,7 @@
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -40405,13 +40405,13 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>3562.596357503342</v>
+        <v>3561.392787705372</v>
       </c>
       <c r="E610" t="n">
-        <v>9996681.005117957</v>
+        <v>9993303.776229151</v>
       </c>
       <c r="F610" t="n">
-        <v>2.951732958157119e-05</v>
+        <v>2.950735759405532e-05</v>
       </c>
       <c r="G610" t="b">
         <v>0</v>
@@ -40446,7 +40446,7 @@
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
@@ -40523,7 +40523,7 @@
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -40559,13 +40559,13 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>1580.10314835322</v>
+        <v>1580.30320835322</v>
       </c>
       <c r="E612" t="n">
-        <v>4433785.23531062</v>
+        <v>4434346.60567122</v>
       </c>
       <c r="F612" t="n">
-        <v>1.309169513537194e-05</v>
+        <v>1.309335270091221e-05</v>
       </c>
       <c r="G612" t="b">
         <v>0</v>
@@ -40600,7 +40600,7 @@
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
@@ -40677,7 +40677,7 @@
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -40742,7 +40742,7 @@
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -40799,7 +40799,7 @@
       <c r="M615" t="inlineStr"/>
       <c r="N615" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
@@ -40876,7 +40876,7 @@
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -40953,7 +40953,7 @@
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -41018,7 +41018,7 @@
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
@@ -41095,7 +41095,7 @@
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -41160,7 +41160,7 @@
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -41237,7 +41237,7 @@
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -41294,7 +41294,7 @@
       <c r="M622" t="inlineStr"/>
       <c r="N622" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -41330,13 +41330,13 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>867.1755912321574</v>
+        <v>867.1755909053074</v>
       </c>
       <c r="E623" t="n">
-        <v>2433303.380753346</v>
+        <v>2433303.379836202</v>
       </c>
       <c r="F623" t="n">
-        <v>7.184846433018742e-06</v>
+        <v>7.184846430310678e-06</v>
       </c>
       <c r="G623" t="b">
         <v>0</v>
@@ -41371,7 +41371,7 @@
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
@@ -41428,7 +41428,7 @@
       <c r="M624" t="inlineStr"/>
       <c r="N624" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -41505,7 +41505,7 @@
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
@@ -41562,7 +41562,7 @@
       <c r="M626" t="inlineStr"/>
       <c r="N626" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -41598,13 +41598,13 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>650.5301471110465</v>
+        <v>650.5301388150465</v>
       </c>
       <c r="E627" t="n">
-        <v>1825394.098095068</v>
+        <v>1825394.074816409</v>
       </c>
       <c r="F627" t="n">
-        <v>5.389864814346074e-06</v>
+        <v>5.389864745610876e-06</v>
       </c>
       <c r="G627" t="b">
         <v>0</v>
@@ -41639,7 +41639,7 @@
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -41696,7 +41696,7 @@
       <c r="M628" t="inlineStr"/>
       <c r="N628" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
@@ -41773,7 +41773,7 @@
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -41830,7 +41830,7 @@
       <c r="M630" t="inlineStr"/>
       <c r="N630" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
@@ -41907,7 +41907,7 @@
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -41972,7 +41972,7 @@
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -42049,7 +42049,7 @@
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -42126,7 +42126,7 @@
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -42203,7 +42203,7 @@
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -42260,7 +42260,7 @@
       <c r="M636" t="inlineStr"/>
       <c r="N636" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -42337,7 +42337,7 @@
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -42402,7 +42402,7 @@
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -42479,7 +42479,7 @@
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -42544,7 +42544,7 @@
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -42601,7 +42601,7 @@
       <c r="M641" t="inlineStr"/>
       <c r="N641" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -42678,7 +42678,7 @@
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -42735,7 +42735,7 @@
       <c r="M643" t="inlineStr"/>
       <c r="N643" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -42800,7 +42800,7 @@
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -42857,7 +42857,7 @@
       <c r="M645" t="inlineStr"/>
       <c r="N645" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -42934,7 +42934,7 @@
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
@@ -42991,7 +42991,7 @@
       <c r="M647" t="inlineStr"/>
       <c r="N647" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
@@ -43048,7 +43048,7 @@
       <c r="M648" t="inlineStr"/>
       <c r="N648" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -43113,7 +43113,7 @@
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -43178,7 +43178,7 @@
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -43214,13 +43214,13 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>199.7459545529323</v>
+        <v>199.7402047949323</v>
       </c>
       <c r="E651" t="n">
-        <v>560489.1459350735</v>
+        <v>560473.012056628</v>
       </c>
       <c r="F651" t="n">
-        <v>1.654963566306547e-06</v>
+        <v>1.654915927594531e-06</v>
       </c>
       <c r="G651" t="b">
         <v>0</v>
@@ -43255,7 +43255,7 @@
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -43320,7 +43320,7 @@
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -43377,7 +43377,7 @@
       <c r="M653" t="inlineStr"/>
       <c r="N653" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
@@ -43442,7 +43442,7 @@
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -43519,7 +43519,7 @@
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -43596,7 +43596,7 @@
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
@@ -43653,7 +43653,7 @@
       <c r="M657" t="inlineStr"/>
       <c r="N657" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
@@ -43710,7 +43710,7 @@
       <c r="M658" t="inlineStr"/>
       <c r="N658" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
@@ -43767,7 +43767,7 @@
       <c r="M659" t="inlineStr"/>
       <c r="N659" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -43824,7 +43824,7 @@
       <c r="M660" t="inlineStr"/>
       <c r="N660" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -43881,7 +43881,7 @@
       <c r="M661" t="inlineStr"/>
       <c r="N661" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -43938,7 +43938,7 @@
       <c r="M662" t="inlineStr"/>
       <c r="N662" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
@@ -44015,7 +44015,7 @@
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
@@ -44092,7 +44092,7 @@
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -44128,13 +44128,13 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>138.7578529220234</v>
+        <v>138.7577327316968</v>
       </c>
       <c r="E665" t="n">
-        <v>389355.9228777269</v>
+        <v>389355.5856224686</v>
       </c>
       <c r="F665" t="n">
-        <v>1.149656280342925e-06</v>
+        <v>1.149655284524952e-06</v>
       </c>
       <c r="G665" t="b">
         <v>0</v>
@@ -44169,7 +44169,7 @@
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -44246,7 +44246,7 @@
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -44303,7 +44303,7 @@
       <c r="M667" t="inlineStr"/>
       <c r="N667" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -44360,7 +44360,7 @@
       <c r="M668" t="inlineStr"/>
       <c r="N668" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -44425,7 +44425,7 @@
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -44482,7 +44482,7 @@
       <c r="M670" t="inlineStr"/>
       <c r="N670" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -44539,7 +44539,7 @@
       <c r="M671" t="inlineStr"/>
       <c r="N671" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -44596,7 +44596,7 @@
       <c r="M672" t="inlineStr"/>
       <c r="N672" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -44661,7 +44661,7 @@
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -44738,7 +44738,7 @@
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -44803,7 +44803,7 @@
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -44880,7 +44880,7 @@
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
@@ -44945,7 +44945,7 @@
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -45022,7 +45022,7 @@
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -45087,7 +45087,7 @@
       <c r="M679" t="inlineStr"/>
       <c r="N679" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -45152,7 +45152,7 @@
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
@@ -45229,7 +45229,7 @@
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -45294,7 +45294,7 @@
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
@@ -45359,7 +45359,7 @@
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -45436,7 +45436,7 @@
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -45513,7 +45513,7 @@
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -45578,7 +45578,7 @@
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
@@ -45635,7 +45635,7 @@
       <c r="M687" t="inlineStr"/>
       <c r="N687" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -45692,7 +45692,7 @@
       <c r="M688" t="inlineStr"/>
       <c r="N688" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -45749,7 +45749,7 @@
       <c r="M689" t="inlineStr"/>
       <c r="N689" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
@@ -45814,7 +45814,7 @@
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
@@ -45891,7 +45891,7 @@
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -45968,7 +45968,7 @@
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -46025,7 +46025,7 @@
       <c r="M693" t="inlineStr"/>
       <c r="N693" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
@@ -46082,7 +46082,7 @@
       <c r="M694" t="inlineStr"/>
       <c r="N694" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -46147,7 +46147,7 @@
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -46224,7 +46224,7 @@
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -46301,7 +46301,7 @@
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -46366,7 +46366,7 @@
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -46431,7 +46431,7 @@
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -46496,7 +46496,7 @@
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -46553,7 +46553,7 @@
       <c r="M701" t="inlineStr"/>
       <c r="N701" t="inlineStr">
         <is>
-          <t>2025-12-17 19:08:57</t>
+          <t>2025-12-17 19:11:57</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">

--- a/data_cripto/top_holders.xlsx
+++ b/data_cripto/top_holders.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -927,7 +927,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1065,7 +1065,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1120,7 +1120,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1471,7 +1471,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1656,7 +1656,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2319,7 +2319,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2449,7 +2449,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2504,7 +2504,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2709,7 +2709,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2839,7 +2839,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2894,7 +2894,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2949,7 +2949,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3091,7 +3091,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3146,7 +3146,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>23342.3575814</v>
+        <v>23331.48624923</v>
       </c>
       <c r="E41" t="n">
-        <v>1992386931.360397</v>
+        <v>1991459008.803027</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001169255980556045</v>
+        <v>0.001168711418160749</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3351,7 +3351,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3481,7 +3481,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3611,7 +3611,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3647,13 +3647,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18192.91944617</v>
+        <v>18193.47460682</v>
       </c>
       <c r="E48" t="n">
-        <v>1552856639.32784</v>
+        <v>1552904025.065121</v>
       </c>
       <c r="F48" t="n">
-        <v>0.000911312398159775</v>
+        <v>0.0009113402070435999</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3816,7 +3816,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3958,7 +3958,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4013,7 +4013,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4593,7 +4593,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4731,7 +4731,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4974,12 +4974,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qcxycjmmyl0fwd0nnqv73clpfrjwvcrqws7m0r35c96ncv57989csr83nrp</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
+          <t>bc1qcxycjmmyl0fwd0nnqv73clpfrjwvcrqws7m0r35c96ncv57989csr83nrp</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4988,46 +4988,26 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>11422.28246785</v>
+        <v>11401.64992469</v>
       </c>
       <c r="E67" t="n">
-        <v>974948920.0433367</v>
+        <v>973187829.3219149</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0005721603758557899</v>
+        <v>0.0005711268588085173</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5049,12 +5029,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/bc1qcxycjmmyl0fwd0nnqv73clpfrjwvcrqws7m0r35c96ncv57989csr83nrp</t>
+          <t>https://intel.arkm.com/explorer/address/bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bc1qcxycjmmyl0fwd0nnqv73clpfrjwvcrqws7m0r35c96ncv57989csr83nrp</t>
+          <t>bc1qx9n80t5q7tfmutzaj0ramzzzsvtveara68zntc</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5063,26 +5043,46 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>11401.64992469</v>
+        <v>11271.98005472</v>
       </c>
       <c r="E68" t="n">
-        <v>973187829.3219149</v>
+        <v>962119857.5706255</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0005711268588085173</v>
+        <v>0.0005646314878747277</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5137,7 +5137,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5338,7 +5338,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5468,7 +5468,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5523,7 +5523,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5653,7 +5653,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5763,7 +5763,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6935,7 +6935,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6990,7 +6990,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7045,7 +7045,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7100,7 +7100,7 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:56</t>
+          <t>2025-12-17 19:17:55</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>181955.3518026327</v>
+        <v>181962.1535027717</v>
       </c>
       <c r="E102" t="n">
-        <v>508183102.0495728</v>
+        <v>508202098.5178909</v>
       </c>
       <c r="F102" t="n">
-        <v>0.001507562336377874</v>
+        <v>0.001507618690790379</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>21429.70890479799</v>
+        <v>21423.97905432749</v>
       </c>
       <c r="E105" t="n">
-        <v>59851034.00021031</v>
+        <v>59835031.10083126</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0001775524693522511</v>
+        <v>0.0001775049955809284</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7649,13 +7649,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>15527.56713999113</v>
+        <v>15527.5620307068</v>
       </c>
       <c r="E106" t="n">
-        <v>43366942.26528124</v>
+        <v>43366927.99556102</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0001286512057156795</v>
+        <v>0.000128651163383511</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7726,13 +7726,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>14520.94225504929</v>
+        <v>14520.94225362839</v>
       </c>
       <c r="E107" t="n">
-        <v>40555539.62412716</v>
+        <v>40555539.62015872</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0001203109741788511</v>
+        <v>0.0001203109741670784</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8407,13 +8407,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3709.495530430001</v>
+        <v>3705.679310831563</v>
       </c>
       <c r="E116" t="n">
-        <v>10360250.06693795</v>
+        <v>10349591.74722147</v>
       </c>
       <c r="F116" t="n">
-        <v>3.073443948328768e-05</v>
+        <v>3.070282079839078e-05</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8505,7 +8505,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8541,13 +8541,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3472.793609353272</v>
+        <v>3472.79360020851</v>
       </c>
       <c r="E118" t="n">
-        <v>9699165.271562753</v>
+        <v>9699165.246022347</v>
       </c>
       <c r="F118" t="n">
-        <v>2.877328309174261e-05</v>
+        <v>2.877328301597513e-05</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8695,13 +8695,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2722.354542063063</v>
+        <v>2722.036863225932</v>
       </c>
       <c r="E120" t="n">
-        <v>7603264.00052793</v>
+        <v>7602376.755303707</v>
       </c>
       <c r="F120" t="n">
-        <v>2.255563869499841e-05</v>
+        <v>2.255300661715525e-05</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
@@ -8728,7 +8728,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -8841,13 +8841,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2704.002751936841</v>
+        <v>2699.796603934853</v>
       </c>
       <c r="E122" t="n">
-        <v>7552009.285884405</v>
+        <v>7540261.935129653</v>
       </c>
       <c r="F122" t="n">
-        <v>2.240358783567873e-05</v>
+        <v>2.236873846056441e-05</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9303,13 +9303,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2051.14049255831</v>
+        <v>2051.140480062516</v>
       </c>
       <c r="E128" t="n">
-        <v>5728630.281666104</v>
+        <v>5728630.246766604</v>
       </c>
       <c r="F128" t="n">
-        <v>1.699440067338392e-05</v>
+        <v>1.6994400569852e-05</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1753.150451055741</v>
+        <v>1753.149220813921</v>
       </c>
       <c r="E130" t="n">
-        <v>4896373.894753579</v>
+        <v>4896370.4588112</v>
       </c>
       <c r="F130" t="n">
-        <v>1.452545123752318e-05</v>
+        <v>1.452544104454884e-05</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9705,7 +9705,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9762,7 +9762,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10026,7 +10026,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10083,7 +10083,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10282,7 +10282,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10339,7 +10339,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10473,7 +10473,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10530,7 +10530,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10587,7 +10587,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10644,7 +10644,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -10843,7 +10843,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -10900,7 +10900,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11034,7 +11034,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11156,7 +11156,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11213,7 +11213,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11270,7 +11270,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11327,7 +11327,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11396,7 +11396,7 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11453,7 +11453,7 @@
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11510,7 +11510,7 @@
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -11567,7 +11567,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -11624,7 +11624,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -11758,7 +11758,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -11892,7 +11892,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12026,7 +12026,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12083,7 +12083,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12205,7 +12205,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12262,7 +12262,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12319,7 +12319,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -12432,13 +12432,13 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>382.7675257238191</v>
+        <v>382.7675238989351</v>
       </c>
       <c r="E177" t="n">
-        <v>1069031.422594055</v>
+        <v>1069031.417497336</v>
       </c>
       <c r="F177" t="n">
-        <v>3.171359894902688e-06</v>
+        <v>3.1713598797829e-06</v>
       </c>
       <c r="G177" t="b">
         <v>0</v>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -12530,7 +12530,7 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -12552,12 +12552,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xD7a827FBaf38c98E8336C5658E4BcbCD20a4fd2d</t>
+          <t>https://intel.arkm.com/explorer/address/0x7a92D7662B7a8ebaC0A8dA96536B995fd7171744</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>0xD7a827FBaf38c98E8336C5658E4BcbCD20a4fd2d</t>
+          <t>0x7a92D7662B7a8ebaC0A8dA96536B995fd7171744</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -12566,13 +12566,13 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>367.8701899006699</v>
+        <v>366.54367889</v>
       </c>
       <c r="E179" t="n">
-        <v>1027424.653373581</v>
+        <v>1023719.840771881</v>
       </c>
       <c r="F179" t="n">
-        <v>3.047930371248371e-06</v>
+        <v>3.036939773727251e-06</v>
       </c>
       <c r="G179" t="b">
         <v>0</v>
@@ -12580,34 +12580,14 @@
       <c r="H179" t="b">
         <v>0</v>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>Crypto.com</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>https://crypto.com</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -12629,12 +12609,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7a92D7662B7a8ebaC0A8dA96536B995fd7171744</t>
+          <t>https://intel.arkm.com/explorer/address/0xD7a827FBaf38c98E8336C5658E4BcbCD20a4fd2d</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>0x7a92D7662B7a8ebaC0A8dA96536B995fd7171744</t>
+          <t>0xD7a827FBaf38c98E8336C5658E4BcbCD20a4fd2d</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -12643,13 +12623,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>366.54367889</v>
+        <v>366.1206402899963</v>
       </c>
       <c r="E180" t="n">
-        <v>1023719.840771881</v>
+        <v>1022538.336265931</v>
       </c>
       <c r="F180" t="n">
-        <v>3.036939773727251e-06</v>
+        <v>3.033434754205257e-06</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
@@ -12657,14 +12637,34 @@
       <c r="H180" t="b">
         <v>0</v>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Crypto.com</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>https://crypto.com</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -12729,7 +12729,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -12786,7 +12786,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -12843,7 +12843,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -12900,7 +12900,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -12957,7 +12957,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13014,7 +13014,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13071,7 +13071,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13270,7 +13270,7 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -13327,7 +13327,7 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -13384,7 +13384,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -13441,7 +13441,7 @@
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -13498,7 +13498,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -13555,7 +13555,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -13612,7 +13612,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -13669,7 +13669,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -13726,7 +13726,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -13783,7 +13783,7 @@
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -13840,7 +13840,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -13897,7 +13897,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -14318,13 +14318,13 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>12725.41550541119</v>
+        <v>12725.41697139074</v>
       </c>
       <c r="E207" t="n">
-        <v>35540812.96506292</v>
+        <v>35540817.05939719</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0001054344208106955</v>
+        <v>0.0001054344329568376</v>
       </c>
       <c r="G207" t="b">
         <v>0</v>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -14472,13 +14472,13 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>4455.946355634579</v>
+        <v>4455.423543011852</v>
       </c>
       <c r="E209" t="n">
-        <v>12445012.57665182</v>
+        <v>12443552.4132778</v>
       </c>
       <c r="F209" t="n">
-        <v>3.691903992997992e-05</v>
+        <v>3.69147082485471e-05</v>
       </c>
       <c r="G209" t="b">
         <v>0</v>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -14691,13 +14691,13 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1634.916708123063</v>
+        <v>1634.636708123063</v>
       </c>
       <c r="E212" t="n">
-        <v>4566158.874116904</v>
+        <v>4565376.862116904</v>
       </c>
       <c r="F212" t="n">
-        <v>1.354584422971376e-05</v>
+        <v>1.354352433392611e-05</v>
       </c>
       <c r="G212" t="b">
         <v>0</v>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -14768,13 +14768,13 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1548.584879500941</v>
+        <v>1548.58487398658</v>
       </c>
       <c r="E213" t="n">
-        <v>4325042.709958177</v>
+        <v>4325042.694557118</v>
       </c>
       <c r="F213" t="n">
-        <v>1.283055549557135e-05</v>
+        <v>1.283055544988298e-05</v>
       </c>
       <c r="G213" t="b">
         <v>0</v>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -14845,13 +14845,13 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1506.93468764509</v>
+        <v>1506.940589567738</v>
       </c>
       <c r="E214" t="n">
-        <v>4208717.889123972</v>
+        <v>4208734.372603735</v>
       </c>
       <c r="F214" t="n">
-        <v>1.248546940756828e-05</v>
+        <v>1.248551830701646e-05</v>
       </c>
       <c r="G214" t="b">
         <v>0</v>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15032,7 +15032,7 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15089,7 +15089,7 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -15365,7 +15365,7 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -15422,7 +15422,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -15458,13 +15458,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>703.1184034701081</v>
+        <v>703.1183948663324</v>
       </c>
       <c r="E223" t="n">
-        <v>1963739.389051665</v>
+        <v>1963739.36502218</v>
       </c>
       <c r="F223" t="n">
-        <v>5.82557650865612e-06</v>
+        <v>5.825576437370895e-06</v>
       </c>
       <c r="G223" t="b">
         <v>0</v>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -15556,7 +15556,7 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -15613,7 +15613,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -15670,7 +15670,7 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -15804,7 +15804,7 @@
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -15869,7 +15869,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -15926,7 +15926,7 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -16056,7 +16056,7 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -16113,7 +16113,7 @@
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -16212,12 +16212,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
+          <t>https://intel.arkm.com/explorer/address/0x4e3ae00E8323558fA5Cac04b152238924AA31B60</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
+          <t>0x4e3ae00E8323558fA5Cac04b152238924AA31B60</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -16226,23 +16226,23 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>535.9720954070912</v>
+        <v>535.8601401066862</v>
       </c>
       <c r="E235" t="n">
-        <v>1496916.465262465</v>
+        <v>1496603.785303964</v>
       </c>
       <c r="F235" t="n">
-        <v>4.44071216581588e-06</v>
+        <v>4.43978457785226e-06</v>
       </c>
       <c r="G235" t="b">
         <v>0</v>
       </c>
       <c r="H235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>MEXC</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16252,12 +16252,12 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://mexc.com</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>MagicSpend</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -16267,7 +16267,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -16289,12 +16289,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4e3ae00E8323558fA5Cac04b152238924AA31B60</t>
+          <t>https://intel.arkm.com/explorer/address/0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>0x4e3ae00E8323558fA5Cac04b152238924AA31B60</t>
+          <t>0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -16303,23 +16303,23 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>535.8601470202457</v>
+        <v>534.8752698405585</v>
       </c>
       <c r="E236" t="n">
-        <v>1496603.804612844</v>
+        <v>1493853.141137696</v>
       </c>
       <c r="F236" t="n">
-        <v>4.439784635133465e-06</v>
+        <v>4.431624590774533e-06</v>
       </c>
       <c r="G236" t="b">
         <v>0</v>
       </c>
       <c r="H236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>MEXC</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16329,12 +16329,12 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>https://mexc.com</t>
+          <t>https://coinbase.com</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>MagicSpend</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -16344,7 +16344,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -16401,7 +16401,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -16458,7 +16458,7 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -16515,7 +16515,7 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -16572,7 +16572,7 @@
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -16629,7 +16629,7 @@
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -16665,13 +16665,13 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>500.287346648536</v>
+        <v>500.1900018576868</v>
       </c>
       <c r="E242" t="n">
-        <v>1397252.530454696</v>
+        <v>1396980.656188333</v>
       </c>
       <c r="F242" t="n">
-        <v>4.145051814644353e-06</v>
+        <v>4.144245279750639e-06</v>
       </c>
       <c r="G242" t="b">
         <v>0</v>
@@ -16686,7 +16686,7 @@
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -16743,7 +16743,7 @@
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -16779,13 +16779,13 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>498.2039453686234</v>
+        <v>498.2166800305584</v>
       </c>
       <c r="E244" t="n">
-        <v>1391433.799020028</v>
+        <v>1391469.365657347</v>
       </c>
       <c r="F244" t="n">
-        <v>4.127790122311365e-06</v>
+        <v>4.127895633342009e-06</v>
       </c>
       <c r="G244" t="b">
         <v>0</v>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -16877,7 +16877,7 @@
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -16934,7 +16934,7 @@
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -16991,7 +16991,7 @@
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -17048,7 +17048,7 @@
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -17105,7 +17105,7 @@
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -17162,7 +17162,7 @@
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -17227,7 +17227,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -17284,7 +17284,7 @@
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -17341,7 +17341,7 @@
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -17377,13 +17377,13 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>387.7526298197847</v>
+        <v>387.7445241110235</v>
       </c>
       <c r="E254" t="n">
-        <v>1082954.319823677</v>
+        <v>1082931.681389678</v>
       </c>
       <c r="F254" t="n">
-        <v>3.212663187735496e-06</v>
+        <v>3.212596029165457e-06</v>
       </c>
       <c r="G254" t="b">
         <v>0</v>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -17475,7 +17475,7 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -17532,7 +17532,7 @@
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -17568,13 +17568,13 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>370.811654412825</v>
+        <v>370.8116586819286</v>
       </c>
       <c r="E257" t="n">
-        <v>1035639.869609579</v>
+        <v>1035639.881532758</v>
       </c>
       <c r="F257" t="n">
-        <v>3.072301411002823e-06</v>
+        <v>3.072301446373806e-06</v>
       </c>
       <c r="G257" t="b">
         <v>0</v>
@@ -17597,7 +17597,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -17654,7 +17654,7 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -17711,7 +17711,7 @@
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -17845,7 +17845,7 @@
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -17979,7 +17979,7 @@
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -18044,7 +18044,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -18101,7 +18101,7 @@
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -18158,7 +18158,7 @@
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -18231,7 +18231,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -18332,13 +18332,13 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>312.2966904839025</v>
+        <v>312.2978301105111</v>
       </c>
       <c r="E269" t="n">
-        <v>872213.4268524912</v>
+        <v>872216.6097156465</v>
       </c>
       <c r="F269" t="n">
-        <v>2.587484916957401e-06</v>
+        <v>2.587494359153719e-06</v>
       </c>
       <c r="G269" t="b">
         <v>0</v>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -18418,7 +18418,7 @@
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -18475,7 +18475,7 @@
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -18532,7 +18532,7 @@
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -18589,7 +18589,7 @@
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -18723,7 +18723,7 @@
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -18780,7 +18780,7 @@
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -18837,7 +18837,7 @@
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -18902,7 +18902,7 @@
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -18959,7 +18959,7 @@
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -19024,7 +19024,7 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -19089,7 +19089,7 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -19146,7 +19146,7 @@
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -19268,7 +19268,7 @@
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -19325,7 +19325,7 @@
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -19402,7 +19402,7 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -19438,13 +19438,13 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>240.0486219574599</v>
+        <v>240.0486752124975</v>
       </c>
       <c r="E287" t="n">
-        <v>670431.7962649897</v>
+        <v>670431.9450009844</v>
       </c>
       <c r="F287" t="n">
-        <v>1.988884953244015e-06</v>
+        <v>1.98888539448022e-06</v>
       </c>
       <c r="G287" t="b">
         <v>0</v>
@@ -19479,7 +19479,7 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -19536,7 +19536,7 @@
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -19650,7 +19650,7 @@
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -19715,7 +19715,7 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -19788,7 +19788,7 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -19845,7 +19845,7 @@
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -19902,7 +19902,7 @@
       <c r="M294" t="inlineStr"/>
       <c r="N294" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -19979,7 +19979,7 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -20036,7 +20036,7 @@
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -20158,7 +20158,7 @@
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -20223,7 +20223,7 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -20280,7 +20280,7 @@
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -20357,7 +20357,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -20422,7 +20422,7 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -20458,13 +20458,13 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>487.0814198438808</v>
+        <v>487.0814243782104</v>
       </c>
       <c r="E303" t="n">
-        <v>1360369.697481975</v>
+        <v>1360369.710145904</v>
       </c>
       <c r="F303" t="n">
-        <v>4.035636193337121e-06</v>
+        <v>4.035636230905593e-06</v>
       </c>
       <c r="G303" t="b">
         <v>0</v>
@@ -20499,7 +20499,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -20556,7 +20556,7 @@
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -20755,7 +20755,7 @@
       <c r="M307" t="inlineStr"/>
       <c r="N307" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -20812,7 +20812,7 @@
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -20869,7 +20869,7 @@
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -21068,7 +21068,7 @@
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -21198,7 +21198,7 @@
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -21255,7 +21255,7 @@
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -21312,7 +21312,7 @@
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -21385,7 +21385,7 @@
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -21450,7 +21450,7 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -21507,7 +21507,7 @@
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -21572,7 +21572,7 @@
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -21629,7 +21629,7 @@
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -21686,7 +21686,7 @@
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -21751,7 +21751,7 @@
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -21808,7 +21808,7 @@
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -21865,7 +21865,7 @@
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -21922,7 +21922,7 @@
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -21979,7 +21979,7 @@
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -22056,7 +22056,7 @@
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -22113,7 +22113,7 @@
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -22170,7 +22170,7 @@
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -22247,7 +22247,7 @@
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -22304,7 +22304,7 @@
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -22361,7 +22361,7 @@
       <c r="M333" t="inlineStr"/>
       <c r="N333" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -22426,7 +22426,7 @@
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -22483,7 +22483,7 @@
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -22540,7 +22540,7 @@
       <c r="M336" t="inlineStr"/>
       <c r="N336" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -22670,7 +22670,7 @@
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -22735,7 +22735,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -22792,7 +22792,7 @@
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -22849,7 +22849,7 @@
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -22914,7 +22914,7 @@
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -23036,7 +23036,7 @@
       <c r="M344" t="inlineStr"/>
       <c r="N344" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -23093,7 +23093,7 @@
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -23150,7 +23150,7 @@
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -23207,7 +23207,7 @@
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -23280,7 +23280,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -23345,7 +23345,7 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -23467,7 +23467,7 @@
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -23524,7 +23524,7 @@
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -23601,7 +23601,7 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -23658,7 +23658,7 @@
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -23715,7 +23715,7 @@
       <c r="M355" t="inlineStr"/>
       <c r="N355" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -23772,7 +23772,7 @@
       <c r="M356" t="inlineStr"/>
       <c r="N356" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -23837,7 +23837,7 @@
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -23914,7 +23914,7 @@
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -23979,7 +23979,7 @@
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -24036,7 +24036,7 @@
       <c r="M360" t="inlineStr"/>
       <c r="N360" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -24093,7 +24093,7 @@
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -24150,7 +24150,7 @@
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -24207,7 +24207,7 @@
       <c r="M363" t="inlineStr"/>
       <c r="N363" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -24264,7 +24264,7 @@
       <c r="M364" t="inlineStr"/>
       <c r="N364" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -24321,7 +24321,7 @@
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -24378,7 +24378,7 @@
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -24435,7 +24435,7 @@
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -24492,7 +24492,7 @@
       <c r="M368" t="inlineStr"/>
       <c r="N368" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -24565,7 +24565,7 @@
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -24622,7 +24622,7 @@
       <c r="M370" t="inlineStr"/>
       <c r="N370" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -24687,7 +24687,7 @@
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -24744,7 +24744,7 @@
       <c r="M372" t="inlineStr"/>
       <c r="N372" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -24821,7 +24821,7 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -24878,7 +24878,7 @@
       <c r="M374" t="inlineStr"/>
       <c r="N374" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -24935,7 +24935,7 @@
       <c r="M375" t="inlineStr"/>
       <c r="N375" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -24992,7 +24992,7 @@
       <c r="M376" t="inlineStr"/>
       <c r="N376" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -25049,7 +25049,7 @@
       <c r="M377" t="inlineStr"/>
       <c r="N377" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -25114,7 +25114,7 @@
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -25236,7 +25236,7 @@
       <c r="M380" t="inlineStr"/>
       <c r="N380" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -25370,7 +25370,7 @@
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -25435,7 +25435,7 @@
       <c r="M383" t="inlineStr"/>
       <c r="N383" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -25565,7 +25565,7 @@
       <c r="M385" t="inlineStr"/>
       <c r="N385" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -25622,7 +25622,7 @@
       <c r="M386" t="inlineStr"/>
       <c r="N386" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -25687,7 +25687,7 @@
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -25744,7 +25744,7 @@
       <c r="M388" t="inlineStr"/>
       <c r="N388" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -25801,7 +25801,7 @@
       <c r="M389" t="inlineStr"/>
       <c r="N389" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -25866,7 +25866,7 @@
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -25923,7 +25923,7 @@
       <c r="M391" t="inlineStr"/>
       <c r="N391" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -26000,7 +26000,7 @@
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -26057,7 +26057,7 @@
       <c r="M393" t="inlineStr"/>
       <c r="N393" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -26114,7 +26114,7 @@
       <c r="M394" t="inlineStr"/>
       <c r="N394" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -26171,7 +26171,7 @@
       <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -26228,7 +26228,7 @@
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -26285,7 +26285,7 @@
       <c r="M397" t="inlineStr"/>
       <c r="N397" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -26342,7 +26342,7 @@
       <c r="M398" t="inlineStr"/>
       <c r="N398" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -26464,7 +26464,7 @@
       <c r="M400" t="inlineStr"/>
       <c r="N400" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -26577,13 +26577,13 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>73955374.69648916</v>
+        <v>73955406.69648916</v>
       </c>
       <c r="E402" t="n">
-        <v>206549965989.8246</v>
+        <v>206550055362.6245</v>
       </c>
       <c r="F402" t="n">
-        <v>0.6127455793994796</v>
+        <v>0.6127458445304268</v>
       </c>
       <c r="G402" t="b">
         <v>0</v>
@@ -26606,7 +26606,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -26642,13 +26642,13 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>2608112.209344665</v>
+        <v>2607929.791138701</v>
       </c>
       <c r="E403" t="n">
-        <v>7284196589.478716</v>
+        <v>7283687113.67128</v>
       </c>
       <c r="F403" t="n">
-        <v>0.02160910188627061</v>
+        <v>0.02160759048902916</v>
       </c>
       <c r="G403" t="b">
         <v>0</v>
@@ -26671,7 +26671,7 @@
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -26748,7 +26748,7 @@
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -26825,7 +26825,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -26938,13 +26938,13 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>839270.8925194833</v>
+        <v>839275.464998688</v>
       </c>
       <c r="E407" t="n">
-        <v>2343999675.717665</v>
+        <v>2344012446.194836</v>
       </c>
       <c r="F407" t="n">
-        <v>0.006953646458022508</v>
+        <v>0.006953684342576957</v>
       </c>
       <c r="G407" t="b">
         <v>0</v>
@@ -26979,7 +26979,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -27056,7 +27056,7 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -27133,7 +27133,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -27210,7 +27210,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -27344,7 +27344,7 @@
       <c r="M412" t="inlineStr"/>
       <c r="N412" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -27401,7 +27401,7 @@
       <c r="M413" t="inlineStr"/>
       <c r="N413" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -27478,7 +27478,7 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -27547,7 +27547,7 @@
       <c r="M415" t="inlineStr"/>
       <c r="N415" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -27624,7 +27624,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -27701,7 +27701,7 @@
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -27758,7 +27758,7 @@
       <c r="M418" t="inlineStr"/>
       <c r="N418" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -27835,7 +27835,7 @@
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -27908,7 +27908,7 @@
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -27985,7 +27985,7 @@
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -28062,7 +28062,7 @@
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -28119,7 +28119,7 @@
       <c r="M423" t="inlineStr"/>
       <c r="N423" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -28346,7 +28346,7 @@
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -28423,7 +28423,7 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -28577,7 +28577,7 @@
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -28654,7 +28654,7 @@
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -28690,13 +28690,13 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>176477.9042039334</v>
+        <v>176443.3531861714</v>
       </c>
       <c r="E431" t="n">
-        <v>492885138.6511655</v>
+        <v>492788641.1136581</v>
       </c>
       <c r="F431" t="n">
-        <v>0.001462179809194835</v>
+        <v>0.001461893542192817</v>
       </c>
       <c r="G431" t="b">
         <v>0</v>
@@ -28731,7 +28731,7 @@
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -28885,7 +28885,7 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -28962,7 +28962,7 @@
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -29019,7 +29019,7 @@
       <c r="M435" t="inlineStr"/>
       <c r="N435" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -29076,7 +29076,7 @@
       <c r="M436" t="inlineStr"/>
       <c r="N436" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -29307,7 +29307,7 @@
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -29376,7 +29376,7 @@
       <c r="M440" t="inlineStr"/>
       <c r="N440" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -29445,7 +29445,7 @@
       <c r="M441" t="inlineStr"/>
       <c r="N441" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -29502,7 +29502,7 @@
       <c r="M442" t="inlineStr"/>
       <c r="N442" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -29579,7 +29579,7 @@
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -29725,7 +29725,7 @@
       <c r="M445" t="inlineStr"/>
       <c r="N445" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -29802,7 +29802,7 @@
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -29859,7 +29859,7 @@
       <c r="M447" t="inlineStr"/>
       <c r="N447" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -29916,7 +29916,7 @@
       <c r="M448" t="inlineStr"/>
       <c r="N448" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -30062,7 +30062,7 @@
       <c r="M450" t="inlineStr"/>
       <c r="N450" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -30131,7 +30131,7 @@
       <c r="M451" t="inlineStr"/>
       <c r="N451" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -30188,7 +30188,7 @@
       <c r="M452" t="inlineStr"/>
       <c r="N452" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -30265,7 +30265,7 @@
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -30322,7 +30322,7 @@
       <c r="M454" t="inlineStr"/>
       <c r="N454" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -30391,7 +30391,7 @@
       <c r="M455" t="inlineStr"/>
       <c r="N455" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -30427,13 +30427,13 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>103182.9751172673</v>
+        <v>103182.9751172683</v>
       </c>
       <c r="E456" t="n">
-        <v>288179731.2050158</v>
+        <v>288179731.2050186</v>
       </c>
       <c r="F456" t="n">
-        <v>0.0008549062476103373</v>
+        <v>0.0008549062476103455</v>
       </c>
       <c r="G456" t="b">
         <v>0</v>
@@ -30448,7 +30448,7 @@
       <c r="M456" t="inlineStr"/>
       <c r="N456" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -30505,7 +30505,7 @@
       <c r="M457" t="inlineStr"/>
       <c r="N457" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -30562,7 +30562,7 @@
       <c r="M458" t="inlineStr"/>
       <c r="N458" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -30639,7 +30639,7 @@
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -30675,13 +30675,13 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>100196.8613518592</v>
+        <v>100196.8608181126</v>
       </c>
       <c r="E460" t="n">
-        <v>279839814.0696074</v>
+        <v>279839812.5789067</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0008301652735182322</v>
+        <v>0.0008301652690959593</v>
       </c>
       <c r="G460" t="b">
         <v>0</v>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -30773,7 +30773,7 @@
       <c r="M461" t="inlineStr"/>
       <c r="N461" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -30850,7 +30850,7 @@
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -30907,7 +30907,7 @@
       <c r="M463" t="inlineStr"/>
       <c r="N463" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -30964,7 +30964,7 @@
       <c r="M464" t="inlineStr"/>
       <c r="N464" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -31021,7 +31021,7 @@
       <c r="M465" t="inlineStr"/>
       <c r="N465" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -31078,7 +31078,7 @@
       <c r="M466" t="inlineStr"/>
       <c r="N466" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -31135,7 +31135,7 @@
       <c r="M467" t="inlineStr"/>
       <c r="N467" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -31212,7 +31212,7 @@
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -31281,7 +31281,7 @@
       <c r="M469" t="inlineStr"/>
       <c r="N469" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -31338,7 +31338,7 @@
       <c r="M470" t="inlineStr"/>
       <c r="N470" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -31407,7 +31407,7 @@
       <c r="M471" t="inlineStr"/>
       <c r="N471" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -31476,7 +31476,7 @@
       <c r="M472" t="inlineStr"/>
       <c r="N472" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -31533,7 +31533,7 @@
       <c r="M473" t="inlineStr"/>
       <c r="N473" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -31590,7 +31590,7 @@
       <c r="M474" t="inlineStr"/>
       <c r="N474" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -31655,7 +31655,7 @@
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -31712,7 +31712,7 @@
       <c r="M476" t="inlineStr"/>
       <c r="N476" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -31789,7 +31789,7 @@
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -31943,7 +31943,7 @@
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -32020,7 +32020,7 @@
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -32097,7 +32097,7 @@
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -32174,7 +32174,7 @@
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -32251,7 +32251,7 @@
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -32308,7 +32308,7 @@
       <c r="M484" t="inlineStr"/>
       <c r="N484" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -32365,7 +32365,7 @@
       <c r="M485" t="inlineStr"/>
       <c r="N485" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -32442,7 +32442,7 @@
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -32499,7 +32499,7 @@
       <c r="M487" t="inlineStr"/>
       <c r="N487" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -32576,7 +32576,7 @@
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -32641,7 +32641,7 @@
       <c r="M489" t="inlineStr"/>
       <c r="N489" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -32718,7 +32718,7 @@
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -32775,7 +32775,7 @@
       <c r="M491" t="inlineStr"/>
       <c r="N491" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -32917,7 +32917,7 @@
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -32974,7 +32974,7 @@
       <c r="M494" t="inlineStr"/>
       <c r="N494" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -33031,7 +33031,7 @@
       <c r="M495" t="inlineStr"/>
       <c r="N495" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -33088,7 +33088,7 @@
       <c r="M496" t="inlineStr"/>
       <c r="N496" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -33145,7 +33145,7 @@
       <c r="M497" t="inlineStr"/>
       <c r="N497" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -33202,7 +33202,7 @@
       <c r="M498" t="inlineStr"/>
       <c r="N498" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -33259,7 +33259,7 @@
       <c r="M499" t="inlineStr"/>
       <c r="N499" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -33316,7 +33316,7 @@
       <c r="M500" t="inlineStr"/>
       <c r="N500" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -33373,7 +33373,7 @@
       <c r="M501" t="inlineStr"/>
       <c r="N501" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -33409,13 +33409,13 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>11186.33812474297</v>
+        <v>11128.01540979704</v>
       </c>
       <c r="E502" t="n">
-        <v>31242323.74859463</v>
+        <v>31079434.23802217</v>
       </c>
       <c r="F502" t="n">
-        <v>9.268263819545643e-05</v>
+        <v>9.21994145500033e-05</v>
       </c>
       <c r="G502" t="b">
         <v>0</v>
@@ -33450,7 +33450,7 @@
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -33486,13 +33486,13 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>10676.80153236089</v>
+        <v>10676.78261299364</v>
       </c>
       <c r="E503" t="n">
-        <v>29819238.99973072</v>
+        <v>29819186.15982994</v>
       </c>
       <c r="F503" t="n">
-        <v>8.846095321575454e-05</v>
+        <v>8.846079646232463e-05</v>
       </c>
       <c r="G503" t="b">
         <v>0</v>
@@ -33515,7 +33515,7 @@
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -33592,7 +33592,7 @@
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -33669,7 +33669,7 @@
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -33705,13 +33705,13 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>3895.426436429228</v>
+        <v>3895.426405861728</v>
       </c>
       <c r="E506" t="n">
-        <v>10879536.49430319</v>
+        <v>10879536.40893122</v>
       </c>
       <c r="F506" t="n">
-        <v>3.227494064621634e-05</v>
+        <v>3.227494039295414e-05</v>
       </c>
       <c r="G506" t="b">
         <v>0</v>
@@ -33746,7 +33746,7 @@
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
@@ -33888,7 +33888,7 @@
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -33965,7 +33965,7 @@
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -34042,7 +34042,7 @@
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -34099,7 +34099,7 @@
       <c r="M511" t="inlineStr"/>
       <c r="N511" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -34176,7 +34176,7 @@
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
@@ -34253,7 +34253,7 @@
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -34330,7 +34330,7 @@
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -34395,7 +34395,7 @@
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -34452,7 +34452,7 @@
       <c r="M516" t="inlineStr"/>
       <c r="N516" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -34517,7 +34517,7 @@
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -34574,7 +34574,7 @@
       <c r="M518" t="inlineStr"/>
       <c r="N518" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -34631,7 +34631,7 @@
       <c r="M519" t="inlineStr"/>
       <c r="N519" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -34708,7 +34708,7 @@
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -34785,7 +34785,7 @@
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -34807,12 +34807,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x6eA08ca8F313d860808ef7431fc72c6FbcF4A72D</t>
+          <t>https://intel.arkm.com/explorer/address/0xf70da97812CB96acDF810712Aa562db8dfA3dbEF</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>0x6eA08ca8F313d860808ef7431fc72c6FbcF4A72D</t>
+          <t>0xf70da97812CB96acDF810712Aa562db8dfA3dbEF</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -34821,13 +34821,13 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>93.52796637408795</v>
+        <v>94.39413026968812</v>
       </c>
       <c r="E522" t="n">
-        <v>261214.2572861903</v>
+        <v>263633.366430212</v>
       </c>
       <c r="F522" t="n">
-        <v>7.749111972069578e-07</v>
+        <v>7.820876613955658e-07</v>
       </c>
       <c r="G522" t="b">
         <v>0</v>
@@ -34835,14 +34835,34 @@
       <c r="H522" t="b">
         <v>0</v>
       </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
-      <c r="M522" t="inlineStr"/>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>Relay.link</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>bridge</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>https://relay.link/</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>Bridge Solver</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -34864,12 +34884,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xC844e4707D449F5D816578e5eC219d4FCB660dc2</t>
+          <t>https://intel.arkm.com/explorer/address/0x6eA08ca8F313d860808ef7431fc72c6FbcF4A72D</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>0xC844e4707D449F5D816578e5eC219d4FCB660dc2</t>
+          <t>0x6eA08ca8F313d860808ef7431fc72c6FbcF4A72D</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -34878,13 +34898,13 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>83.82598407618475</v>
+        <v>93.52796637408795</v>
       </c>
       <c r="E523" t="n">
-        <v>234117.5909263764</v>
+        <v>261214.2572861903</v>
       </c>
       <c r="F523" t="n">
-        <v>6.945269548330982e-07</v>
+        <v>7.749111972069578e-07</v>
       </c>
       <c r="G523" t="b">
         <v>0</v>
@@ -34892,34 +34912,14 @@
       <c r="H523" t="b">
         <v>0</v>
       </c>
-      <c r="I523" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="J523" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="M523" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
+      <c r="M523" t="inlineStr"/>
       <c r="N523" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -34941,12 +34941,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x80D8AdF5cb3ce467b3E3eF27b14d1F741F244b1d</t>
+          <t>https://intel.arkm.com/explorer/address/0xC844e4707D449F5D816578e5eC219d4FCB660dc2</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>0x80D8AdF5cb3ce467b3E3eF27b14d1F741F244b1d</t>
+          <t>0xC844e4707D449F5D816578e5eC219d4FCB660dc2</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -34955,13 +34955,13 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>82.19356181419769</v>
+        <v>83.82598407618475</v>
       </c>
       <c r="E524" t="n">
-        <v>229558.3987908728</v>
+        <v>234117.5909263764</v>
       </c>
       <c r="F524" t="n">
-        <v>6.810017779429681e-07</v>
+        <v>6.945269548330982e-07</v>
       </c>
       <c r="G524" t="b">
         <v>0</v>
@@ -34969,14 +34969,34 @@
       <c r="H524" t="b">
         <v>0</v>
       </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
-      <c r="M524" t="inlineStr"/>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -34998,12 +35018,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4649894839cCFBB32D57B51c07c8a3B51152b63f</t>
+          <t>https://intel.arkm.com/explorer/address/0x80D8AdF5cb3ce467b3E3eF27b14d1F741F244b1d</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>0x4649894839cCFBB32D57B51c07c8a3B51152b63f</t>
+          <t>0x80D8AdF5cb3ce467b3E3eF27b14d1F741F244b1d</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -35012,13 +35032,13 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>77.29398352988086</v>
+        <v>82.19356181419769</v>
       </c>
       <c r="E525" t="n">
-        <v>215874.3666006043</v>
+        <v>229558.3987908728</v>
       </c>
       <c r="F525" t="n">
-        <v>6.404070957179404e-07</v>
+        <v>6.810017779429681e-07</v>
       </c>
       <c r="G525" t="b">
         <v>0</v>
@@ -35033,7 +35053,7 @@
       <c r="M525" t="inlineStr"/>
       <c r="N525" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -35055,12 +35075,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5AeFa3D3a226804b4FcBBe965f625e453370288D</t>
+          <t>https://intel.arkm.com/explorer/address/0x4649894839cCFBB32D57B51c07c8a3B51152b63f</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>0x5AeFa3D3a226804b4FcBBe965f625e453370288D</t>
+          <t>0x4649894839cCFBB32D57B51c07c8a3B51152b63f</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -35069,13 +35089,13 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>74.09254771000001</v>
+        <v>77.29398352988086</v>
       </c>
       <c r="E526" t="n">
-        <v>206933.076499259</v>
+        <v>215874.3666006043</v>
       </c>
       <c r="F526" t="n">
-        <v>6.138821047431294e-07</v>
+        <v>6.404070957179404e-07</v>
       </c>
       <c r="G526" t="b">
         <v>0</v>
@@ -35086,19 +35106,11 @@
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>Gate Deposit</t>
-        </is>
-      </c>
-      <c r="M526" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="L526" t="inlineStr"/>
+      <c r="M526" t="inlineStr"/>
       <c r="N526" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -35120,12 +35132,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xDf3fb88EC2dD266C863Ea8D452dC3Bc8C8c85698</t>
+          <t>https://intel.arkm.com/explorer/address/0x5AeFa3D3a226804b4FcBBe965f625e453370288D</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>0xDf3fb88EC2dD266C863Ea8D452dC3Bc8C8c85698</t>
+          <t>0x5AeFa3D3a226804b4FcBBe965f625e453370288D</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -35134,13 +35146,13 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>65.75817114490641</v>
+        <v>74.09254771000001</v>
       </c>
       <c r="E527" t="n">
-        <v>183655.9961906091</v>
+        <v>206933.076499259</v>
       </c>
       <c r="F527" t="n">
-        <v>5.448289437217689e-07</v>
+        <v>6.138821047431294e-07</v>
       </c>
       <c r="G527" t="b">
         <v>0</v>
@@ -35151,11 +35163,19 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
-      <c r="M527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>Gate Deposit</t>
+        </is>
+      </c>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -35177,12 +35197,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x97b9D2102A9a65A26E1EE82D59e42d1B73B68689</t>
+          <t>https://intel.arkm.com/explorer/address/0xDf3fb88EC2dD266C863Ea8D452dC3Bc8C8c85698</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>0x97b9D2102A9a65A26E1EE82D59e42d1B73B68689</t>
+          <t>0xDf3fb88EC2dD266C863Ea8D452dC3Bc8C8c85698</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -35191,13 +35211,13 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>65.69141977013545</v>
+        <v>65.75817114490641</v>
       </c>
       <c r="E528" t="n">
-        <v>183469.5662760113</v>
+        <v>183655.9961906091</v>
       </c>
       <c r="F528" t="n">
-        <v>5.442758857462316e-07</v>
+        <v>5.448289437217689e-07</v>
       </c>
       <c r="G528" t="b">
         <v>0</v>
@@ -35205,34 +35225,14 @@
       <c r="H528" t="b">
         <v>0</v>
       </c>
-      <c r="I528" t="inlineStr">
-        <is>
-          <t>Bitget</t>
-        </is>
-      </c>
-      <c r="J528" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>https://www.bitget.com/</t>
-        </is>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="M528" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
+      <c r="M528" t="inlineStr"/>
       <c r="N528" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -35254,12 +35254,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x0e148ED05BC33C875b1c592fe2b224a01C17A34b</t>
+          <t>https://intel.arkm.com/explorer/address/0x97b9D2102A9a65A26E1EE82D59e42d1B73B68689</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>0x0e148ED05BC33C875b1c592fe2b224a01C17A34b</t>
+          <t>0x97b9D2102A9a65A26E1EE82D59e42d1B73B68689</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -35268,13 +35268,13 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>61.34684850659658</v>
+        <v>65.69141977013545</v>
       </c>
       <c r="E529" t="n">
-        <v>171335.6131940736</v>
+        <v>183469.5662760113</v>
       </c>
       <c r="F529" t="n">
-        <v>5.082796265555411e-07</v>
+        <v>5.442758857462316e-07</v>
       </c>
       <c r="G529" t="b">
         <v>0</v>
@@ -35282,14 +35282,34 @@
       <c r="H529" t="b">
         <v>0</v>
       </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
-      <c r="M529" t="inlineStr"/>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>Bitget</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>https://www.bitget.com/</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -35311,12 +35331,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x675aD364bD671363Adbfe3a3c4F089d077db9292</t>
+          <t>https://intel.arkm.com/explorer/address/0x0e148ED05BC33C875b1c592fe2b224a01C17A34b</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>0x675aD364bD671363Adbfe3a3c4F089d077db9292</t>
+          <t>0x0e148ED05BC33C875b1c592fe2b224a01C17A34b</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -35325,13 +35345,13 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>61.1029367422</v>
+        <v>61.34684850659658</v>
       </c>
       <c r="E530" t="n">
-        <v>170654.3920272904</v>
+        <v>171335.6131940736</v>
       </c>
       <c r="F530" t="n">
-        <v>5.062587341456128e-07</v>
+        <v>5.082796265555411e-07</v>
       </c>
       <c r="G530" t="b">
         <v>0</v>
@@ -35346,7 +35366,7 @@
       <c r="M530" t="inlineStr"/>
       <c r="N530" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -35368,12 +35388,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x10253594A832f967994b44f33411940533302ACb</t>
+          <t>https://intel.arkm.com/explorer/address/0x675aD364bD671363Adbfe3a3c4F089d077db9292</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>0x10253594A832f967994b44f33411940533302ACb</t>
+          <t>0x675aD364bD671363Adbfe3a3c4F089d077db9292</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -35382,13 +35402,13 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>61.04346977813088</v>
+        <v>61.1029367422</v>
       </c>
       <c r="E531" t="n">
-        <v>170488.3067433417</v>
+        <v>170654.3920272904</v>
       </c>
       <c r="F531" t="n">
-        <v>5.057660300047278e-07</v>
+        <v>5.062587341456128e-07</v>
       </c>
       <c r="G531" t="b">
         <v>0</v>
@@ -35403,7 +35423,7 @@
       <c r="M531" t="inlineStr"/>
       <c r="N531" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -35425,12 +35445,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x66e644e44F146341368D0E54916eC2a5a0e96Fb1</t>
+          <t>https://intel.arkm.com/explorer/address/0x10253594A832f967994b44f33411940533302ACb</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>0x66e644e44F146341368D0E54916eC2a5a0e96Fb1</t>
+          <t>0x10253594A832f967994b44f33411940533302ACb</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -35439,13 +35459,13 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>57.55755105848132</v>
+        <v>61.04346977813088</v>
       </c>
       <c r="E532" t="n">
-        <v>160752.4843512325</v>
+        <v>170488.3067433417</v>
       </c>
       <c r="F532" t="n">
-        <v>4.768840008840971e-07</v>
+        <v>5.057660300047278e-07</v>
       </c>
       <c r="G532" t="b">
         <v>0</v>
@@ -35460,7 +35480,7 @@
       <c r="M532" t="inlineStr"/>
       <c r="N532" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -35482,12 +35502,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x192820CE84FA9eb457Fb228c386fE0ed22F7E33C</t>
+          <t>https://intel.arkm.com/explorer/address/0x66e644e44F146341368D0E54916eC2a5a0e96Fb1</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>0x192820CE84FA9eb457Fb228c386fE0ed22F7E33C</t>
+          <t>0x66e644e44F146341368D0E54916eC2a5a0e96Fb1</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -35496,13 +35516,13 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>57.09462327066318</v>
+        <v>57.55755105848132</v>
       </c>
       <c r="E533" t="n">
-        <v>159459.5733326352</v>
+        <v>160752.4843512325</v>
       </c>
       <c r="F533" t="n">
-        <v>4.730484857950199e-07</v>
+        <v>4.768840008840971e-07</v>
       </c>
       <c r="G533" t="b">
         <v>0</v>
@@ -35517,7 +35537,7 @@
       <c r="M533" t="inlineStr"/>
       <c r="N533" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -35539,12 +35559,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xB87644b0Bd6AF792C022dc4958B3FaAA84D74d08</t>
+          <t>https://intel.arkm.com/explorer/address/0x192820CE84FA9eb457Fb228c386fE0ed22F7E33C</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>0xB87644b0Bd6AF792C022dc4958B3FaAA84D74d08</t>
+          <t>0x192820CE84FA9eb457Fb228c386fE0ed22F7E33C</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -35553,36 +35573,28 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>55.51340655816977</v>
+        <v>57.09462327066318</v>
       </c>
       <c r="E534" t="n">
-        <v>155043.3931763124</v>
+        <v>159459.5733326352</v>
       </c>
       <c r="F534" t="n">
-        <v>4.599475643997976e-07</v>
+        <v>4.730484857950199e-07</v>
       </c>
       <c r="G534" t="b">
         <v>0</v>
       </c>
       <c r="H534" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>Gnosis Safe Proxy</t>
-        </is>
-      </c>
-      <c r="M534" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="L534" t="inlineStr"/>
+      <c r="M534" t="inlineStr"/>
       <c r="N534" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -35604,12 +35616,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3bDB03ad7363152DFBc185Ee23eBC93F0CF93fd1</t>
+          <t>https://intel.arkm.com/explorer/address/0xB87644b0Bd6AF792C022dc4958B3FaAA84D74d08</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>0x3bDB03ad7363152DFBc185Ee23eBC93F0CF93fd1</t>
+          <t>0xB87644b0Bd6AF792C022dc4958B3FaAA84D74d08</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -35618,38 +35630,26 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>54.0814443759089</v>
+        <v>55.51340655816977</v>
       </c>
       <c r="E535" t="n">
-        <v>151044.065997476</v>
+        <v>155043.3931763124</v>
       </c>
       <c r="F535" t="n">
-        <v>4.480832678473358e-07</v>
+        <v>4.599475643997976e-07</v>
       </c>
       <c r="G535" t="b">
         <v>0</v>
       </c>
       <c r="H535" t="b">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr">
-        <is>
-          <t>Orbiter Finance</t>
-        </is>
-      </c>
-      <c r="J535" t="inlineStr">
-        <is>
-          <t>bridge</t>
-        </is>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>https://www.orbiter.finance</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Bridge</t>
+          <t>Gnosis Safe Proxy</t>
         </is>
       </c>
       <c r="M535" t="inlineStr">
@@ -35659,7 +35659,7 @@
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -35681,12 +35681,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xa63E579aF4bF1B109af2D5813cc0D3b11f865FC0</t>
+          <t>https://intel.arkm.com/explorer/address/0x3bDB03ad7363152DFBc185Ee23eBC93F0CF93fd1</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>0xa63E579aF4bF1B109af2D5813cc0D3b11f865FC0</t>
+          <t>0x3bDB03ad7363152DFBc185Ee23eBC93F0CF93fd1</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -35695,13 +35695,13 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>52.8334131304601</v>
+        <v>54.0814443759089</v>
       </c>
       <c r="E536" t="n">
-        <v>147558.439532062</v>
+        <v>151044.065997476</v>
       </c>
       <c r="F536" t="n">
-        <v>4.377429020289001e-07</v>
+        <v>4.480832678473358e-07</v>
       </c>
       <c r="G536" t="b">
         <v>0</v>
@@ -35709,12 +35709,24 @@
       <c r="H536" t="b">
         <v>0</v>
       </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>Orbiter Finance</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>bridge</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>https://www.orbiter.finance</t>
+        </is>
+      </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>jamais.eth</t>
+          <t>Bridge</t>
         </is>
       </c>
       <c r="M536" t="inlineStr">
@@ -35724,7 +35736,7 @@
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -35746,12 +35758,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x6226b0F046fe718191964Cc4eB079D3ce12a7A64</t>
+          <t>https://intel.arkm.com/explorer/address/0xa63E579aF4bF1B109af2D5813cc0D3b11f865FC0</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>0x6226b0F046fe718191964Cc4eB079D3ce12a7A64</t>
+          <t>0xa63E579aF4bF1B109af2D5813cc0D3b11f865FC0</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -35760,13 +35772,13 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>52.10003071270728</v>
+        <v>52.8334131304601</v>
       </c>
       <c r="E537" t="n">
-        <v>145510.1757775202</v>
+        <v>147558.439532062</v>
       </c>
       <c r="F537" t="n">
-        <v>4.316665778086311e-07</v>
+        <v>4.377429020289001e-07</v>
       </c>
       <c r="G537" t="b">
         <v>0</v>
@@ -35777,11 +35789,19 @@
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
-      <c r="M537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>jamais.eth</t>
+        </is>
+      </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -35803,12 +35823,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x229EeE9e5b241e52E4D13aae128FE44B5873F740</t>
+          <t>https://intel.arkm.com/explorer/address/0x6226b0F046fe718191964Cc4eB079D3ce12a7A64</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>0x229EeE9e5b241e52E4D13aae128FE44B5873F740</t>
+          <t>0x6226b0F046fe718191964Cc4eB079D3ce12a7A64</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -35817,13 +35837,13 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>49.94713682757015</v>
+        <v>52.10003071270728</v>
       </c>
       <c r="E538" t="n">
-        <v>139497.3584457207</v>
+        <v>145510.1757775202</v>
       </c>
       <c r="F538" t="n">
-        <v>4.138291154680262e-07</v>
+        <v>4.316665778086311e-07</v>
       </c>
       <c r="G538" t="b">
         <v>0</v>
@@ -35831,34 +35851,14 @@
       <c r="H538" t="b">
         <v>0</v>
       </c>
-      <c r="I538" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="J538" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="M538" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr"/>
       <c r="N538" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -35880,12 +35880,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x555CE236C0220695b68341bc48C68d52210cC35b</t>
+          <t>https://intel.arkm.com/explorer/address/0x229EeE9e5b241e52E4D13aae128FE44B5873F740</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>0x555CE236C0220695b68341bc48C68d52210cC35b</t>
+          <t>0x229EeE9e5b241e52E4D13aae128FE44B5873F740</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -35894,13 +35894,13 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>49.1925718960461</v>
+        <v>49.94713682757015</v>
       </c>
       <c r="E539" t="n">
-        <v>137389.9340484672</v>
+        <v>139497.3584457207</v>
       </c>
       <c r="F539" t="n">
-        <v>4.075772868746518e-07</v>
+        <v>4.138291154680262e-07</v>
       </c>
       <c r="G539" t="b">
         <v>0</v>
@@ -35910,24 +35910,32 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>deBridge Finance</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>https://debridge.finance/</t>
-        </is>
-      </c>
-      <c r="L539" t="inlineStr"/>
-      <c r="M539" t="inlineStr"/>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -35949,12 +35957,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x46633b491C0DD7b245f47dA22855F33FA20a4E06</t>
+          <t>https://intel.arkm.com/explorer/address/0x555CE236C0220695b68341bc48C68d52210cC35b</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>0x46633b491C0DD7b245f47dA22855F33FA20a4E06</t>
+          <t>0x555CE236C0220695b68341bc48C68d52210cC35b</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -35963,13 +35971,13 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>49.16891967849264</v>
+        <v>49.1925718960461</v>
       </c>
       <c r="E540" t="n">
-        <v>137323.8757700621</v>
+        <v>137389.9340484672</v>
       </c>
       <c r="F540" t="n">
-        <v>4.07381320160828e-07</v>
+        <v>4.075772868746518e-07</v>
       </c>
       <c r="G540" t="b">
         <v>0</v>
@@ -35977,14 +35985,26 @@
       <c r="H540" t="b">
         <v>0</v>
       </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>deBridge Finance</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>bridge</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>https://debridge.finance/</t>
+        </is>
+      </c>
       <c r="L540" t="inlineStr"/>
       <c r="M540" t="inlineStr"/>
       <c r="N540" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -36006,12 +36026,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x504Ce9e51E508C85a161058C12e970a903d482fc</t>
+          <t>https://intel.arkm.com/explorer/address/0x46633b491C0DD7b245f47dA22855F33FA20a4E06</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>0x504Ce9e51E508C85a161058C12e970a903d482fc</t>
+          <t>0x46633b491C0DD7b245f47dA22855F33FA20a4E06</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -36020,13 +36040,13 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>48</v>
+        <v>49.16891967849264</v>
       </c>
       <c r="E541" t="n">
-        <v>134059.2</v>
+        <v>137323.8757700621</v>
       </c>
       <c r="F541" t="n">
-        <v>3.9769642073859e-07</v>
+        <v>4.07381320160828e-07</v>
       </c>
       <c r="G541" t="b">
         <v>0</v>
@@ -36037,19 +36057,11 @@
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>Kraken Deposit</t>
-        </is>
-      </c>
-      <c r="M541" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr"/>
       <c r="N541" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -36071,12 +36083,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
+          <t>https://intel.arkm.com/explorer/address/0x504Ce9e51E508C85a161058C12e970a903d482fc</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
+          <t>0x504Ce9e51E508C85a161058C12e970a903d482fc</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -36085,13 +36097,13 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>47.99997799449969</v>
+        <v>48</v>
       </c>
       <c r="E542" t="n">
-        <v>134059.1385408382</v>
+        <v>134059.2</v>
       </c>
       <c r="F542" t="n">
-        <v>3.976962384154919e-07</v>
+        <v>3.9769642073859e-07</v>
       </c>
       <c r="G542" t="b">
         <v>0</v>
@@ -36099,24 +36111,12 @@
       <c r="H542" t="b">
         <v>0</v>
       </c>
-      <c r="I542" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-      <c r="J542" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>https://kraken.com</t>
-        </is>
-      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Kraken Deposit</t>
         </is>
       </c>
       <c r="M542" t="inlineStr">
@@ -36126,7 +36126,7 @@
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
@@ -36148,12 +36148,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
+          <t>https://intel.arkm.com/explorer/address/0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
+          <t>0x7DAFbA1d69F6C01AE7567Ffd7b046Ca03B706f83</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -36203,7 +36203,7 @@
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -36225,12 +36225,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4cc07a844f4329FffAce9AC34dBC53e5CA1f5eE1</t>
+          <t>https://intel.arkm.com/explorer/address/0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>0x4cc07a844f4329FffAce9AC34dBC53e5CA1f5eE1</t>
+          <t>0xd2DD7b597Fd2435b6dB61ddf48544fd931e6869F</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -36239,13 +36239,13 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>47.13747402707779</v>
+        <v>47.99997799449969</v>
       </c>
       <c r="E544" t="n">
-        <v>131650.2512102255</v>
+        <v>134059.1385408382</v>
       </c>
       <c r="F544" t="n">
-        <v>3.905500979838976e-07</v>
+        <v>3.976962384154919e-07</v>
       </c>
       <c r="G544" t="b">
         <v>0</v>
@@ -36253,14 +36253,34 @@
       <c r="H544" t="b">
         <v>0</v>
       </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
-      <c r="M544" t="inlineStr"/>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>Kraken</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>https://kraken.com</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>Cold Wallet</t>
+        </is>
+      </c>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -36282,12 +36302,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x1458Bf4D7d29fa2B92b7090fcaFcB24703317E96</t>
+          <t>https://intel.arkm.com/explorer/address/0x4cc07a844f4329FffAce9AC34dBC53e5CA1f5eE1</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>0x1458Bf4D7d29fa2B92b7090fcaFcB24703317E96</t>
+          <t>0x4cc07a844f4329FffAce9AC34dBC53e5CA1f5eE1</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -36296,13 +36316,13 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>46.67282654419456</v>
+        <v>47.13747402707779</v>
       </c>
       <c r="E545" t="n">
-        <v>130352.537255281</v>
+        <v>131650.2512102255</v>
       </c>
       <c r="F545" t="n">
-        <v>3.867003346329007e-07</v>
+        <v>3.905500979838976e-07</v>
       </c>
       <c r="G545" t="b">
         <v>0</v>
@@ -36313,19 +36333,11 @@
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>OKX Deposit</t>
-        </is>
-      </c>
-      <c r="M545" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="L545" t="inlineStr"/>
+      <c r="M545" t="inlineStr"/>
       <c r="N545" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -36347,12 +36359,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x86ABfc48e5Ce6dd6125f3c6606435b3E4F3A6313</t>
+          <t>https://intel.arkm.com/explorer/address/0x1458Bf4D7d29fa2B92b7090fcaFcB24703317E96</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>0x86ABfc48e5Ce6dd6125f3c6606435b3E4F3A6313</t>
+          <t>0x1458Bf4D7d29fa2B92b7090fcaFcB24703317E96</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -36361,13 +36373,13 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>45.98871566501395</v>
+        <v>46.67282654419456</v>
       </c>
       <c r="E546" t="n">
-        <v>128441.8839808175</v>
+        <v>130352.537255281</v>
       </c>
       <c r="F546" t="n">
-        <v>3.810322419654327e-07</v>
+        <v>3.867003346329007e-07</v>
       </c>
       <c r="G546" t="b">
         <v>0</v>
@@ -36378,11 +36390,19 @@
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
-      <c r="M546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>OKX Deposit</t>
+        </is>
+      </c>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -36404,12 +36424,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x223ce9110f7E678467d30FB132640a5beE090697</t>
+          <t>https://intel.arkm.com/explorer/address/0x86ABfc48e5Ce6dd6125f3c6606435b3E4F3A6313</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>0x223ce9110f7E678467d30FB132640a5beE090697</t>
+          <t>0x86ABfc48e5Ce6dd6125f3c6606435b3E4F3A6313</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -36418,13 +36438,13 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>40.0905860301725</v>
+        <v>45.98871566501395</v>
       </c>
       <c r="E547" t="n">
-        <v>111968.9977236688</v>
+        <v>128441.8839808175</v>
       </c>
       <c r="F547" t="n">
-        <v>3.321642201981692e-07</v>
+        <v>3.810322419654327e-07</v>
       </c>
       <c r="G547" t="b">
         <v>0</v>
@@ -36439,7 +36459,7 @@
       <c r="M547" t="inlineStr"/>
       <c r="N547" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -36461,12 +36481,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x464aAd0ee680eB104aE025cF3158B14D5c6C8Da2</t>
+          <t>https://intel.arkm.com/explorer/address/0x223ce9110f7E678467d30FB132640a5beE090697</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>0x464aAd0ee680eB104aE025cF3158B14D5c6C8Da2</t>
+          <t>0x223ce9110f7E678467d30FB132640a5beE090697</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -36475,13 +36495,13 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>40.01004</v>
+        <v>40.0905860301725</v>
       </c>
       <c r="E548" t="n">
-        <v>111744.040716</v>
+        <v>111968.9977236688</v>
       </c>
       <c r="F548" t="n">
-        <v>3.314968687834961e-07</v>
+        <v>3.321642201981692e-07</v>
       </c>
       <c r="G548" t="b">
         <v>0</v>
@@ -36496,7 +36516,7 @@
       <c r="M548" t="inlineStr"/>
       <c r="N548" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -36518,12 +36538,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x8782163068c7cd74D2510768a61135C1e4Eb07b3</t>
+          <t>https://intel.arkm.com/explorer/address/0x464aAd0ee680eB104aE025cF3158B14D5c6C8Da2</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>0x8782163068c7cd74D2510768a61135C1e4Eb07b3</t>
+          <t>0x464aAd0ee680eB104aE025cF3158B14D5c6C8Da2</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -36532,13 +36552,13 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>40.00000600715397</v>
+        <v>40.01004</v>
       </c>
       <c r="E549" t="n">
-        <v>111716.0167773804</v>
+        <v>111744.040716</v>
       </c>
       <c r="F549" t="n">
-        <v>3.314137337201507e-07</v>
+        <v>3.314968687834961e-07</v>
       </c>
       <c r="G549" t="b">
         <v>0</v>
@@ -36549,19 +36569,11 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>Gate Deposit</t>
-        </is>
-      </c>
-      <c r="M549" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
+      <c r="M549" t="inlineStr"/>
       <c r="N549" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -36583,12 +36595,12 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x5A19F82ad31C258742F21eA9ebbD919dE5F0f931</t>
+          <t>https://intel.arkm.com/explorer/address/0x8782163068c7cd74D2510768a61135C1e4Eb07b3</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>0x5A19F82ad31C258742F21eA9ebbD919dE5F0f931</t>
+          <t>0x8782163068c7cd74D2510768a61135C1e4Eb07b3</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -36597,13 +36609,13 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>39.18408885368146</v>
+        <v>40.00000600715397</v>
       </c>
       <c r="E550" t="n">
-        <v>109437.2417594469</v>
+        <v>111716.0167773804</v>
       </c>
       <c r="F550" t="n">
-        <v>3.246535809794166e-07</v>
+        <v>3.314137337201507e-07</v>
       </c>
       <c r="G550" t="b">
         <v>0</v>
@@ -36614,11 +36626,19 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
-      <c r="M550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>Gate Deposit</t>
+        </is>
+      </c>
+      <c r="M550" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -36640,12 +36660,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x141E2cD772936D31e0ABf305a6a171e1C142Ef82</t>
+          <t>https://intel.arkm.com/explorer/address/0x5A19F82ad31C258742F21eA9ebbD919dE5F0f931</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>0x141E2cD772936D31e0ABf305a6a171e1C142Ef82</t>
+          <t>0x5A19F82ad31C258742F21eA9ebbD919dE5F0f931</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -36654,13 +36674,13 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>38.28025159068561</v>
+        <v>39.18408885368146</v>
       </c>
       <c r="E551" t="n">
-        <v>106912.9146676258</v>
+        <v>109437.2417594469</v>
       </c>
       <c r="F551" t="n">
-        <v>3.171649800539246e-07</v>
+        <v>3.246535809794166e-07</v>
       </c>
       <c r="G551" t="b">
         <v>0</v>
@@ -36675,7 +36695,7 @@
       <c r="M551" t="inlineStr"/>
       <c r="N551" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -36697,12 +36717,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x55aEC9CcbDeDD7843A3fa2dF780664c607Fe7E73</t>
+          <t>https://intel.arkm.com/explorer/address/0x141E2cD772936D31e0ABf305a6a171e1C142Ef82</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>0x55aEC9CcbDeDD7843A3fa2dF780664c607Fe7E73</t>
+          <t>0x141E2cD772936D31e0ABf305a6a171e1C142Ef82</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -36711,13 +36731,13 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>37.96899846721221</v>
+        <v>38.28025159068561</v>
       </c>
       <c r="E552" t="n">
-        <v>106043.615819077</v>
+        <v>106912.9146676258</v>
       </c>
       <c r="F552" t="n">
-        <v>3.145861414466522e-07</v>
+        <v>3.171649800539246e-07</v>
       </c>
       <c r="G552" t="b">
         <v>0</v>
@@ -36725,26 +36745,14 @@
       <c r="H552" t="b">
         <v>0</v>
       </c>
-      <c r="I552" t="inlineStr">
-        <is>
-          <t>OKX</t>
-        </is>
-      </c>
-      <c r="J552" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr"/>
       <c r="M552" t="inlineStr"/>
       <c r="N552" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
@@ -36766,12 +36774,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x073bE86D6cf0A64aCf4a67E302d021A2dD4bBa02</t>
+          <t>https://intel.arkm.com/explorer/address/0x55aEC9CcbDeDD7843A3fa2dF780664c607Fe7E73</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>0x073bE86D6cf0A64aCf4a67E302d021A2dD4bBa02</t>
+          <t>0x55aEC9CcbDeDD7843A3fa2dF780664c607Fe7E73</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -36780,13 +36788,13 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>37.73788634486518</v>
+        <v>37.96899846721221</v>
       </c>
       <c r="E553" t="n">
-        <v>105398.142772574</v>
+        <v>106043.615819077</v>
       </c>
       <c r="F553" t="n">
-        <v>3.126712984498456e-07</v>
+        <v>3.145861414466522e-07</v>
       </c>
       <c r="G553" t="b">
         <v>0</v>
@@ -36794,14 +36802,26 @@
       <c r="H553" t="b">
         <v>0</v>
       </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>OKX</t>
+        </is>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>https://okx.com</t>
+        </is>
+      </c>
       <c r="L553" t="inlineStr"/>
       <c r="M553" t="inlineStr"/>
       <c r="N553" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
@@ -36823,12 +36843,12 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7A319F67D3a902e3b9EAd4Bd81cB7d7A2544aca7</t>
+          <t>https://intel.arkm.com/explorer/address/0x073bE86D6cf0A64aCf4a67E302d021A2dD4bBa02</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>0x7A319F67D3a902e3b9EAd4Bd81cB7d7A2544aca7</t>
+          <t>0x073bE86D6cf0A64aCf4a67E302d021A2dD4bBa02</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -36837,13 +36857,13 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>37.14037686341843</v>
+        <v>37.73788634486518</v>
       </c>
       <c r="E554" t="n">
-        <v>103729.3585418414</v>
+        <v>105398.142772574</v>
       </c>
       <c r="F554" t="n">
-        <v>3.077207279888302e-07</v>
+        <v>3.126712984498456e-07</v>
       </c>
       <c r="G554" t="b">
         <v>0</v>
@@ -36858,7 +36878,7 @@
       <c r="M554" t="inlineStr"/>
       <c r="N554" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -36880,12 +36900,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x7EEAAadDA04B6952b22A57CdD12aDbaC40D667Ed</t>
+          <t>https://intel.arkm.com/explorer/address/0x7A319F67D3a902e3b9EAd4Bd81cB7d7A2544aca7</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>0x7EEAAadDA04B6952b22A57CdD12aDbaC40D667Ed</t>
+          <t>0x7A319F67D3a902e3b9EAd4Bd81cB7d7A2544aca7</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -36894,13 +36914,13 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>37.1185</v>
+        <v>37.14037686341843</v>
       </c>
       <c r="E555" t="n">
-        <v>103668.25865</v>
+        <v>103729.3585418414</v>
       </c>
       <c r="F555" t="n">
-        <v>3.075394706913615e-07</v>
+        <v>3.077207279888302e-07</v>
       </c>
       <c r="G555" t="b">
         <v>0</v>
@@ -36915,7 +36935,7 @@
       <c r="M555" t="inlineStr"/>
       <c r="N555" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -36937,12 +36957,12 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x32042142DD551b4EbE17B6FEd53131dd4b4eEa06</t>
+          <t>https://intel.arkm.com/explorer/address/0x7EEAAadDA04B6952b22A57CdD12aDbaC40D667Ed</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>0x32042142DD551b4EbE17B6FEd53131dd4b4eEa06</t>
+          <t>0x7EEAAadDA04B6952b22A57CdD12aDbaC40D667Ed</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -36951,36 +36971,28 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>36.29070662585828</v>
+        <v>37.1185</v>
       </c>
       <c r="E556" t="n">
-        <v>101356.3145353596</v>
+        <v>103668.25865</v>
       </c>
       <c r="F556" t="n">
-        <v>3.006809193995431e-07</v>
+        <v>3.075394706913615e-07</v>
       </c>
       <c r="G556" t="b">
         <v>0</v>
       </c>
       <c r="H556" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>SendUln302</t>
-        </is>
-      </c>
-      <c r="M556" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
       <c r="N556" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -37002,12 +37014,12 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xf70da97812CB96acDF810712Aa562db8dfA3dbEF</t>
+          <t>https://intel.arkm.com/explorer/address/0x32042142DD551b4EbE17B6FEd53131dd4b4eEa06</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>0xf70da97812CB96acDF810712Aa562db8dfA3dbEF</t>
+          <t>0x32042142DD551b4EbE17B6FEd53131dd4b4eEa06</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -37016,38 +37028,26 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>36.06496985442732</v>
+        <v>36.29070662585828</v>
       </c>
       <c r="E557" t="n">
-        <v>100725.8543064301</v>
+        <v>101356.3145353596</v>
       </c>
       <c r="F557" t="n">
-        <v>2.988106130239769e-07</v>
+        <v>3.006809193995431e-07</v>
       </c>
       <c r="G557" t="b">
         <v>0</v>
       </c>
       <c r="H557" t="b">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr">
-        <is>
-          <t>Relay.link</t>
-        </is>
-      </c>
-      <c r="J557" t="inlineStr">
-        <is>
-          <t>bridge</t>
-        </is>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>https://relay.link/</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Bridge Solver</t>
+          <t>SendUln302</t>
         </is>
       </c>
       <c r="M557" t="inlineStr">
@@ -37057,7 +37057,7 @@
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
@@ -37114,7 +37114,7 @@
       <c r="M558" t="inlineStr"/>
       <c r="N558" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
@@ -37171,7 +37171,7 @@
       <c r="M559" t="inlineStr"/>
       <c r="N559" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
@@ -37228,7 +37228,7 @@
       <c r="M560" t="inlineStr"/>
       <c r="N560" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
@@ -37305,7 +37305,7 @@
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -37382,7 +37382,7 @@
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
@@ -37439,7 +37439,7 @@
       <c r="M563" t="inlineStr"/>
       <c r="N563" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
@@ -37504,7 +37504,7 @@
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -37569,7 +37569,7 @@
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -37626,7 +37626,7 @@
       <c r="M566" t="inlineStr"/>
       <c r="N566" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -37703,7 +37703,7 @@
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -37760,7 +37760,7 @@
       <c r="M568" t="inlineStr"/>
       <c r="N568" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
@@ -37817,7 +37817,7 @@
       <c r="M569" t="inlineStr"/>
       <c r="N569" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -37874,7 +37874,7 @@
       <c r="M570" t="inlineStr"/>
       <c r="N570" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
@@ -37939,7 +37939,7 @@
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
@@ -37996,7 +37996,7 @@
       <c r="M572" t="inlineStr"/>
       <c r="N572" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -38053,7 +38053,7 @@
       <c r="M573" t="inlineStr"/>
       <c r="N573" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -38110,7 +38110,7 @@
       <c r="M574" t="inlineStr"/>
       <c r="N574" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
@@ -38167,7 +38167,7 @@
       <c r="M575" t="inlineStr"/>
       <c r="N575" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
@@ -38244,7 +38244,7 @@
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -38301,7 +38301,7 @@
       <c r="M577" t="inlineStr"/>
       <c r="N577" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -38358,7 +38358,7 @@
       <c r="M578" t="inlineStr"/>
       <c r="N578" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
@@ -38415,7 +38415,7 @@
       <c r="M579" t="inlineStr"/>
       <c r="N579" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
@@ -38472,7 +38472,7 @@
       <c r="M580" t="inlineStr"/>
       <c r="N580" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
@@ -38549,7 +38549,7 @@
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
@@ -38614,7 +38614,7 @@
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -38679,7 +38679,7 @@
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
@@ -38748,7 +38748,7 @@
       <c r="M584" t="inlineStr"/>
       <c r="N584" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -38805,7 +38805,7 @@
       <c r="M585" t="inlineStr"/>
       <c r="N585" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -38862,7 +38862,7 @@
       <c r="M586" t="inlineStr"/>
       <c r="N586" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -38919,7 +38919,7 @@
       <c r="M587" t="inlineStr"/>
       <c r="N587" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
@@ -38976,7 +38976,7 @@
       <c r="M588" t="inlineStr"/>
       <c r="N588" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
@@ -39033,7 +39033,7 @@
       <c r="M589" t="inlineStr"/>
       <c r="N589" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -39090,7 +39090,7 @@
       <c r="M590" t="inlineStr"/>
       <c r="N590" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -39155,7 +39155,7 @@
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -39212,7 +39212,7 @@
       <c r="M592" t="inlineStr"/>
       <c r="N592" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -39334,7 +39334,7 @@
       <c r="M594" t="inlineStr"/>
       <c r="N594" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -39391,7 +39391,7 @@
       <c r="M595" t="inlineStr"/>
       <c r="N595" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -39456,7 +39456,7 @@
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -39513,7 +39513,7 @@
       <c r="M597" t="inlineStr"/>
       <c r="N597" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -39578,7 +39578,7 @@
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -39643,7 +39643,7 @@
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -39700,7 +39700,7 @@
       <c r="M600" t="inlineStr"/>
       <c r="N600" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -39757,7 +39757,7 @@
       <c r="M601" t="inlineStr"/>
       <c r="N601" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -39793,13 +39793,13 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>24232.950378011</v>
+        <v>24234.51701083437</v>
       </c>
       <c r="E602" t="n">
-        <v>67680207.11074694</v>
+        <v>67684582.55955933</v>
       </c>
       <c r="F602" t="n">
-        <v>0.0002007782839431424</v>
+        <v>0.0002007912640320271</v>
       </c>
       <c r="G602" t="b">
         <v>0</v>
@@ -39822,7 +39822,7 @@
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -39899,7 +39899,7 @@
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -39976,7 +39976,7 @@
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -40053,7 +40053,7 @@
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
@@ -40130,7 +40130,7 @@
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
@@ -40231,13 +40231,13 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>6533.181917656272</v>
+        <v>6533.1817630602</v>
       </c>
       <c r="E608" t="n">
-        <v>18246523.7778222</v>
+        <v>18246523.34605083</v>
       </c>
       <c r="F608" t="n">
-        <v>5.412964718095785e-05</v>
+        <v>5.41296459000765e-05</v>
       </c>
       <c r="G608" t="b">
         <v>0</v>
@@ -40272,7 +40272,7 @@
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
@@ -40349,7 +40349,7 @@
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -40385,13 +40385,13 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>3560.979499370595</v>
+        <v>3559.781722109403</v>
       </c>
       <c r="E610" t="n">
-        <v>9945459.643792134</v>
+        <v>9942114.371679353</v>
       </c>
       <c r="F610" t="n">
-        <v>2.950393335881628e-05</v>
+        <v>2.949400936444924e-05</v>
       </c>
       <c r="G610" t="b">
         <v>0</v>
@@ -40426,7 +40426,7 @@
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
@@ -40503,7 +40503,7 @@
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -40580,7 +40580,7 @@
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
@@ -40657,7 +40657,7 @@
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -40722,7 +40722,7 @@
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -40779,7 +40779,7 @@
       <c r="M615" t="inlineStr"/>
       <c r="N615" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
@@ -40815,13 +40815,13 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>1241.591868549143</v>
+        <v>1241.59722649309</v>
       </c>
       <c r="E616" t="n">
-        <v>3467641.929670903</v>
+        <v>3467656.89387255</v>
       </c>
       <c r="F616" t="n">
-        <v>1.028701337791942e-05</v>
+        <v>1.028705777031796e-05</v>
       </c>
       <c r="G616" t="b">
         <v>0</v>
@@ -40856,7 +40856,7 @@
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -40933,7 +40933,7 @@
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -40998,7 +40998,7 @@
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -41140,7 +41140,7 @@
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -41217,7 +41217,7 @@
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -41274,7 +41274,7 @@
       <c r="M622" t="inlineStr"/>
       <c r="N622" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -41310,13 +41310,13 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>867.1755907853075</v>
+        <v>867.1748305677474</v>
       </c>
       <c r="E623" t="n">
-        <v>2421934.707504285</v>
+        <v>2421932.584292662</v>
       </c>
       <c r="F623" t="n">
-        <v>7.184846429316436e-06</v>
+        <v>7.184840130653882e-06</v>
       </c>
       <c r="G623" t="b">
         <v>0</v>
@@ -41351,7 +41351,7 @@
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
@@ -41408,7 +41408,7 @@
       <c r="M624" t="inlineStr"/>
       <c r="N624" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -41485,7 +41485,7 @@
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
@@ -41542,7 +41542,7 @@
       <c r="M626" t="inlineStr"/>
       <c r="N626" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -41578,13 +41578,13 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>650.5301346670465</v>
+        <v>650.5301305190465</v>
       </c>
       <c r="E627" t="n">
-        <v>1816865.613111594</v>
+        <v>1816865.601526645</v>
       </c>
       <c r="F627" t="n">
-        <v>5.389864711243277e-06</v>
+        <v>5.389864676875678e-06</v>
       </c>
       <c r="G627" t="b">
         <v>0</v>
@@ -41619,7 +41619,7 @@
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -41676,7 +41676,7 @@
       <c r="M628" t="inlineStr"/>
       <c r="N628" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
@@ -41753,7 +41753,7 @@
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -41810,7 +41810,7 @@
       <c r="M630" t="inlineStr"/>
       <c r="N630" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
@@ -41887,7 +41887,7 @@
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -41952,7 +41952,7 @@
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -42029,7 +42029,7 @@
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -42106,7 +42106,7 @@
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -42142,13 +42142,13 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>330.3330026124245</v>
+        <v>330.3305204395595</v>
       </c>
       <c r="E635" t="n">
-        <v>922587.0429962405</v>
+        <v>922580.1105356457</v>
       </c>
       <c r="F635" t="n">
-        <v>2.736921933141511e-06</v>
+        <v>2.736901367490175e-06</v>
       </c>
       <c r="G635" t="b">
         <v>0</v>
@@ -42183,7 +42183,7 @@
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -42240,7 +42240,7 @@
       <c r="M636" t="inlineStr"/>
       <c r="N636" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -42317,7 +42317,7 @@
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -42382,7 +42382,7 @@
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -42459,7 +42459,7 @@
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -42524,7 +42524,7 @@
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -42581,7 +42581,7 @@
       <c r="M641" t="inlineStr"/>
       <c r="N641" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -42658,7 +42658,7 @@
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -42715,7 +42715,7 @@
       <c r="M643" t="inlineStr"/>
       <c r="N643" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -42780,7 +42780,7 @@
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -42837,7 +42837,7 @@
       <c r="M645" t="inlineStr"/>
       <c r="N645" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -42914,7 +42914,7 @@
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
@@ -42971,7 +42971,7 @@
       <c r="M647" t="inlineStr"/>
       <c r="N647" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
@@ -43028,7 +43028,7 @@
       <c r="M648" t="inlineStr"/>
       <c r="N648" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -43093,7 +43093,7 @@
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -43158,7 +43158,7 @@
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -43235,7 +43235,7 @@
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -43300,7 +43300,7 @@
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -43357,7 +43357,7 @@
       <c r="M653" t="inlineStr"/>
       <c r="N653" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
@@ -43422,7 +43422,7 @@
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -43499,7 +43499,7 @@
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -43576,7 +43576,7 @@
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
@@ -43633,7 +43633,7 @@
       <c r="M657" t="inlineStr"/>
       <c r="N657" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
@@ -43690,7 +43690,7 @@
       <c r="M658" t="inlineStr"/>
       <c r="N658" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
@@ -43747,7 +43747,7 @@
       <c r="M659" t="inlineStr"/>
       <c r="N659" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -43804,7 +43804,7 @@
       <c r="M660" t="inlineStr"/>
       <c r="N660" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -43861,7 +43861,7 @@
       <c r="M661" t="inlineStr"/>
       <c r="N661" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -43918,7 +43918,7 @@
       <c r="M662" t="inlineStr"/>
       <c r="N662" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
@@ -43995,7 +43995,7 @@
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
@@ -44072,7 +44072,7 @@
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -44149,7 +44149,7 @@
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -44226,7 +44226,7 @@
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -44283,7 +44283,7 @@
       <c r="M667" t="inlineStr"/>
       <c r="N667" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -44340,7 +44340,7 @@
       <c r="M668" t="inlineStr"/>
       <c r="N668" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -44405,7 +44405,7 @@
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -44462,7 +44462,7 @@
       <c r="M670" t="inlineStr"/>
       <c r="N670" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -44519,7 +44519,7 @@
       <c r="M671" t="inlineStr"/>
       <c r="N671" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -44576,7 +44576,7 @@
       <c r="M672" t="inlineStr"/>
       <c r="N672" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -44641,7 +44641,7 @@
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -44718,7 +44718,7 @@
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -44783,7 +44783,7 @@
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -44860,7 +44860,7 @@
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
@@ -44925,7 +44925,7 @@
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -45002,7 +45002,7 @@
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -45067,7 +45067,7 @@
       <c r="M679" t="inlineStr"/>
       <c r="N679" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -45132,7 +45132,7 @@
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
@@ -45209,7 +45209,7 @@
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -45274,7 +45274,7 @@
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
@@ -45339,7 +45339,7 @@
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -45416,7 +45416,7 @@
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -45493,7 +45493,7 @@
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -45558,7 +45558,7 @@
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
@@ -45615,7 +45615,7 @@
       <c r="M687" t="inlineStr"/>
       <c r="N687" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -45672,7 +45672,7 @@
       <c r="M688" t="inlineStr"/>
       <c r="N688" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -45729,7 +45729,7 @@
       <c r="M689" t="inlineStr"/>
       <c r="N689" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
@@ -45794,7 +45794,7 @@
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
@@ -45871,7 +45871,7 @@
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -45948,7 +45948,7 @@
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -46005,7 +46005,7 @@
       <c r="M693" t="inlineStr"/>
       <c r="N693" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
@@ -46062,7 +46062,7 @@
       <c r="M694" t="inlineStr"/>
       <c r="N694" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -46127,7 +46127,7 @@
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -46204,7 +46204,7 @@
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -46281,7 +46281,7 @@
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -46346,7 +46346,7 @@
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -46411,7 +46411,7 @@
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -46476,7 +46476,7 @@
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -46533,7 +46533,7 @@
       <c r="M701" t="inlineStr"/>
       <c r="N701" t="inlineStr">
         <is>
-          <t>2025-12-17 19:14:57</t>
+          <t>2025-12-17 19:17:57</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">

--- a/data_cripto/top_holders.xlsx
+++ b/data_cripto/top_holders.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -927,7 +927,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1065,7 +1065,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1120,7 +1120,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1471,7 +1471,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1656,7 +1656,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2319,7 +2319,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2449,7 +2449,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2504,7 +2504,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2709,7 +2709,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2839,7 +2839,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2894,7 +2894,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2949,7 +2949,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3091,7 +3091,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3146,7 +3146,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3351,7 +3351,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3481,7 +3481,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3611,7 +3611,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3816,7 +3816,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3958,7 +3958,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4013,7 +4013,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4593,7 +4593,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4731,7 +4731,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5007,7 +5007,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5137,7 +5137,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5338,7 +5338,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5468,7 +5468,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5523,7 +5523,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5653,7 +5653,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5763,7 +5763,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6935,7 +6935,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6990,7 +6990,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7045,7 +7045,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7100,7 +7100,7 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:56</t>
+          <t>2025-12-17 20:35:55</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>181375.7684390865</v>
+        <v>181375.6201212899</v>
       </c>
       <c r="E102" t="n">
-        <v>513264404.5596646</v>
+        <v>513263984.8440311</v>
       </c>
       <c r="F102" t="n">
-        <v>0.001502760289936167</v>
+        <v>0.001502759061072483</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7649,13 +7649,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>15530.33346002663</v>
+        <v>15625.2757309904</v>
       </c>
       <c r="E106" t="n">
-        <v>43948358.83852177</v>
+        <v>44217030.27458589</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0001286741256235282</v>
+        <v>0.0001294607548180925</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8407,13 +8407,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3750.126375324475</v>
+        <v>3749.372961955991</v>
       </c>
       <c r="E116" t="n">
-        <v>10612257.62194821</v>
+        <v>10610125.58266154</v>
       </c>
       <c r="F116" t="n">
-        <v>3.107107993299845e-05</v>
+        <v>3.106483764549881e-05</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8505,7 +8505,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8541,13 +8541,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3485.850970345287</v>
+        <v>3479.850989501717</v>
       </c>
       <c r="E118" t="n">
-        <v>9864400.50992191</v>
+        <v>9847421.52413154</v>
       </c>
       <c r="F118" t="n">
-        <v>2.888146779446795e-05</v>
+        <v>2.88317559005932e-05</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8618,13 +8618,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3411.68727682833</v>
+        <v>3411.68429617804</v>
       </c>
       <c r="E119" t="n">
-        <v>9654529.123459883</v>
+        <v>9654520.688696466</v>
       </c>
       <c r="F119" t="n">
-        <v>2.826699622237529e-05</v>
+        <v>2.826697152666796e-05</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -8882,7 +8882,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -8918,13 +8918,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2663.36173071406</v>
+        <v>2663.491508837093</v>
       </c>
       <c r="E123" t="n">
-        <v>7536887.560043875</v>
+        <v>7537254.811367559</v>
       </c>
       <c r="F123" t="n">
-        <v>2.206686307160662e-05</v>
+        <v>2.206793832775288e-05</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -8995,13 +8995,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2495.524991215788</v>
+        <v>2495.519213215789</v>
       </c>
       <c r="E124" t="n">
-        <v>7061936.441142087</v>
+        <v>7061920.090326567</v>
       </c>
       <c r="F124" t="n">
-        <v>2.067627826812959e-05</v>
+        <v>2.067623039542294e-05</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9226,13 +9226,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2035.032709557291</v>
+        <v>2035.406723586451</v>
       </c>
       <c r="E127" t="n">
-        <v>5758816.962813605</v>
+        <v>5759875.362673883</v>
       </c>
       <c r="F127" t="n">
-        <v>1.686094218076852e-05</v>
+        <v>1.686404101494984e-05</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9303,13 +9303,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1993.307192304181</v>
+        <v>1992.953366294181</v>
       </c>
       <c r="E128" t="n">
-        <v>5640740.425070063</v>
+        <v>5639739.154073924</v>
       </c>
       <c r="F128" t="n">
-        <v>1.651523199608043e-05</v>
+        <v>1.651230042654416e-05</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9380,13 +9380,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1947.499375048177</v>
+        <v>1947.495893938177</v>
       </c>
       <c r="E129" t="n">
-        <v>5511111.631486334</v>
+        <v>5511101.780502011</v>
       </c>
       <c r="F129" t="n">
-        <v>1.613569855931877e-05</v>
+        <v>1.613566971713153e-05</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9628,7 +9628,7 @@
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9664,13 +9664,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1450.802581515223</v>
+        <v>1450.804456486974</v>
       </c>
       <c r="E133" t="n">
-        <v>4105539.177275037</v>
+        <v>4105544.4831451</v>
       </c>
       <c r="F133" t="n">
-        <v>1.202039570556063e-05</v>
+        <v>1.202041124034302e-05</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9762,7 +9762,7 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10026,7 +10026,7 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10083,7 +10083,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10282,7 +10282,7 @@
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10339,7 +10339,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10473,7 +10473,7 @@
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10530,7 +10530,7 @@
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10587,7 +10587,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10644,7 +10644,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -10843,7 +10843,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -10900,7 +10900,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11034,7 +11034,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11156,7 +11156,7 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11213,7 +11213,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11270,7 +11270,7 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11327,7 +11327,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11396,7 +11396,7 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11453,7 +11453,7 @@
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11510,7 +11510,7 @@
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -11567,7 +11567,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -11624,7 +11624,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -11758,7 +11758,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -11892,7 +11892,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12026,7 +12026,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12083,7 +12083,7 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12205,7 +12205,7 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12262,7 +12262,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12319,7 +12319,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -12530,7 +12530,7 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -12587,7 +12587,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -12623,13 +12623,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>365.9630695955368</v>
+        <v>365.9630682435268</v>
       </c>
       <c r="E180" t="n">
-        <v>1035616.932864234</v>
+        <v>1035616.929038262</v>
       </c>
       <c r="F180" t="n">
-        <v>3.032129227096926e-06</v>
+        <v>3.032129215895061e-06</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -12729,7 +12729,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -12786,7 +12786,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -12843,7 +12843,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -12900,7 +12900,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -12957,7 +12957,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13014,7 +13014,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13071,7 +13071,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13270,7 +13270,7 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -13327,7 +13327,7 @@
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -13384,7 +13384,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -13441,7 +13441,7 @@
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -13498,7 +13498,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -13555,7 +13555,7 @@
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -13612,7 +13612,7 @@
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -13669,7 +13669,7 @@
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -13726,7 +13726,7 @@
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -13783,7 +13783,7 @@
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -13840,7 +13840,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -13897,7 +13897,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -13996,12 +13996,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>https://intel.arkm.com/explorer/address/0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
+          <t>0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -14010,13 +14010,13 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34905.17243941346</v>
+        <v>35548.03945676053</v>
       </c>
       <c r="E203" t="n">
-        <v>98776053.1759498</v>
+        <v>100595263.9763192</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0002892012946753752</v>
+        <v>0.0002945276678380799</v>
       </c>
       <c r="G203" t="b">
         <v>0</v>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Cold Wallet</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14073,12 +14073,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
+          <t>https://intel.arkm.com/explorer/address/0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>0x3304E22DDaa22bCdC5fCa2269b418046aE7b566A</t>
+          <t>0xF977814e90dA44bFA03b6295A0616a897441aceC</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -14087,13 +14087,13 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>34415.06631722844</v>
+        <v>34905.17243941346</v>
       </c>
       <c r="E204" t="n">
-        <v>97389131.26714572</v>
+        <v>98776053.1759498</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0002851405977883949</v>
+        <v>0.0002892012946753752</v>
       </c>
       <c r="G204" t="b">
         <v>0</v>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Hot Wallet</t>
+          <t>Cold Wallet</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -14395,13 +14395,13 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>12729.65593907906</v>
+        <v>12729.79809467844</v>
       </c>
       <c r="E208" t="n">
-        <v>36022889.56264349</v>
+        <v>36023291.84024484</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0001054695542542808</v>
+        <v>0.0001054707320620528</v>
       </c>
       <c r="G208" t="b">
         <v>0</v>
@@ -14436,7 +14436,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -14691,13 +14691,13 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1619.887752562379</v>
+        <v>1620.947573497988</v>
       </c>
       <c r="E212" t="n">
-        <v>4584023.157711124</v>
+        <v>4587022.281387547</v>
       </c>
       <c r="F212" t="n">
-        <v>1.342132419150702e-05</v>
+        <v>1.343010517052192e-05</v>
       </c>
       <c r="G212" t="b">
         <v>0</v>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -14754,12 +14754,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x20FE51A9229EEf2cF8Ad9E89d91CAb9312cF3b7A</t>
+          <t>https://intel.arkm.com/explorer/address/0xBefa750Ed568Cc84970eB4FD506aF4FF599c42D0</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>0x20FE51A9229EEf2cF8Ad9E89d91CAb9312cF3b7A</t>
+          <t>0xBefa750Ed568Cc84970eB4FD506aF4FF599c42D0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -14768,13 +14768,13 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1547.550645982971</v>
+        <v>1506.8189378469</v>
       </c>
       <c r="E213" t="n">
-        <v>4379320.720028453</v>
+        <v>4264056.503076672</v>
       </c>
       <c r="F213" t="n">
-        <v>1.282198651706501e-05</v>
+        <v>1.248451038089242e-05</v>
       </c>
       <c r="G213" t="b">
         <v>0</v>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Kraken</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -14794,7 +14794,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://kraken.com</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -14831,12 +14831,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBefa750Ed568Cc84970eB4FD506aF4FF599c42D0</t>
+          <t>https://intel.arkm.com/explorer/address/0xcF748f1bD1E2a1E2a1cef35A480acFD5220c9e7D</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>0xBefa750Ed568Cc84970eB4FD506aF4FF599c42D0</t>
+          <t>0xcF748f1bD1E2a1E2a1cef35A480acFD5220c9e7D</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -14845,13 +14845,13 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1506.8189378469</v>
+        <v>1378.702225714439</v>
       </c>
       <c r="E214" t="n">
-        <v>4264056.503076672</v>
+        <v>3901506.706415748</v>
       </c>
       <c r="F214" t="n">
-        <v>1.248451038089242e-05</v>
+        <v>1.142301959231167e-05</v>
       </c>
       <c r="G214" t="b">
         <v>0</v>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Kraken</t>
+          <t>OKX</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -14871,7 +14871,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>https://kraken.com</t>
+          <t>https://okx.com</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -14908,12 +14908,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xcF748f1bD1E2a1E2a1cef35A480acFD5220c9e7D</t>
+          <t>https://intel.arkm.com/explorer/address/0x564E82722bB9A4E46f48875c25dE11AAD310883E</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>0xcF748f1bD1E2a1E2a1cef35A480acFD5220c9e7D</t>
+          <t>0x564E82722bB9A4E46f48875c25dE11AAD310883E</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -14922,13 +14922,13 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1378.702225714439</v>
+        <v>1294.819687365156</v>
       </c>
       <c r="E215" t="n">
-        <v>3901506.706415748</v>
+        <v>3664132.544093414</v>
       </c>
       <c r="F215" t="n">
-        <v>1.142301959231167e-05</v>
+        <v>1.07280240659788e-05</v>
       </c>
       <c r="G215" t="b">
         <v>0</v>
@@ -14938,32 +14938,24 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>OKX</t>
+          <t>MaestroBots</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>cex</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>https://okx.com</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+          <t>https://www.maestrobots.com/</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -14985,12 +14977,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x564E82722bB9A4E46f48875c25dE11AAD310883E</t>
+          <t>https://intel.arkm.com/explorer/address/0x20FE51A9229EEf2cF8Ad9E89d91CAb9312cF3b7A</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>0x564E82722bB9A4E46f48875c25dE11AAD310883E</t>
+          <t>0x20FE51A9229EEf2cF8Ad9E89d91CAb9312cF3b7A</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -14999,13 +14991,13 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1294.819687365156</v>
+        <v>1244.034093022932</v>
       </c>
       <c r="E216" t="n">
-        <v>3664132.544093414</v>
+        <v>3520417.437800013</v>
       </c>
       <c r="F216" t="n">
-        <v>1.07280240659788e-05</v>
+        <v>1.030724804316662e-05</v>
       </c>
       <c r="G216" t="b">
         <v>0</v>
@@ -15015,24 +15007,32 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>MaestroBots</t>
+          <t>Coinbase</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>misc</t>
+          <t>cex</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>https://www.maestrobots.com/</t>
-        </is>
-      </c>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="inlineStr"/>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Hot Wallet</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15089,7 +15089,7 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -15279,13 +15279,13 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>963.6206881911362</v>
+        <v>963.6198281911362</v>
       </c>
       <c r="E220" t="n">
-        <v>2726892.368270805</v>
+        <v>2726889.934608405</v>
       </c>
       <c r="F220" t="n">
-        <v>7.98392705506816e-06</v>
+        <v>7.983919929673956e-06</v>
       </c>
       <c r="G220" t="b">
         <v>0</v>
@@ -15308,7 +15308,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -15365,7 +15365,7 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -15422,7 +15422,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -15458,13 +15458,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>703.0680884692616</v>
+        <v>702.8680899251833</v>
       </c>
       <c r="E223" t="n">
-        <v>1989570.199473856</v>
+        <v>1989004.235593881</v>
       </c>
       <c r="F223" t="n">
-        <v>5.825159631661409e-06</v>
+        <v>5.823502575304474e-06</v>
       </c>
       <c r="G223" t="b">
         <v>0</v>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -15556,7 +15556,7 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -15613,7 +15613,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -15670,7 +15670,7 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -15804,7 +15804,7 @@
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -15869,7 +15869,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -15905,13 +15905,13 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>575.6961218435148</v>
+        <v>575.6960718599911</v>
       </c>
       <c r="E230" t="n">
-        <v>1629127.913437652</v>
+        <v>1629127.771992277</v>
       </c>
       <c r="F230" t="n">
-        <v>4.769839314380271e-06</v>
+        <v>4.769838900249678e-06</v>
       </c>
       <c r="G230" t="b">
         <v>0</v>
@@ -15926,7 +15926,7 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -16056,7 +16056,7 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -16078,12 +16078,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xBaD36f8edD1E2109baa37197c05074151a70Cc05</t>
+          <t>https://intel.arkm.com/explorer/address/0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>0xBaD36f8edD1E2109baa37197c05074151a70Cc05</t>
+          <t>0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -16092,28 +16092,48 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>552.3973642237681</v>
+        <v>554.9994840733091</v>
       </c>
       <c r="E233" t="n">
-        <v>1563196.157174988</v>
+        <v>1570559.740010013</v>
       </c>
       <c r="F233" t="n">
-        <v>4.576801137025496e-06</v>
+        <v>4.598360590160815e-06</v>
       </c>
       <c r="G233" t="b">
         <v>0</v>
       </c>
       <c r="H233" t="b">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>cex</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>https://coinbase.com</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>MagicSpend</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>evm</t>
+        </is>
+      </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -16135,12 +16155,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x4e3ae00E8323558fA5Cac04b152238924AA31B60</t>
+          <t>https://intel.arkm.com/explorer/address/0xBaD36f8edD1E2109baa37197c05074151a70Cc05</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>0x4e3ae00E8323558fA5Cac04b152238924AA31B60</t>
+          <t>0xBaD36f8edD1E2109baa37197c05074151a70Cc05</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -16149,13 +16169,13 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>536.8568985186167</v>
+        <v>552.3973642237681</v>
       </c>
       <c r="E234" t="n">
-        <v>1519219.125703922</v>
+        <v>1563196.157174988</v>
       </c>
       <c r="F234" t="n">
-        <v>4.448043062284881e-06</v>
+        <v>4.576801137025496e-06</v>
       </c>
       <c r="G234" t="b">
         <v>0</v>
@@ -16163,34 +16183,14 @@
       <c r="H234" t="b">
         <v>0</v>
       </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>MEXC</t>
-        </is>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>cex</t>
-        </is>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>https://mexc.com</t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Hot Wallet</t>
-        </is>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>evm</t>
-        </is>
-      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -16212,12 +16212,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0xe274C0B274C9f5aE1Ee565C3845B3Dff59661cdA</t>
+          <t>https://intel.arkm.com/explorer/address/0x4e3ae00E8323558fA5Cac04b152238924AA31B60</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>0xe274C0B274C9f5aE1Ee565C3845B3Dff59661cdA</t>
+          <t>0x4e3ae00E8323558fA5Cac04b152238924AA31B60</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -16226,13 +16226,13 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>536.6094032233434</v>
+        <v>536.8355405856912</v>
       </c>
       <c r="E235" t="n">
-        <v>1518518.753617546</v>
+        <v>1519158.686171012</v>
       </c>
       <c r="F235" t="n">
-        <v>4.445992479095718e-06</v>
+        <v>4.447866104504072e-06</v>
       </c>
       <c r="G235" t="b">
         <v>0</v>
@@ -16242,7 +16242,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Backpack Exchange</t>
+          <t>MEXC</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16252,7 +16252,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>https://backpack.exchange</t>
+          <t>https://mexc.com</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -16267,7 +16267,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -16289,12 +16289,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://intel.arkm.com/explorer/address/0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
+          <t>https://intel.arkm.com/explorer/address/0xe274C0B274C9f5aE1Ee565C3845B3Dff59661cdA</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>0x011A61C07DbF256A68256B1cB51A5e246730aB92</t>
+          <t>0xe274C0B274C9f5aE1Ee565C3845B3Dff59661cdA</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -16303,23 +16303,23 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>534.6759522321614</v>
+        <v>536.6094032233434</v>
       </c>
       <c r="E236" t="n">
-        <v>1513047.39666466</v>
+        <v>1518518.753617546</v>
       </c>
       <c r="F236" t="n">
-        <v>4.429973176202665e-06</v>
+        <v>4.445992479095718e-06</v>
       </c>
       <c r="G236" t="b">
         <v>0</v>
       </c>
       <c r="H236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Backpack Exchange</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16329,12 +16329,12 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>https://coinbase.com</t>
+          <t>https://backpack.exchange</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>MagicSpend</t>
+          <t>Hot Wallet</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -16344,7 +16344,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -16401,7 +16401,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -16458,7 +16458,7 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -16515,7 +16515,7 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -16572,7 +16572,7 @@
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -16629,7 +16629,7 @@
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -16665,13 +16665,13 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>500.8214888715867</v>
+        <v>500.8654025686175</v>
       </c>
       <c r="E242" t="n">
-        <v>1417244.682068371</v>
+        <v>1417368.950804777</v>
       </c>
       <c r="F242" t="n">
-        <v>4.1494773656917e-06</v>
+        <v>4.14984120569442e-06</v>
       </c>
       <c r="G242" t="b">
         <v>0</v>
@@ -16686,7 +16686,7 @@
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -16743,7 +16743,7 @@
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -16779,13 +16779,13 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>498.1480632774144</v>
+        <v>498.1400728477274</v>
       </c>
       <c r="E244" t="n">
-        <v>1409679.315384959</v>
+        <v>1409656.703747413</v>
       </c>
       <c r="F244" t="n">
-        <v>4.127327120068507e-06</v>
+        <v>4.127260916625034e-06</v>
       </c>
       <c r="G244" t="b">
         <v>0</v>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -16877,7 +16877,7 @@
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -16934,7 +16934,7 @@
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -16991,7 +16991,7 @@
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -17048,7 +17048,7 @@
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -17105,7 +17105,7 @@
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -17162,7 +17162,7 @@
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -17227,7 +17227,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -17284,7 +17284,7 @@
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -17341,7 +17341,7 @@
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -17377,13 +17377,13 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>387.6960606856241</v>
+        <v>387.6917580560351</v>
       </c>
       <c r="E254" t="n">
-        <v>1097117.820370607</v>
+        <v>1097105.64461729</v>
       </c>
       <c r="F254" t="n">
-        <v>3.212194493106747e-06</v>
+        <v>3.212158844348678e-06</v>
       </c>
       <c r="G254" t="b">
         <v>0</v>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -17475,7 +17475,7 @@
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -17532,7 +17532,7 @@
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -17568,13 +17568,13 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>370.8365697735591</v>
+        <v>370.8374827078796</v>
       </c>
       <c r="E257" t="n">
-        <v>1049408.158608008</v>
+        <v>1049410.742066066</v>
       </c>
       <c r="F257" t="n">
-        <v>3.072507843290017e-06</v>
+        <v>3.072515407263176e-06</v>
       </c>
       <c r="G257" t="b">
         <v>0</v>
@@ -17597,7 +17597,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -17654,7 +17654,7 @@
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -17690,13 +17690,13 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>365.7187163042865</v>
+        <v>365.7242774579064</v>
       </c>
       <c r="E259" t="n">
-        <v>1034925.452146522</v>
+        <v>1034941.189321482</v>
       </c>
       <c r="F259" t="n">
-        <v>3.03010467648597e-06</v>
+        <v>3.030150752546174e-06</v>
       </c>
       <c r="G259" t="b">
         <v>0</v>
@@ -17711,7 +17711,7 @@
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -17845,7 +17845,7 @@
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -17979,7 +17979,7 @@
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -18044,7 +18044,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -18101,7 +18101,7 @@
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -18158,7 +18158,7 @@
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -18231,7 +18231,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -18332,13 +18332,13 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>312.3117075250095</v>
+        <v>312.3137593843246</v>
       </c>
       <c r="E269" t="n">
-        <v>883792.1624225728</v>
+        <v>883797.9688561371</v>
       </c>
       <c r="F269" t="n">
-        <v>2.587609338280284e-06</v>
+        <v>2.587626338636648e-06</v>
       </c>
       <c r="G269" t="b">
         <v>0</v>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -18418,7 +18418,7 @@
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>303.8263809057322</v>
+        <v>303.820029530535</v>
       </c>
       <c r="E271" t="n">
-        <v>859780.0457422772</v>
+        <v>859762.0723666891</v>
       </c>
       <c r="F271" t="n">
-        <v>2.517305504420191e-06</v>
+        <v>2.517252881103884e-06</v>
       </c>
       <c r="G271" t="b">
         <v>0</v>
@@ -18475,7 +18475,7 @@
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -18532,7 +18532,7 @@
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -18589,7 +18589,7 @@
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -18723,7 +18723,7 @@
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -18780,7 +18780,7 @@
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -18837,7 +18837,7 @@
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -18902,7 +18902,7 @@
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -18959,7 +18959,7 @@
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -19024,7 +19024,7 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -19089,7 +19089,7 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -19146,7 +19146,7 @@
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -19268,7 +19268,7 @@
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -19325,7 +19325,7 @@
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -19402,7 +19402,7 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -19438,13 +19438,13 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>240.0497511504346</v>
+        <v>240.0498329837412</v>
       </c>
       <c r="E287" t="n">
-        <v>679302.3877955459</v>
+        <v>679302.6193707102</v>
       </c>
       <c r="F287" t="n">
-        <v>1.988894308994106e-06</v>
+        <v>1.988894987011046e-06</v>
       </c>
       <c r="G287" t="b">
         <v>0</v>
@@ -19479,7 +19479,7 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -19536,7 +19536,7 @@
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -19650,7 +19650,7 @@
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -19686,13 +19686,13 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>223.8165315328882</v>
+        <v>223.8165307177416</v>
       </c>
       <c r="E291" t="n">
-        <v>633364.9735930284</v>
+        <v>633364.9712862941</v>
       </c>
       <c r="F291" t="n">
-        <v>1.854396531099071e-06</v>
+        <v>1.854396524345303e-06</v>
       </c>
       <c r="G291" t="b">
         <v>0</v>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -19788,7 +19788,7 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -19845,7 +19845,7 @@
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -19902,7 +19902,7 @@
       <c r="M294" t="inlineStr"/>
       <c r="N294" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -19979,7 +19979,7 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -20036,7 +20036,7 @@
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -20158,7 +20158,7 @@
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -20223,7 +20223,7 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -20280,7 +20280,7 @@
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -20316,13 +20316,13 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>198.1794135266022</v>
+        <v>197.9951843097074</v>
       </c>
       <c r="E301" t="n">
-        <v>560816.0315741199</v>
+        <v>560294.6923669825</v>
       </c>
       <c r="F301" t="n">
-        <v>1.641984237991721e-06</v>
+        <v>1.640457835905168e-06</v>
       </c>
       <c r="G301" t="b">
         <v>0</v>
@@ -20357,7 +20357,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -20422,7 +20422,7 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -20458,13 +20458,13 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>487.0830038481495</v>
+        <v>487.083055911362</v>
       </c>
       <c r="E303" t="n">
-        <v>1378366.967609647</v>
+        <v>1378367.114940209</v>
       </c>
       <c r="F303" t="n">
-        <v>4.035649317354372e-06</v>
+        <v>4.035649748715899e-06</v>
       </c>
       <c r="G303" t="b">
         <v>0</v>
@@ -20499,7 +20499,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -20556,7 +20556,7 @@
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -20755,7 +20755,7 @@
       <c r="M307" t="inlineStr"/>
       <c r="N307" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -20812,7 +20812,7 @@
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -20869,7 +20869,7 @@
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -21068,7 +21068,7 @@
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -21198,7 +21198,7 @@
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -21255,7 +21255,7 @@
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -21312,7 +21312,7 @@
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -21385,7 +21385,7 @@
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -21450,7 +21450,7 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -21507,7 +21507,7 @@
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -21572,7 +21572,7 @@
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -21629,7 +21629,7 @@
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -21686,7 +21686,7 @@
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -21751,7 +21751,7 @@
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -21808,7 +21808,7 @@
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -21865,7 +21865,7 @@
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -21922,7 +21922,7 @@
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -21979,7 +21979,7 @@
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -22056,7 +22056,7 @@
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -22113,7 +22113,7 @@
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -22170,7 +22170,7 @@
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -22247,7 +22247,7 @@
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -22304,7 +22304,7 @@
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -22361,7 +22361,7 @@
       <c r="M333" t="inlineStr"/>
       <c r="N333" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -22426,7 +22426,7 @@
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -22483,7 +22483,7 @@
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -22540,7 +22540,7 @@
       <c r="M336" t="inlineStr"/>
       <c r="N336" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -22670,7 +22670,7 @@
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -22735,7 +22735,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -22792,7 +22792,7 @@
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -22849,7 +22849,7 @@
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -22914,7 +22914,7 @@
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -23036,7 +23036,7 @@
       <c r="M344" t="inlineStr"/>
       <c r="N344" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -23093,7 +23093,7 @@
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -23150,7 +23150,7 @@
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -23207,7 +23207,7 @@
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -23280,7 +23280,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -23345,7 +23345,7 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -23467,7 +23467,7 @@
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -23524,7 +23524,7 @@
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -23601,7 +23601,7 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -23658,7 +23658,7 @@
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -23715,7 +23715,7 @@
       <c r="M355" t="inlineStr"/>
       <c r="N355" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -23772,7 +23772,7 @@
       <c r="M356" t="inlineStr"/>
       <c r="N356" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -23837,7 +23837,7 @@
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -23914,7 +23914,7 @@
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -23979,7 +23979,7 @@
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -24036,7 +24036,7 @@
       <c r="M360" t="inlineStr"/>
       <c r="N360" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -24093,7 +24093,7 @@
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -24150,7 +24150,7 @@
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -24207,7 +24207,7 @@
       <c r="M363" t="inlineStr"/>
       <c r="N363" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -24264,7 +24264,7 @@
       <c r="M364" t="inlineStr"/>
       <c r="N364" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -24321,7 +24321,7 @@
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -24378,7 +24378,7 @@
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -24435,7 +24435,7 @@
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -24492,7 +24492,7 @@
       <c r="M368" t="inlineStr"/>
       <c r="N368" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -24565,7 +24565,7 @@
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -24622,7 +24622,7 @@
       <c r="M370" t="inlineStr"/>
       <c r="N370" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -24687,7 +24687,7 @@
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -24744,7 +24744,7 @@
       <c r="M372" t="inlineStr"/>
       <c r="N372" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -24821,7 +24821,7 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -24878,7 +24878,7 @@
       <c r="M374" t="inlineStr"/>
       <c r="N374" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -24935,7 +24935,7 @@
       <c r="M375" t="inlineStr"/>
       <c r="N375" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -24992,7 +24992,7 @@
       <c r="M376" t="inlineStr"/>
       <c r="N376" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -25049,7 +25049,7 @@
       <c r="M377" t="inlineStr"/>
       <c r="N377" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -25114,7 +25114,7 @@
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -25236,7 +25236,7 @@
       <c r="M380" t="inlineStr"/>
       <c r="N380" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -25370,7 +25370,7 @@
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -25435,7 +25435,7 @@
       <c r="M383" t="inlineStr"/>
       <c r="N383" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -25565,7 +25565,7 @@
       <c r="M385" t="inlineStr"/>
       <c r="N385" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -25622,7 +25622,7 @@
       <c r="M386" t="inlineStr"/>
       <c r="N386" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -25687,7 +25687,7 @@
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -25744,7 +25744,7 @@
       <c r="M388" t="inlineStr"/>
       <c r="N388" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -25801,7 +25801,7 @@
       <c r="M389" t="inlineStr"/>
       <c r="N389" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -25866,7 +25866,7 @@
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -25923,7 +25923,7 @@
       <c r="M391" t="inlineStr"/>
       <c r="N391" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -26000,7 +26000,7 @@
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -26057,7 +26057,7 @@
       <c r="M393" t="inlineStr"/>
       <c r="N393" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -26114,7 +26114,7 @@
       <c r="M394" t="inlineStr"/>
       <c r="N394" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -26171,7 +26171,7 @@
       <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -26228,7 +26228,7 @@
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -26285,7 +26285,7 @@
       <c r="M397" t="inlineStr"/>
       <c r="N397" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -26342,7 +26342,7 @@
       <c r="M398" t="inlineStr"/>
       <c r="N398" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -26464,7 +26464,7 @@
       <c r="M400" t="inlineStr"/>
       <c r="N400" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -26606,7 +26606,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -26642,13 +26642,13 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>2607487.042721211</v>
+        <v>2607875.74876315</v>
       </c>
       <c r="E403" t="n">
-        <v>7378771132.974193</v>
+        <v>7379871108.879912</v>
       </c>
       <c r="F403" t="n">
-        <v>0.02160392216692659</v>
+        <v>0.0216071427294599</v>
       </c>
       <c r="G403" t="b">
         <v>0</v>
@@ -26671,7 +26671,7 @@
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -26748,7 +26748,7 @@
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -26825,7 +26825,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -27056,7 +27056,7 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -27133,7 +27133,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -27210,7 +27210,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -27344,7 +27344,7 @@
       <c r="M412" t="inlineStr"/>
       <c r="N412" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -27401,7 +27401,7 @@
       <c r="M413" t="inlineStr"/>
       <c r="N413" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -27478,7 +27478,7 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -27547,7 +27547,7 @@
       <c r="M415" t="inlineStr"/>
       <c r="N415" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -27624,7 +27624,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -27701,7 +27701,7 @@
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -27758,7 +27758,7 @@
       <c r="M418" t="inlineStr"/>
       <c r="N418" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -27835,7 +27835,7 @@
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -27908,7 +27908,7 @@
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -27985,7 +27985,7 @@
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -28062,7 +28062,7 @@
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -28119,7 +28119,7 @@
       <c r="M423" t="inlineStr"/>
       <c r="N423" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -28346,7 +28346,7 @@
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -28423,7 +28423,7 @@
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -28577,7 +28577,7 @@
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -28613,13 +28613,13 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>189483.0984996675</v>
+        <v>189482.4843263991</v>
       </c>
       <c r="E430" t="n">
-        <v>536206851.458299</v>
+        <v>536205113.4462174</v>
       </c>
       <c r="F430" t="n">
-        <v>0.001569932292995322</v>
+        <v>0.001569927204359686</v>
       </c>
       <c r="G430" t="b">
         <v>0</v>
@@ -28654,7 +28654,7 @@
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -28731,7 +28731,7 @@
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -28885,7 +28885,7 @@
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -28962,7 +28962,7 @@
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -29019,7 +29019,7 @@
       <c r="M435" t="inlineStr"/>
       <c r="N435" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -29076,7 +29076,7 @@
       <c r="M436" t="inlineStr"/>
       <c r="N436" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -29307,7 +29307,7 @@
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -29376,7 +29376,7 @@
       <c r="M440" t="inlineStr"/>
       <c r="N440" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -29445,7 +29445,7 @@
       <c r="M441" t="inlineStr"/>
       <c r="N441" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -29502,7 +29502,7 @@
       <c r="M442" t="inlineStr"/>
       <c r="N442" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -29579,7 +29579,7 @@
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -29725,7 +29725,7 @@
       <c r="M445" t="inlineStr"/>
       <c r="N445" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -29802,7 +29802,7 @@
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -29859,7 +29859,7 @@
       <c r="M447" t="inlineStr"/>
       <c r="N447" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -29916,7 +29916,7 @@
       <c r="M448" t="inlineStr"/>
       <c r="N448" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -30062,7 +30062,7 @@
       <c r="M450" t="inlineStr"/>
       <c r="N450" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -30131,7 +30131,7 @@
       <c r="M451" t="inlineStr"/>
       <c r="N451" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -30188,7 +30188,7 @@
       <c r="M452" t="inlineStr"/>
       <c r="N452" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -30265,7 +30265,7 @@
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -30322,7 +30322,7 @@
       <c r="M454" t="inlineStr"/>
       <c r="N454" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -30391,7 +30391,7 @@
       <c r="M455" t="inlineStr"/>
       <c r="N455" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -30448,7 +30448,7 @@
       <c r="M456" t="inlineStr"/>
       <c r="N456" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -30505,7 +30505,7 @@
       <c r="M457" t="inlineStr"/>
       <c r="N457" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -30562,7 +30562,7 @@
       <c r="M458" t="inlineStr"/>
       <c r="N458" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -30639,7 +30639,7 @@
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -30675,13 +30675,13 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>100196.8579892706</v>
+        <v>100196.8577703846</v>
       </c>
       <c r="E460" t="n">
-        <v>283541076.6123576</v>
+        <v>283541075.9929451</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0008301652456580358</v>
+        <v>0.0008301652438444902</v>
       </c>
       <c r="G460" t="b">
         <v>0</v>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -30773,7 +30773,7 @@
       <c r="M461" t="inlineStr"/>
       <c r="N461" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -30850,7 +30850,7 @@
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -30907,7 +30907,7 @@
       <c r="M463" t="inlineStr"/>
       <c r="N463" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -30964,7 +30964,7 @@
       <c r="M464" t="inlineStr"/>
       <c r="N464" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -31021,7 +31021,7 @@
       <c r="M465" t="inlineStr"/>
       <c r="N465" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -31078,7 +31078,7 @@
       <c r="M466" t="inlineStr"/>
       <c r="N466" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -31135,7 +31135,7 @@
       <c r="M467" t="inlineStr"/>
       <c r="N467" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -31212,7 +31212,7 @@
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -31281,7 +31281,7 @@
       <c r="M469" t="inlineStr"/>
       <c r="N469" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -31338,7 +31338,7 @@
       <c r="M470" t="inlineStr"/>
       <c r="N470" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -31407,7 +31407,7 @@
       <c r="M471" t="inlineStr"/>
       <c r="N471" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -31476,7 +31476,7 @@
       <c r="M472" t="inlineStr"/>
       <c r="N472" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -31533,7 +31533,7 @@
       <c r="M473" t="inlineStr"/>
       <c r="N473" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -31590,7 +31590,7 @@
       <c r="M474" t="inlineStr"/>
       <c r="N474" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -31655,7 +31655,7 @@
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -31712,7 +31712,7 @@
       <c r="M476" t="inlineStr"/>
       <c r="N476" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -31789,7 +31789,7 @@
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -31943,7 +31943,7 @@
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -32020,7 +32020,7 @@
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -32097,7 +32097,7 @@
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -32174,7 +32174,7 @@
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -32251,7 +32251,7 @@
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -32308,7 +32308,7 @@
       <c r="M484" t="inlineStr"/>
       <c r="N484" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -32365,7 +32365,7 @@
       <c r="M485" t="inlineStr"/>
       <c r="N485" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -32442,7 +32442,7 @@
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -32499,7 +32499,7 @@
       <c r="M487" t="inlineStr"/>
       <c r="N487" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -32576,7 +32576,7 @@
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -32641,7 +32641,7 @@
       <c r="M489" t="inlineStr"/>
       <c r="N489" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -32718,7 +32718,7 @@
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -32775,7 +32775,7 @@
       <c r="M491" t="inlineStr"/>
       <c r="N491" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -32917,7 +32917,7 @@
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -32974,7 +32974,7 @@
       <c r="M494" t="inlineStr"/>
       <c r="N494" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -33031,7 +33031,7 @@
       <c r="M495" t="inlineStr"/>
       <c r="N495" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -33088,7 +33088,7 @@
       <c r="M496" t="inlineStr"/>
       <c r="N496" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -33145,7 +33145,7 @@
       <c r="M497" t="inlineStr"/>
       <c r="N497" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -33202,7 +33202,7 @@
       <c r="M498" t="inlineStr"/>
       <c r="N498" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -33259,7 +33259,7 @@
       <c r="M499" t="inlineStr"/>
       <c r="N499" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -33316,7 +33316,7 @@
       <c r="M500" t="inlineStr"/>
       <c r="N500" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -33373,7 +33373,7 @@
       <c r="M501" t="inlineStr"/>
       <c r="N501" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -33450,7 +33450,7 @@
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -33486,13 +33486,13 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>10076.53005519829</v>
+        <v>10076.44331909986</v>
       </c>
       <c r="E503" t="n">
-        <v>28514967.81140233</v>
+        <v>28514722.36212154</v>
       </c>
       <c r="F503" t="n">
-        <v>8.348749867535806e-05</v>
+        <v>8.34867800371102e-05</v>
       </c>
       <c r="G503" t="b">
         <v>0</v>
@@ -33515,7 +33515,7 @@
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -33592,7 +33592,7 @@
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -33669,7 +33669,7 @@
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -33746,7 +33746,7 @@
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
@@ -33888,7 +33888,7 @@
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -33924,13 +33924,13 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>1784.574163436899</v>
+        <v>1784.571160436899</v>
       </c>
       <c r="E509" t="n">
-        <v>5050059.350660274</v>
+        <v>5050050.852650754</v>
       </c>
       <c r="F509" t="n">
-        <v>1.478580744461288e-05</v>
+        <v>1.478578256373055e-05</v>
       </c>
       <c r="G509" t="b">
         <v>0</v>
@@ -33965,7 +33965,7 @@
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -34042,7 +34042,7 @@
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -34099,7 +34099,7 @@
       <c r="M511" t="inlineStr"/>
       <c r="N511" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -34176,7 +34176,7 @@
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
@@ -34253,7 +34253,7 @@
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -34330,7 +34330,7 @@
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -34395,7 +34395,7 @@
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -34452,7 +34452,7 @@
       <c r="M516" t="inlineStr"/>
       <c r="N516" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -34517,7 +34517,7 @@
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -34574,7 +34574,7 @@
       <c r="M518" t="inlineStr"/>
       <c r="N518" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -34631,7 +34631,7 @@
       <c r="M519" t="inlineStr"/>
       <c r="N519" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -34708,7 +34708,7 @@
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -34785,7 +34785,7 @@
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -34821,13 +34821,13 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>97.28337219272392</v>
+        <v>97.28022014416815</v>
       </c>
       <c r="E522" t="n">
-        <v>275296.3779658579</v>
+        <v>275287.4581727728</v>
       </c>
       <c r="F522" t="n">
-        <v>8.060260191338828e-07</v>
+        <v>8.059999033332866e-07</v>
       </c>
       <c r="G522" t="b">
         <v>0</v>
@@ -34862,7 +34862,7 @@
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -34919,7 +34919,7 @@
       <c r="M523" t="inlineStr"/>
       <c r="N523" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -34996,7 +34996,7 @@
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -35053,7 +35053,7 @@
       <c r="M525" t="inlineStr"/>
       <c r="N525" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -35110,7 +35110,7 @@
       <c r="M526" t="inlineStr"/>
       <c r="N526" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -35175,7 +35175,7 @@
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -35232,7 +35232,7 @@
       <c r="M528" t="inlineStr"/>
       <c r="N528" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -35309,7 +35309,7 @@
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -35366,7 +35366,7 @@
       <c r="M530" t="inlineStr"/>
       <c r="N530" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -35423,7 +35423,7 @@
       <c r="M531" t="inlineStr"/>
       <c r="N531" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -35480,7 +35480,7 @@
       <c r="M532" t="inlineStr"/>
       <c r="N532" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -35537,7 +35537,7 @@
       <c r="M533" t="inlineStr"/>
       <c r="N533" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -35594,7 +35594,7 @@
       <c r="M534" t="inlineStr"/>
       <c r="N534" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -35630,13 +35630,13 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>55.51459393316977</v>
+        <v>55.51468230816977</v>
       </c>
       <c r="E535" t="n">
-        <v>157097.4184958411</v>
+        <v>157097.6685829512</v>
       </c>
       <c r="F535" t="n">
-        <v>4.59957402207872e-07</v>
+        <v>4.5995813442498e-07</v>
       </c>
       <c r="G535" t="b">
         <v>0</v>
@@ -35659,7 +35659,7 @@
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -35736,7 +35736,7 @@
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -35801,7 +35801,7 @@
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -35858,7 +35858,7 @@
       <c r="M538" t="inlineStr"/>
       <c r="N538" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -35935,7 +35935,7 @@
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -36004,7 +36004,7 @@
       <c r="M540" t="inlineStr"/>
       <c r="N540" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -36061,7 +36061,7 @@
       <c r="M541" t="inlineStr"/>
       <c r="N541" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -36126,7 +36126,7 @@
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
@@ -36203,7 +36203,7 @@
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -36280,7 +36280,7 @@
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -36337,7 +36337,7 @@
       <c r="M545" t="inlineStr"/>
       <c r="N545" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -36402,7 +36402,7 @@
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -36459,7 +36459,7 @@
       <c r="M547" t="inlineStr"/>
       <c r="N547" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -36516,7 +36516,7 @@
       <c r="M548" t="inlineStr"/>
       <c r="N548" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -36573,7 +36573,7 @@
       <c r="M549" t="inlineStr"/>
       <c r="N549" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -36638,7 +36638,7 @@
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -36695,7 +36695,7 @@
       <c r="M551" t="inlineStr"/>
       <c r="N551" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -36752,7 +36752,7 @@
       <c r="M552" t="inlineStr"/>
       <c r="N552" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
@@ -36821,7 +36821,7 @@
       <c r="M553" t="inlineStr"/>
       <c r="N553" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
@@ -36878,7 +36878,7 @@
       <c r="M554" t="inlineStr"/>
       <c r="N554" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -36935,7 +36935,7 @@
       <c r="M555" t="inlineStr"/>
       <c r="N555" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -36992,7 +36992,7 @@
       <c r="M556" t="inlineStr"/>
       <c r="N556" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -37057,7 +37057,7 @@
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
@@ -37114,7 +37114,7 @@
       <c r="M558" t="inlineStr"/>
       <c r="N558" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
@@ -37171,7 +37171,7 @@
       <c r="M559" t="inlineStr"/>
       <c r="N559" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
@@ -37228,7 +37228,7 @@
       <c r="M560" t="inlineStr"/>
       <c r="N560" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
@@ -37305,7 +37305,7 @@
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -37382,7 +37382,7 @@
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
@@ -37439,7 +37439,7 @@
       <c r="M563" t="inlineStr"/>
       <c r="N563" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
@@ -37504,7 +37504,7 @@
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -37569,7 +37569,7 @@
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -37626,7 +37626,7 @@
       <c r="M566" t="inlineStr"/>
       <c r="N566" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -37703,7 +37703,7 @@
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -37760,7 +37760,7 @@
       <c r="M568" t="inlineStr"/>
       <c r="N568" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
@@ -37817,7 +37817,7 @@
       <c r="M569" t="inlineStr"/>
       <c r="N569" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -37874,7 +37874,7 @@
       <c r="M570" t="inlineStr"/>
       <c r="N570" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
@@ -37939,7 +37939,7 @@
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
@@ -37996,7 +37996,7 @@
       <c r="M572" t="inlineStr"/>
       <c r="N572" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -38053,7 +38053,7 @@
       <c r="M573" t="inlineStr"/>
       <c r="N573" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -38110,7 +38110,7 @@
       <c r="M574" t="inlineStr"/>
       <c r="N574" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
@@ -38167,7 +38167,7 @@
       <c r="M575" t="inlineStr"/>
       <c r="N575" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
@@ -38244,7 +38244,7 @@
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -38301,7 +38301,7 @@
       <c r="M577" t="inlineStr"/>
       <c r="N577" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -38358,7 +38358,7 @@
       <c r="M578" t="inlineStr"/>
       <c r="N578" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
@@ -38415,7 +38415,7 @@
       <c r="M579" t="inlineStr"/>
       <c r="N579" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
@@ -38472,7 +38472,7 @@
       <c r="M580" t="inlineStr"/>
       <c r="N580" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
@@ -38549,7 +38549,7 @@
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
@@ -38614,7 +38614,7 @@
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -38679,7 +38679,7 @@
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
@@ -38748,7 +38748,7 @@
       <c r="M584" t="inlineStr"/>
       <c r="N584" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -38805,7 +38805,7 @@
       <c r="M585" t="inlineStr"/>
       <c r="N585" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -38862,7 +38862,7 @@
       <c r="M586" t="inlineStr"/>
       <c r="N586" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -38919,7 +38919,7 @@
       <c r="M587" t="inlineStr"/>
       <c r="N587" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
@@ -38976,7 +38976,7 @@
       <c r="M588" t="inlineStr"/>
       <c r="N588" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
@@ -39033,7 +39033,7 @@
       <c r="M589" t="inlineStr"/>
       <c r="N589" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -39090,7 +39090,7 @@
       <c r="M590" t="inlineStr"/>
       <c r="N590" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -39155,7 +39155,7 @@
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -39212,7 +39212,7 @@
       <c r="M592" t="inlineStr"/>
       <c r="N592" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -39334,7 +39334,7 @@
       <c r="M594" t="inlineStr"/>
       <c r="N594" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -39391,7 +39391,7 @@
       <c r="M595" t="inlineStr"/>
       <c r="N595" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -39456,7 +39456,7 @@
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -39513,7 +39513,7 @@
       <c r="M597" t="inlineStr"/>
       <c r="N597" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -39578,7 +39578,7 @@
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -39643,7 +39643,7 @@
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -39700,7 +39700,7 @@
       <c r="M600" t="inlineStr"/>
       <c r="N600" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -39757,7 +39757,7 @@
       <c r="M601" t="inlineStr"/>
       <c r="N601" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -39793,13 +39793,13 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>24207.68430442916</v>
+        <v>24207.72741797437</v>
       </c>
       <c r="E602" t="n">
-        <v>68503873.35204582</v>
+        <v>68503995.35648057</v>
       </c>
       <c r="F602" t="n">
-        <v>0.0002005689458800254</v>
+        <v>0.0002005693030904965</v>
       </c>
       <c r="G602" t="b">
         <v>0</v>
@@ -39822,7 +39822,7 @@
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -39899,7 +39899,7 @@
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -39976,7 +39976,7 @@
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -40053,7 +40053,7 @@
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
@@ -40130,7 +40130,7 @@
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
@@ -40231,13 +40231,13 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>6533.120238194838</v>
+        <v>6533.120134898803</v>
       </c>
       <c r="E608" t="n">
-        <v>18487684.97485328</v>
+        <v>18487684.68254203</v>
       </c>
       <c r="F608" t="n">
-        <v>5.41291361455194e-05</v>
+        <v>5.412913528967642e-05</v>
       </c>
       <c r="G608" t="b">
         <v>0</v>
@@ -40272,7 +40272,7 @@
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
@@ -40349,7 +40349,7 @@
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -40385,13 +40385,13 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>3567.258788145873</v>
+        <v>3570.687269045283</v>
       </c>
       <c r="E610" t="n">
-        <v>10094771.60904672</v>
+        <v>10104473.66143511</v>
       </c>
       <c r="F610" t="n">
-        <v>2.955595941445612e-05</v>
+        <v>2.958436555158666e-05</v>
       </c>
       <c r="G610" t="b">
         <v>0</v>
@@ -40426,7 +40426,7 @@
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
@@ -40503,7 +40503,7 @@
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -40539,13 +40539,13 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>1583.844282025593</v>
+        <v>1583.840695081348</v>
       </c>
       <c r="E612" t="n">
-        <v>4482025.903047303</v>
+        <v>4482015.752569001</v>
       </c>
       <c r="F612" t="n">
-        <v>1.312269170768458e-05</v>
+        <v>1.312266198862443e-05</v>
       </c>
       <c r="G612" t="b">
         <v>0</v>
@@ -40580,7 +40580,7 @@
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
@@ -40657,7 +40657,7 @@
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -40722,7 +40722,7 @@
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -40779,7 +40779,7 @@
       <c r="M615" t="inlineStr"/>
       <c r="N615" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
@@ -40856,7 +40856,7 @@
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -40933,7 +40933,7 @@
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -40998,7 +40998,7 @@
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -41140,7 +41140,7 @@
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -41217,7 +41217,7 @@
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -41274,7 +41274,7 @@
       <c r="M622" t="inlineStr"/>
       <c r="N622" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -41310,13 +41310,13 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>867.1381665543535</v>
+        <v>867.1360761802895</v>
       </c>
       <c r="E623" t="n">
-        <v>2453862.269242172</v>
+        <v>2453856.353818031</v>
       </c>
       <c r="F623" t="n">
-        <v>7.184536356760201e-06</v>
+        <v>7.184519037295967e-06</v>
       </c>
       <c r="G623" t="b">
         <v>0</v>
@@ -41351,7 +41351,7 @@
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
@@ -41408,7 +41408,7 @@
       <c r="M624" t="inlineStr"/>
       <c r="N624" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -41485,7 +41485,7 @@
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
@@ -41542,7 +41542,7 @@
       <c r="M626" t="inlineStr"/>
       <c r="N626" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -41619,7 +41619,7 @@
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -41676,7 +41676,7 @@
       <c r="M628" t="inlineStr"/>
       <c r="N628" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
@@ -41753,7 +41753,7 @@
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -41810,7 +41810,7 @@
       <c r="M630" t="inlineStr"/>
       <c r="N630" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
@@ -41887,7 +41887,7 @@
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -41952,7 +41952,7 @@
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -42029,7 +42029,7 @@
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -42106,7 +42106,7 @@
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -42163,7 +42163,7 @@
       <c r="M635" t="inlineStr"/>
       <c r="N635" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -42199,13 +42199,13 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>313.5787730775059</v>
+        <v>313.5791165642559</v>
       </c>
       <c r="E636" t="n">
-        <v>887377.7552056493</v>
+        <v>887378.7272181939</v>
       </c>
       <c r="F636" t="n">
-        <v>2.598107409844221e-06</v>
+        <v>2.598110255749451e-06</v>
       </c>
       <c r="G636" t="b">
         <v>0</v>
@@ -42240,7 +42240,7 @@
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -42317,7 +42317,7 @@
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -42382,7 +42382,7 @@
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -42418,13 +42418,13 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>253.9673710264582</v>
+        <v>253.9671502323843</v>
       </c>
       <c r="E639" t="n">
-        <v>718687.0252255126</v>
+        <v>718686.4004136104</v>
       </c>
       <c r="F639" t="n">
-        <v>2.104206550866915e-06</v>
+        <v>2.104204721512479e-06</v>
       </c>
       <c r="G639" t="b">
         <v>0</v>
@@ -42459,7 +42459,7 @@
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -42524,7 +42524,7 @@
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -42560,13 +42560,13 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>224.0074468939553</v>
+        <v>224.0074468934914</v>
       </c>
       <c r="E641" t="n">
-        <v>633905.2335183907</v>
+        <v>633905.2335170776</v>
       </c>
       <c r="F641" t="n">
-        <v>1.855978330177413e-06</v>
+        <v>1.855978330173569e-06</v>
       </c>
       <c r="G641" t="b">
         <v>0</v>
@@ -42601,7 +42601,7 @@
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -42658,7 +42658,7 @@
       <c r="M642" t="inlineStr"/>
       <c r="N642" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -42715,7 +42715,7 @@
       <c r="M643" t="inlineStr"/>
       <c r="N643" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -42780,7 +42780,7 @@
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -42837,7 +42837,7 @@
       <c r="M645" t="inlineStr"/>
       <c r="N645" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -42914,7 +42914,7 @@
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
@@ -42971,7 +42971,7 @@
       <c r="M647" t="inlineStr"/>
       <c r="N647" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
@@ -43028,7 +43028,7 @@
       <c r="M648" t="inlineStr"/>
       <c r="N648" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -43093,7 +43093,7 @@
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -43158,7 +43158,7 @@
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -43194,13 +43194,13 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>199.7401870345094</v>
+        <v>199.7401856644881</v>
       </c>
       <c r="E651" t="n">
-        <v>565232.770877736</v>
+        <v>565232.7670007951</v>
       </c>
       <c r="F651" t="n">
-        <v>1.654915780443352e-06</v>
+        <v>1.654915769092257e-06</v>
       </c>
       <c r="G651" t="b">
         <v>0</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -43300,7 +43300,7 @@
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -43357,7 +43357,7 @@
       <c r="M653" t="inlineStr"/>
       <c r="N653" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
@@ -43422,7 +43422,7 @@
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -43499,7 +43499,7 @@
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -43576,7 +43576,7 @@
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
@@ -43633,7 +43633,7 @@
       <c r="M657" t="inlineStr"/>
       <c r="N657" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
@@ -43690,7 +43690,7 @@
       <c r="M658" t="inlineStr"/>
       <c r="N658" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
@@ -43747,7 +43747,7 @@
       <c r="M659" t="inlineStr"/>
       <c r="N659" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -43804,7 +43804,7 @@
       <c r="M660" t="inlineStr"/>
       <c r="N660" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -43861,7 +43861,7 @@
       <c r="M661" t="inlineStr"/>
       <c r="N661" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -43918,7 +43918,7 @@
       <c r="M662" t="inlineStr"/>
       <c r="N662" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
@@ -43995,7 +43995,7 @@
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
@@ -44072,7 +44072,7 @@
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -44108,13 +44108,13 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>138.7564111683681</v>
+        <v>138.7564111489454</v>
       </c>
       <c r="E665" t="n">
-        <v>392658.4425806949</v>
+        <v>392658.4425257318</v>
       </c>
       <c r="F665" t="n">
-        <v>1.149644334920669e-06</v>
+        <v>1.149644334759745e-06</v>
       </c>
       <c r="G665" t="b">
         <v>0</v>
@@ -44149,7 +44149,7 @@
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -44226,7 +44226,7 @@
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -44283,7 +44283,7 @@
       <c r="M667" t="inlineStr"/>
       <c r="N667" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -44340,7 +44340,7 @@
       <c r="M668" t="inlineStr"/>
       <c r="N668" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -44405,7 +44405,7 @@
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -44462,7 +44462,7 @@
       <c r="M670" t="inlineStr"/>
       <c r="N670" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -44519,7 +44519,7 @@
       <c r="M671" t="inlineStr"/>
       <c r="N671" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -44576,7 +44576,7 @@
       <c r="M672" t="inlineStr"/>
       <c r="N672" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -44641,7 +44641,7 @@
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -44718,7 +44718,7 @@
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -44783,7 +44783,7 @@
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -44860,7 +44860,7 @@
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
@@ -44925,7 +44925,7 @@
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -45002,7 +45002,7 @@
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -45067,7 +45067,7 @@
       <c r="M679" t="inlineStr"/>
       <c r="N679" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -45132,7 +45132,7 @@
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
@@ -45209,7 +45209,7 @@
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -45274,7 +45274,7 @@
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
@@ -45339,7 +45339,7 @@
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -45416,7 +45416,7 @@
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -45493,7 +45493,7 @@
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -45558,7 +45558,7 @@
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
@@ -45615,7 +45615,7 @@
       <c r="M687" t="inlineStr"/>
       <c r="N687" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -45672,7 +45672,7 @@
       <c r="M688" t="inlineStr"/>
       <c r="N688" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -45729,7 +45729,7 @@
       <c r="M689" t="inlineStr"/>
       <c r="N689" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
@@ -45794,7 +45794,7 @@
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
@@ -45871,7 +45871,7 @@
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -45948,7 +45948,7 @@
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -46025,7 +46025,7 @@
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
@@ -46082,7 +46082,7 @@
       <c r="M694" t="inlineStr"/>
       <c r="N694" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -46139,7 +46139,7 @@
       <c r="M695" t="inlineStr"/>
       <c r="N695" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -46204,7 +46204,7 @@
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -46281,7 +46281,7 @@
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -46358,7 +46358,7 @@
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -46423,7 +46423,7 @@
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -46488,7 +46488,7 @@
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -46553,7 +46553,7 @@
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>2025-12-17 20:32:57</t>
+          <t>2025-12-17 20:35:57</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
